--- a/Basic Grammar for N5-N4.xlsx
+++ b/Basic Grammar for N5-N4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9024" activeTab="2"/>
+    <workbookView windowWidth="23040" windowHeight="9024"/>
   </bookViews>
   <sheets>
     <sheet name="Basic" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="408">
   <si>
     <t>Nouns</t>
   </si>
@@ -44,10 +44,30 @@
     <t>Plain</t>
   </si>
   <si>
-    <t>学生 だ</t>
-  </si>
-  <si>
-    <t>Positive：</t>
+    <r>
+      <t>学生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>だ</t>
+    </r>
+  </si>
+  <si>
+    <t>学生 で</t>
   </si>
   <si>
     <t>For ru-verbs:</t>
@@ -74,12 +94,15 @@
     </r>
   </si>
   <si>
+    <t>none</t>
+  </si>
+  <si>
     <t>Neg</t>
   </si>
   <si>
-    <t>学生 じゃない</t>
-  </si>
-  <si>
+    <r>
+      <t>学生</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -87,88 +110,20 @@
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
-      <t>Conjugate the verb 
- to its past tense 
- and replace '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>た</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'
- with'</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>て</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>';
- or'</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>だ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'with'</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>で</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'</t>
-    </r>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>じゃない</t>
+    </r>
+  </si>
+  <si>
+    <t>学生 じゃな くて</t>
   </si>
   <si>
     <t>Remove the る</t>
@@ -361,37 +316,136 @@
     <t>静か</t>
   </si>
   <si>
-    <t>静か だ</t>
-  </si>
-  <si>
+    <r>
+      <t>静</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>か</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">静か  </t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>だ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>静</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>か</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>で</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>静</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>か</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>です</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>静</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>か</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
-      <t>です</t>
-    </r>
-  </si>
-  <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>静か じゃない</t>
-  </si>
-  <si>
-    <t>Negative:</t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>じゃない</t>
+    </r>
+  </si>
+  <si>
+    <t>静か じゃな くて</t>
   </si>
   <si>
     <r>
@@ -461,50 +515,11 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
-      <t>Replace'</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>い</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'
-with'</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>くて</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'(</t>
+      <t xml:space="preserve">静か  </t>
     </r>
     <r>
       <rPr>
@@ -514,8 +529,13 @@
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
-      <t>Same with i-adj</t>
-    </r>
+      <t>でした</t>
+    </r>
+  </si>
+  <si>
+    <t>静か じゃなかった</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -523,8 +543,7 @@
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">)。
-</t>
+      <t>静か</t>
     </r>
     <r>
       <rPr>
@@ -534,36 +553,29 @@
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
-      <t>This rule also works 
-for the polite'です'
-and'ます'endings.</t>
+      <t xml:space="preserve"> じゃなかったです</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">静か  </t>
+      <t xml:space="preserve">静か </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
-      <t>でした</t>
-    </r>
-  </si>
-  <si>
-    <t>静か じゃなかった</t>
-  </si>
-  <si>
+      <t xml:space="preserve"> でわ ありませんでした</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -571,7 +583,7 @@
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
-      <t>静か</t>
+      <t xml:space="preserve">／静か  </t>
     </r>
     <r>
       <rPr>
@@ -581,18 +593,95 @@
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> じゃなかったです</t>
-    </r>
+      <t>じゃ ありませんでした</t>
+    </r>
+  </si>
+  <si>
+    <t>i-adj</t>
+  </si>
+  <si>
+    <t>Exception：いいです</t>
   </si>
   <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">可愛い
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'だ' CAN NOT be used in i-adj</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>可愛</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">静か </t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>い</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>可愛</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>くて</t>
+    </r>
+  </si>
+  <si>
+    <t>Exception:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">可愛い </t>
     </r>
     <r>
       <rPr>
@@ -602,7 +691,15 @@
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> でわ ありませんでした</t>
+      <t>です</t>
+    </r>
+  </si>
+  <si>
+    <t>past : よかったです</t>
+  </si>
+  <si>
+    <r>
+      <t>可愛</t>
     </r>
     <r>
       <rPr>
@@ -611,7 +708,62 @@
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">／静か  </t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>くない</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>可愛</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>くな</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> くて</t>
+    </r>
+  </si>
+  <si>
+    <t>する ----&gt; し</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">可愛い </t>
     </r>
     <r>
       <rPr>
@@ -621,42 +773,8 @@
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
-      <t>じゃ ありませんでした</t>
-    </r>
-  </si>
-  <si>
-    <t>i-adj</t>
-  </si>
-  <si>
-    <t>Exception：いいです</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">可愛い
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'だ' CAN NOT be used in i-adj</t>
-    </r>
-  </si>
-  <si>
-    <t>可愛 い</t>
-  </si>
-  <si>
-    <t>Exception:</t>
+      <t>くないです</t>
+    </r>
   </si>
   <si>
     <r>
@@ -676,17 +794,17 @@
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
-      <t>です</t>
-    </r>
-  </si>
-  <si>
-    <t>past : よかったです</t>
-  </si>
-  <si>
-    <t>可愛 くない</t>
-  </si>
-  <si>
-    <t>する ----&gt; し</t>
+      <t>くありません</t>
+    </r>
+  </si>
+  <si>
+    <t>past-neg: よく ありませんでした</t>
+  </si>
+  <si>
+    <t>可愛 かった</t>
+  </si>
+  <si>
+    <t>くる ----&gt; き</t>
   </si>
   <si>
     <r>
@@ -703,68 +821,29 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>くないです</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">可愛い </t>
+        <rFont val="Yu Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>かったです</t>
+    </r>
+  </si>
+  <si>
+    <t>可愛 くなかった</t>
+  </si>
+  <si>
+    <r>
+      <t>可愛い</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>くありません</t>
-    </r>
-  </si>
-  <si>
-    <t>past-neg: よく ありませんでした</t>
-  </si>
-  <si>
-    <t>可愛 かった</t>
-  </si>
-  <si>
-    <t>くる ----&gt; き</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">可愛い </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>かったです</t>
-    </r>
-  </si>
-  <si>
-    <t>可愛 くなかった</t>
-  </si>
-  <si>
-    <t>可愛い くなかったです</t>
+        <rFont val="Yu gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> くなかったです</t>
+    </r>
   </si>
   <si>
     <r>
@@ -2374,12 +2453,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">Replace the </t>
     </r>
     <r>
@@ -2879,12 +2952,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
       <t>To describe a continuing action, first conjugate the verb to the te-form and then attach the verb</t>
     </r>
     <r>
@@ -2921,7 +2988,7 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">. </t>
+      <t>.</t>
     </r>
   </si>
   <si>
@@ -5321,10 +5388,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">For these examples, it may make more sense to think of them as a sequence of actions: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  hold and go, orhold and come. Here are a couple more examples.</t>
+    <t>For these examples, it may make more sense to think of them as a sequence of actions:</t>
+  </si>
+  <si>
+    <t>hold and go, orhold and come. Here are a couple more examples.</t>
   </si>
   <si>
     <r>
@@ -6686,7 +6753,7 @@
 3. くれる → くれ</t>
   </si>
   <si>
-    <t xml:space="preserve">Using the negative command form </t>
+    <t>Using the negative command form</t>
   </si>
   <si>
     <t>Attach 「な」 to the verb</t>
@@ -8290,6 +8357,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>Causative Conjugation Rules/</t>
     </r>
     <r>
@@ -8594,6 +8668,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>Passive Conjugation Rules/</t>
     </r>
     <r>
@@ -9738,123 +9819,130 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Conditionals </t>
-    </r>
-    <r>
       <rPr>
         <b/>
         <sz val="21"/>
         <color theme="1"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Conditionals </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="21"/>
         <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>と</t>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="21"/>
         <color theme="1"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>と</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="21"/>
         <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>なら</t>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="21"/>
         <color theme="1"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>なら</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="21"/>
         <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ば</t>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="21"/>
         <color theme="1"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ば</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="21"/>
         <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>たら</t>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="21"/>
         <color theme="1"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>たら</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="21"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/</t>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="21"/>
         <color theme="1"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t>条件形</t>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="21"/>
         <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>条件形</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="21"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
@@ -9863,6 +9951,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>General conditionals using</t>
     </r>
     <r>
@@ -9915,6 +10009,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>Past conditional using</t>
     </r>
     <r>
@@ -11173,7 +11273,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="116">
+  <fonts count="119">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -11443,6 +11543,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -11462,6 +11568,12 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="MS Gothic"/>
       <charset val="134"/>
     </font>
     <font>
@@ -11933,6 +12045,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="MS Gothic"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Yu Gothic"/>
@@ -12139,7 +12258,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -12193,6 +12312,78 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -12324,137 +12515,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="4" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="6" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="65" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="66" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="67" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="67" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="66" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="66" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="67" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="67" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="66" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="66" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="67" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="67" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="66" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="66" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="67" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="67" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="66" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="66" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="67" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="67" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="66" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="66" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="67" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -12547,48 +12738,73 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -12596,26 +12812,31 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -12917,7 +13138,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="4143375"/>
+          <a:off x="9525" y="5743575"/>
           <a:ext cx="6105525" cy="904875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13328,12 +13549,12 @@
   <sheetPr/>
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4259259259259" defaultRowHeight="15" customHeight="1"/>
@@ -13343,7 +13564,7 @@
     <col min="3" max="3" width="19.712962962963" customWidth="1"/>
     <col min="4" max="4" width="18.8611111111111" customWidth="1"/>
     <col min="5" max="5" width="18.4259259259259" customWidth="1"/>
-    <col min="6" max="6" width="23.5740740740741" customWidth="1"/>
+    <col min="6" max="6" width="25.2222222222222" customWidth="1"/>
     <col min="7" max="7" width="56.8611111111111" customWidth="1"/>
     <col min="8" max="8" width="43.5740740740741" customWidth="1"/>
     <col min="9" max="9" width="17.8611111111111" customWidth="1"/>
@@ -13371,7 +13592,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="56"/>
-      <c r="I1" s="91"/>
+      <c r="I1" s="103"/>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:8">
       <c r="A2" s="57" t="s">
@@ -13392,154 +13613,158 @@
       <c r="F2" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="63"/>
+      <c r="G2" s="63" t="s">
+        <v>12</v>
+      </c>
       <c r="H2" s="64"/>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:8">
       <c r="A3" s="65"/>
       <c r="B3" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="66" t="s">
+      <c r="C3" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="67" t="s">
+      <c r="D3" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="68" t="s">
+      <c r="E3" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="68" t="s">
+      <c r="F3" s="69" t="s">
         <v>17</v>
+      </c>
+      <c r="G3" s="69" t="s">
+        <v>18</v>
       </c>
       <c r="H3" s="64"/>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:8">
       <c r="A4" s="65"/>
       <c r="B4" s="58" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="65"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="70" t="s">
+      <c r="C4" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="63"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="63" t="s">
+        <v>12</v>
+      </c>
       <c r="H4" s="64"/>
     </row>
     <row r="5" ht="15.75" customHeight="1" spans="1:7">
       <c r="A5" s="65"/>
       <c r="B5" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="65"/>
-      <c r="E5" s="69" t="s">
+      <c r="C5" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="59" t="s">
+      <c r="D5" s="71"/>
+      <c r="E5" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="71" t="s">
+      <c r="F5" s="74" t="s">
         <v>25</v>
+      </c>
+      <c r="G5" s="75" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6" ht="21.75" customHeight="1" spans="1:7">
       <c r="A6" s="52" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="53"/>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="65"/>
-      <c r="E6" s="72" t="s">
-        <v>27</v>
+      <c r="D6" s="71"/>
+      <c r="E6" s="77" t="s">
+        <v>28</v>
       </c>
       <c r="F6" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="71"/>
+      <c r="G6" s="75"/>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="57" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="71" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="73"/>
-      <c r="E7" s="65"/>
+      <c r="C7" s="78" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="67" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="79"/>
       <c r="F7" s="59" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="74" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="G7" s="63" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:7">
       <c r="A8" s="65"/>
       <c r="B8" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="71" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="75" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="65"/>
-      <c r="F8" s="76" t="s">
+      <c r="D8" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="71" t="s">
+      <c r="E8" s="79"/>
+      <c r="F8" s="81" t="s">
         <v>35</v>
+      </c>
+      <c r="G8" s="75" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:7">
       <c r="A9" s="65"/>
       <c r="B9" s="58" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="71" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="65"/>
-      <c r="F9" s="70" t="s">
+      <c r="D9" s="71"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="74" t="s">
-        <v>31</v>
+      <c r="G9" s="63" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:7">
       <c r="A10" s="65"/>
       <c r="B10" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="71" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="65"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="76" t="s">
+      <c r="D10" s="71"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="71" t="s">
+      <c r="G10" s="75" t="s">
         <v>41</v>
       </c>
     </row>
@@ -13548,871 +13773,875 @@
         <v>42</v>
       </c>
       <c r="B11" s="53"/>
-      <c r="C11" s="52" t="s">
+      <c r="C11" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="65"/>
-      <c r="E11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="84"/>
       <c r="F11" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="71"/>
-      <c r="H11" s="77" t="s">
+      <c r="G11" s="75"/>
+      <c r="H11" s="85" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1" spans="1:8">
-      <c r="A12" s="78" t="s">
+      <c r="A12" s="86" t="s">
         <v>44</v>
       </c>
       <c r="B12" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="71" t="s">
+      <c r="C12" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="65"/>
-      <c r="E12" s="69" t="s">
+      <c r="D12" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="59" t="s">
+      <c r="E12" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="G12" s="74" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" s="63" t="s">
+      <c r="F12" s="74" t="s">
         <v>48</v>
+      </c>
+      <c r="G12" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="87" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1" spans="1:8">
       <c r="A13" s="65"/>
       <c r="B13" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="71" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="65"/>
-      <c r="E13" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="78" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="59" t="s">
+      <c r="D13" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="G13" s="71" t="s">
+      <c r="E13" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="H13" s="63" t="s">
+      <c r="F13" s="74" t="s">
         <v>53</v>
+      </c>
+      <c r="G13" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" s="87" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1" spans="1:7">
       <c r="A14" s="65"/>
       <c r="B14" s="58" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="71" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="65"/>
-      <c r="E14" s="67" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="82" t="s">
         <v>56</v>
       </c>
-      <c r="G14" s="74" t="s">
-        <v>31</v>
+      <c r="D14" s="71"/>
+      <c r="E14" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="74" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="63" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1" spans="1:8">
       <c r="A15" s="65"/>
       <c r="B15" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="71" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="73"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="68" t="s">
-        <v>58</v>
-      </c>
-      <c r="G15" s="71" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="H15" s="63" t="s">
+      <c r="D15" s="71"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="88" t="s">
         <v>60</v>
+      </c>
+      <c r="G15" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="H15" s="87" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="16" ht="21.75" customHeight="1" spans="1:8">
       <c r="A16" s="52" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B16" s="53"/>
       <c r="C16" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="52" t="s">
+      <c r="D16" s="89" t="s">
         <v>2</v>
       </c>
       <c r="E16" s="53" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F16" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="G16" s="71"/>
-      <c r="H16" s="63" t="s">
-        <v>63</v>
+      <c r="G16" s="75"/>
+      <c r="H16" s="87" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:8">
-      <c r="A17" s="79" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17" s="80" t="s">
+      <c r="A17" s="90" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="71" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" s="81" t="s">
-        <v>66</v>
-      </c>
-      <c r="E17" s="82" t="s">
+      <c r="C17" s="82" t="s">
         <v>67</v>
       </c>
-      <c r="F17" s="59" t="s">
+      <c r="D17" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="G17" s="71"/>
-      <c r="H17" s="63" t="s">
+      <c r="E17" s="93" t="s">
         <v>69</v>
+      </c>
+      <c r="F17" s="74" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="75"/>
+      <c r="H17" s="87" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:7">
       <c r="A18" s="65"/>
       <c r="B18" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="71" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" s="83" t="s">
-        <v>71</v>
-      </c>
-      <c r="E18" s="65"/>
-      <c r="F18" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="82" t="s">
         <v>72</v>
       </c>
-      <c r="G18" s="71"/>
+      <c r="D18" s="92" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="79"/>
+      <c r="F18" s="74" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" s="75"/>
     </row>
     <row r="19" customHeight="1" spans="1:7">
       <c r="A19" s="65"/>
       <c r="B19" s="58" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="71" t="s">
-        <v>73</v>
-      </c>
-      <c r="D19" s="83"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="59" t="s">
-        <v>74</v>
-      </c>
-      <c r="G19" s="71"/>
+        <v>19</v>
+      </c>
+      <c r="C19" s="82" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="92"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="74" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19" s="75"/>
     </row>
     <row r="20" ht="18" customHeight="1" spans="1:7">
-      <c r="A20" s="73"/>
-      <c r="B20" s="84" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="71" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="85"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="59" t="s">
-        <v>76</v>
-      </c>
-      <c r="G20" s="71"/>
+      <c r="A20" s="94"/>
+      <c r="B20" s="95" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="82" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="92"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="74" t="s">
+        <v>78</v>
+      </c>
+      <c r="G20" s="75"/>
     </row>
     <row r="21" ht="21.75" customHeight="1" spans="1:7">
       <c r="A21" s="52" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B21" s="53"/>
       <c r="C21" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="D21" s="52" t="s">
+      <c r="D21" s="96" t="s">
         <v>2</v>
       </c>
       <c r="E21" s="52" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F21" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="71"/>
-    </row>
-    <row r="22" customHeight="1" spans="1:7">
-      <c r="A22" s="63" t="s">
-        <v>78</v>
-      </c>
-      <c r="B22" s="86" t="s">
+      <c r="G21" s="75"/>
+    </row>
+    <row r="22" ht="18" customHeight="1" spans="1:7">
+      <c r="A22" s="87" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="63" t="s">
-        <v>79</v>
-      </c>
-      <c r="D22" s="67" t="s">
+      <c r="C22" s="87" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="98" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="87" t="s">
+        <v>83</v>
+      </c>
+      <c r="F22" s="87" t="s">
+        <v>84</v>
+      </c>
+      <c r="G22" s="75"/>
+    </row>
+    <row r="23" ht="18" customHeight="1" spans="1:7">
+      <c r="A23" s="87" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" s="65"/>
+      <c r="C23" s="87" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="98" t="s">
+        <v>87</v>
+      </c>
+      <c r="E23" s="87" t="s">
+        <v>88</v>
+      </c>
+      <c r="F23" s="87" t="s">
+        <v>89</v>
+      </c>
+      <c r="G23" s="75"/>
+    </row>
+    <row r="24" ht="18" customHeight="1" spans="1:7">
+      <c r="A24" s="87" t="s">
+        <v>90</v>
+      </c>
+      <c r="B24" s="65"/>
+      <c r="C24" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" s="98" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24" s="87" t="s">
+        <v>93</v>
+      </c>
+      <c r="F24" s="87" t="s">
+        <v>94</v>
+      </c>
+      <c r="G24" s="75"/>
+    </row>
+    <row r="25" ht="18" customHeight="1" spans="1:7">
+      <c r="A25" s="87" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" s="65"/>
+      <c r="C25" s="87" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" s="98" t="s">
+        <v>97</v>
+      </c>
+      <c r="E25" s="87" t="s">
+        <v>98</v>
+      </c>
+      <c r="F25" s="87" t="s">
+        <v>99</v>
+      </c>
+      <c r="G25" s="75"/>
+    </row>
+    <row r="26" ht="18" customHeight="1" spans="1:7">
+      <c r="A26" s="87" t="s">
+        <v>100</v>
+      </c>
+      <c r="B26" s="65"/>
+      <c r="C26" s="87" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" s="98" t="s">
+        <v>102</v>
+      </c>
+      <c r="E26" s="87" t="s">
+        <v>103</v>
+      </c>
+      <c r="F26" s="87" t="s">
+        <v>104</v>
+      </c>
+      <c r="G26" s="75"/>
+    </row>
+    <row r="27" ht="18" customHeight="1" spans="1:7">
+      <c r="A27" s="87" t="s">
+        <v>105</v>
+      </c>
+      <c r="B27" s="65"/>
+      <c r="C27" s="87" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" s="98" t="s">
+        <v>107</v>
+      </c>
+      <c r="E27" s="87" t="s">
+        <v>108</v>
+      </c>
+      <c r="F27" s="87" t="s">
+        <v>109</v>
+      </c>
+      <c r="G27" s="75"/>
+    </row>
+    <row r="28" ht="18" customHeight="1" spans="1:7">
+      <c r="A28" s="87" t="s">
+        <v>110</v>
+      </c>
+      <c r="B28" s="65"/>
+      <c r="C28" s="87" t="s">
+        <v>111</v>
+      </c>
+      <c r="D28" s="98" t="s">
+        <v>112</v>
+      </c>
+      <c r="E28" s="87" t="s">
+        <v>113</v>
+      </c>
+      <c r="F28" s="87" t="s">
+        <v>114</v>
+      </c>
+      <c r="G28" s="75"/>
+    </row>
+    <row r="29" ht="18" customHeight="1" spans="1:7">
+      <c r="A29" s="87" t="s">
+        <v>115</v>
+      </c>
+      <c r="B29" s="65"/>
+      <c r="C29" s="87" t="s">
+        <v>116</v>
+      </c>
+      <c r="D29" s="99" t="s">
+        <v>117</v>
+      </c>
+      <c r="E29" s="87" t="s">
+        <v>118</v>
+      </c>
+      <c r="F29" s="87" t="s">
+        <v>119</v>
+      </c>
+      <c r="G29" s="75"/>
+    </row>
+    <row r="30" ht="18" customHeight="1" spans="1:7">
+      <c r="A30" s="87" t="s">
+        <v>120</v>
+      </c>
+      <c r="B30" s="65"/>
+      <c r="C30" s="87" t="s">
+        <v>121</v>
+      </c>
+      <c r="D30" s="98" t="s">
+        <v>122</v>
+      </c>
+      <c r="E30" s="87" t="s">
+        <v>123</v>
+      </c>
+      <c r="F30" s="87" t="s">
+        <v>124</v>
+      </c>
+      <c r="G30" s="75"/>
+    </row>
+    <row r="31" ht="18" customHeight="1" spans="1:7">
+      <c r="A31" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="E22" s="63" t="s">
-        <v>81</v>
-      </c>
-      <c r="F22" s="63" t="s">
-        <v>82</v>
-      </c>
-      <c r="G22" s="71"/>
-    </row>
-    <row r="23" customHeight="1" spans="1:7">
-      <c r="A23" s="63" t="s">
+      <c r="B31" s="100" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="101" t="s">
+        <v>125</v>
+      </c>
+      <c r="D31" s="101" t="s">
+        <v>126</v>
+      </c>
+      <c r="E31" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="B23" s="65"/>
-      <c r="C23" s="63" t="s">
-        <v>84</v>
-      </c>
-      <c r="D23" s="67" t="s">
+      <c r="F31" s="87" t="s">
+        <v>127</v>
+      </c>
+      <c r="G31" s="75"/>
+    </row>
+    <row r="32" ht="18" customHeight="1" spans="1:7">
+      <c r="A32" s="87" t="s">
         <v>85</v>
       </c>
-      <c r="E23" s="63" t="s">
-        <v>86</v>
-      </c>
-      <c r="F23" s="63" t="s">
-        <v>87</v>
-      </c>
-      <c r="G23" s="71"/>
-    </row>
-    <row r="24" customHeight="1" spans="1:7">
-      <c r="A24" s="63" t="s">
+      <c r="B32" s="65"/>
+      <c r="C32" s="87" t="s">
+        <v>128</v>
+      </c>
+      <c r="D32" s="87" t="s">
+        <v>129</v>
+      </c>
+      <c r="E32" s="87" t="s">
         <v>88</v>
       </c>
-      <c r="B24" s="65"/>
-      <c r="C24" s="63" t="s">
-        <v>89</v>
-      </c>
-      <c r="D24" s="67" t="s">
+      <c r="F32" s="87" t="s">
+        <v>130</v>
+      </c>
+      <c r="G32" s="75"/>
+    </row>
+    <row r="33" ht="18" customHeight="1" spans="1:7">
+      <c r="A33" s="87" t="s">
         <v>90</v>
       </c>
-      <c r="E24" s="63" t="s">
-        <v>91</v>
-      </c>
-      <c r="F24" s="63" t="s">
-        <v>92</v>
-      </c>
-      <c r="G24" s="71"/>
-    </row>
-    <row r="25" customHeight="1" spans="1:7">
-      <c r="A25" s="63" t="s">
+      <c r="B33" s="65"/>
+      <c r="C33" s="87" t="s">
+        <v>131</v>
+      </c>
+      <c r="D33" s="87" t="s">
+        <v>132</v>
+      </c>
+      <c r="E33" s="87" t="s">
         <v>93</v>
       </c>
-      <c r="B25" s="65"/>
-      <c r="C25" s="63" t="s">
-        <v>94</v>
-      </c>
-      <c r="D25" s="67" t="s">
+      <c r="F33" s="87" t="s">
+        <v>133</v>
+      </c>
+      <c r="G33" s="75"/>
+    </row>
+    <row r="34" ht="18" customHeight="1" spans="1:7">
+      <c r="A34" s="87" t="s">
         <v>95</v>
       </c>
-      <c r="E25" s="63" t="s">
-        <v>96</v>
-      </c>
-      <c r="F25" s="63" t="s">
-        <v>97</v>
-      </c>
-      <c r="G25" s="71"/>
-    </row>
-    <row r="26" ht="13.5" customHeight="1" spans="1:7">
-      <c r="A26" s="63" t="s">
+      <c r="B34" s="65"/>
+      <c r="C34" s="87" t="s">
+        <v>134</v>
+      </c>
+      <c r="D34" s="87" t="s">
+        <v>135</v>
+      </c>
+      <c r="E34" s="87" t="s">
         <v>98</v>
       </c>
-      <c r="B26" s="65"/>
-      <c r="C26" s="63" t="s">
-        <v>99</v>
-      </c>
-      <c r="D26" s="67" t="s">
+      <c r="F34" s="87" t="s">
+        <v>136</v>
+      </c>
+      <c r="G34" s="75"/>
+    </row>
+    <row r="35" ht="18" customHeight="1" spans="1:7">
+      <c r="A35" s="87" t="s">
         <v>100</v>
       </c>
-      <c r="E26" s="63" t="s">
-        <v>101</v>
-      </c>
-      <c r="F26" s="63" t="s">
-        <v>102</v>
-      </c>
-      <c r="G26" s="71"/>
-    </row>
-    <row r="27" ht="13.5" customHeight="1" spans="1:7">
-      <c r="A27" s="63" t="s">
+      <c r="B35" s="65"/>
+      <c r="C35" s="87" t="s">
+        <v>137</v>
+      </c>
+      <c r="D35" s="87" t="s">
+        <v>138</v>
+      </c>
+      <c r="E35" s="87" t="s">
         <v>103</v>
       </c>
-      <c r="B27" s="65"/>
-      <c r="C27" s="63" t="s">
-        <v>104</v>
-      </c>
-      <c r="D27" s="67" t="s">
+      <c r="F35" s="87" t="s">
+        <v>139</v>
+      </c>
+      <c r="G35" s="75"/>
+    </row>
+    <row r="36" ht="18" customHeight="1" spans="1:7">
+      <c r="A36" s="87" t="s">
         <v>105</v>
       </c>
-      <c r="E27" s="63" t="s">
-        <v>106</v>
-      </c>
-      <c r="F27" s="63" t="s">
-        <v>107</v>
-      </c>
-      <c r="G27" s="71"/>
-    </row>
-    <row r="28" ht="13.5" customHeight="1" spans="1:7">
-      <c r="A28" s="63" t="s">
+      <c r="B36" s="65"/>
+      <c r="C36" s="87" t="s">
+        <v>140</v>
+      </c>
+      <c r="D36" s="87" t="s">
+        <v>141</v>
+      </c>
+      <c r="E36" s="87" t="s">
         <v>108</v>
       </c>
-      <c r="B28" s="65"/>
-      <c r="C28" s="63" t="s">
-        <v>109</v>
-      </c>
-      <c r="D28" s="67" t="s">
+      <c r="F36" s="87" t="s">
+        <v>142</v>
+      </c>
+      <c r="G36" s="75"/>
+    </row>
+    <row r="37" ht="18" customHeight="1" spans="1:7">
+      <c r="A37" s="87" t="s">
         <v>110</v>
       </c>
-      <c r="E28" s="63" t="s">
-        <v>111</v>
-      </c>
-      <c r="F28" s="63" t="s">
-        <v>112</v>
-      </c>
-      <c r="G28" s="71"/>
-    </row>
-    <row r="29" ht="13.5" customHeight="1" spans="1:7">
-      <c r="A29" s="63" t="s">
+      <c r="B37" s="65"/>
+      <c r="C37" s="87" t="s">
+        <v>143</v>
+      </c>
+      <c r="D37" s="87" t="s">
+        <v>144</v>
+      </c>
+      <c r="E37" s="87" t="s">
         <v>113</v>
       </c>
-      <c r="B29" s="65"/>
-      <c r="C29" s="63" t="s">
-        <v>114</v>
-      </c>
-      <c r="D29" s="87" t="s">
+      <c r="F37" s="87" t="s">
+        <v>145</v>
+      </c>
+      <c r="G37" s="75"/>
+    </row>
+    <row r="38" ht="18" customHeight="1" spans="1:7">
+      <c r="A38" s="87" t="s">
         <v>115</v>
       </c>
-      <c r="E29" s="63" t="s">
-        <v>116</v>
-      </c>
-      <c r="F29" s="63" t="s">
-        <v>117</v>
-      </c>
-      <c r="G29" s="71"/>
-    </row>
-    <row r="30" ht="13.5" customHeight="1" spans="1:7">
-      <c r="A30" s="63" t="s">
+      <c r="B38" s="65"/>
+      <c r="C38" s="87" t="s">
+        <v>146</v>
+      </c>
+      <c r="D38" s="87" t="s">
+        <v>147</v>
+      </c>
+      <c r="E38" s="87" t="s">
         <v>118</v>
       </c>
-      <c r="B30" s="65"/>
-      <c r="C30" s="63" t="s">
-        <v>119</v>
-      </c>
-      <c r="D30" s="67" t="s">
+      <c r="F38" s="87" t="s">
+        <v>148</v>
+      </c>
+      <c r="G38" s="75"/>
+    </row>
+    <row r="39" ht="18" customHeight="1" spans="1:7">
+      <c r="A39" s="87" t="s">
         <v>120</v>
       </c>
-      <c r="E30" s="63" t="s">
-        <v>121</v>
-      </c>
-      <c r="F30" s="63" t="s">
-        <v>122</v>
-      </c>
-      <c r="G30" s="71"/>
-    </row>
-    <row r="31" ht="13.5" customHeight="1" spans="1:7">
-      <c r="A31" s="63" t="s">
-        <v>78</v>
-      </c>
-      <c r="B31" s="88" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="89" t="s">
+      <c r="B39" s="94"/>
+      <c r="C39" s="87" t="s">
+        <v>149</v>
+      </c>
+      <c r="D39" s="87" t="s">
+        <v>150</v>
+      </c>
+      <c r="E39" s="87" t="s">
         <v>123</v>
       </c>
-      <c r="D31" s="89" t="s">
-        <v>124</v>
-      </c>
-      <c r="E31" s="63" t="s">
-        <v>81</v>
-      </c>
-      <c r="F31" s="63" t="s">
-        <v>125</v>
-      </c>
-      <c r="G31" s="71"/>
-    </row>
-    <row r="32" ht="13.5" customHeight="1" spans="1:7">
-      <c r="A32" s="63" t="s">
+      <c r="F39" s="87" t="s">
+        <v>151</v>
+      </c>
+      <c r="G39" s="75"/>
+    </row>
+    <row r="40" ht="18" customHeight="1" spans="1:7">
+      <c r="A40" s="87" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" s="100" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="87" t="s">
+        <v>152</v>
+      </c>
+      <c r="D40" s="102"/>
+      <c r="E40" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="B32" s="65"/>
-      <c r="C32" s="63" t="s">
-        <v>126</v>
-      </c>
-      <c r="D32" s="63" t="s">
-        <v>127</v>
-      </c>
-      <c r="E32" s="63" t="s">
-        <v>86</v>
-      </c>
-      <c r="F32" s="63" t="s">
-        <v>128</v>
-      </c>
-      <c r="G32" s="71"/>
-    </row>
-    <row r="33" ht="13.5" customHeight="1" spans="1:7">
-      <c r="A33" s="63" t="s">
+      <c r="F40" s="87" t="s">
+        <v>153</v>
+      </c>
+      <c r="G40" s="75"/>
+    </row>
+    <row r="41" ht="18" customHeight="1" spans="1:7">
+      <c r="A41" s="87" t="s">
+        <v>100</v>
+      </c>
+      <c r="B41" s="65"/>
+      <c r="C41" s="87" t="s">
+        <v>154</v>
+      </c>
+      <c r="D41" s="65"/>
+      <c r="E41" s="87" t="s">
+        <v>103</v>
+      </c>
+      <c r="F41" s="87" t="s">
+        <v>155</v>
+      </c>
+      <c r="G41" s="75"/>
+    </row>
+    <row r="42" ht="18" customHeight="1" spans="1:7">
+      <c r="A42" s="87" t="s">
+        <v>120</v>
+      </c>
+      <c r="B42" s="65"/>
+      <c r="C42" s="87" t="s">
+        <v>156</v>
+      </c>
+      <c r="D42" s="65"/>
+      <c r="E42" s="87" t="s">
+        <v>123</v>
+      </c>
+      <c r="F42" s="87" t="s">
+        <v>157</v>
+      </c>
+      <c r="G42" s="75"/>
+    </row>
+    <row r="43" ht="18" customHeight="1" spans="1:7">
+      <c r="A43" s="87" t="s">
+        <v>95</v>
+      </c>
+      <c r="B43" s="65"/>
+      <c r="C43" s="87" t="s">
+        <v>158</v>
+      </c>
+      <c r="D43" s="65"/>
+      <c r="E43" s="87" t="s">
+        <v>98</v>
+      </c>
+      <c r="F43" s="87" t="s">
+        <v>159</v>
+      </c>
+      <c r="G43" s="75"/>
+    </row>
+    <row r="44" ht="18" customHeight="1" spans="1:7">
+      <c r="A44" s="87" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" s="65"/>
+      <c r="C44" s="87" t="s">
+        <v>160</v>
+      </c>
+      <c r="D44" s="65"/>
+      <c r="E44" s="87" t="s">
         <v>88</v>
       </c>
-      <c r="B33" s="65"/>
-      <c r="C33" s="63" t="s">
-        <v>129</v>
-      </c>
-      <c r="D33" s="63" t="s">
-        <v>130</v>
-      </c>
-      <c r="E33" s="63" t="s">
-        <v>91</v>
-      </c>
-      <c r="F33" s="63" t="s">
-        <v>131</v>
-      </c>
-      <c r="G33" s="71"/>
-    </row>
-    <row r="34" ht="13.5" customHeight="1" spans="1:7">
-      <c r="A34" s="63" t="s">
+      <c r="F44" s="87" t="s">
+        <v>161</v>
+      </c>
+      <c r="G44" s="75"/>
+    </row>
+    <row r="45" ht="18" customHeight="1" spans="1:7">
+      <c r="A45" s="87" t="s">
+        <v>90</v>
+      </c>
+      <c r="B45" s="65"/>
+      <c r="C45" s="87" t="s">
+        <v>162</v>
+      </c>
+      <c r="D45" s="65"/>
+      <c r="E45" s="87" t="s">
         <v>93</v>
       </c>
-      <c r="B34" s="65"/>
-      <c r="C34" s="63" t="s">
-        <v>132</v>
-      </c>
-      <c r="D34" s="63" t="s">
-        <v>133</v>
-      </c>
-      <c r="E34" s="63" t="s">
-        <v>96</v>
-      </c>
-      <c r="F34" s="63" t="s">
-        <v>134</v>
-      </c>
-      <c r="G34" s="71"/>
-    </row>
-    <row r="35" ht="13.5" customHeight="1" spans="1:7">
-      <c r="A35" s="63" t="s">
+      <c r="F45" s="87" t="s">
+        <v>163</v>
+      </c>
+      <c r="G45" s="75"/>
+    </row>
+    <row r="46" ht="18" customHeight="1" spans="1:7">
+      <c r="A46" s="87" t="s">
+        <v>105</v>
+      </c>
+      <c r="B46" s="65"/>
+      <c r="C46" s="87" t="s">
+        <v>164</v>
+      </c>
+      <c r="D46" s="65"/>
+      <c r="E46" s="87" t="s">
+        <v>108</v>
+      </c>
+      <c r="F46" s="87" t="s">
+        <v>165</v>
+      </c>
+      <c r="G46" s="75"/>
+    </row>
+    <row r="47" ht="18" customHeight="1" spans="1:7">
+      <c r="A47" s="87" t="s">
+        <v>110</v>
+      </c>
+      <c r="B47" s="65"/>
+      <c r="C47" s="87" t="s">
+        <v>166</v>
+      </c>
+      <c r="D47" s="65"/>
+      <c r="E47" s="87" t="s">
+        <v>113</v>
+      </c>
+      <c r="F47" s="87" t="s">
+        <v>167</v>
+      </c>
+      <c r="G47" s="75"/>
+    </row>
+    <row r="48" ht="18" customHeight="1" spans="1:7">
+      <c r="A48" s="87" t="s">
+        <v>115</v>
+      </c>
+      <c r="B48" s="65"/>
+      <c r="C48" s="87" t="s">
+        <v>168</v>
+      </c>
+      <c r="D48" s="94"/>
+      <c r="E48" s="87" t="s">
+        <v>118</v>
+      </c>
+      <c r="F48" s="87" t="s">
+        <v>169</v>
+      </c>
+      <c r="G48" s="75"/>
+    </row>
+    <row r="49" ht="18" customHeight="1" spans="1:7">
+      <c r="A49" s="87" t="s">
+        <v>80</v>
+      </c>
+      <c r="B49" s="100" t="s">
+        <v>22</v>
+      </c>
+      <c r="C49" s="101" t="s">
+        <v>170</v>
+      </c>
+      <c r="D49" s="102"/>
+      <c r="E49" s="87" t="s">
+        <v>83</v>
+      </c>
+      <c r="F49" s="87" t="s">
+        <v>171</v>
+      </c>
+      <c r="G49" s="75"/>
+    </row>
+    <row r="50" ht="18" customHeight="1" spans="1:7">
+      <c r="A50" s="87" t="s">
+        <v>85</v>
+      </c>
+      <c r="B50" s="65"/>
+      <c r="C50" s="87" t="s">
+        <v>172</v>
+      </c>
+      <c r="D50" s="65"/>
+      <c r="E50" s="87" t="s">
+        <v>88</v>
+      </c>
+      <c r="F50" s="87" t="s">
+        <v>173</v>
+      </c>
+      <c r="G50" s="75"/>
+    </row>
+    <row r="51" ht="18" customHeight="1" spans="1:7">
+      <c r="A51" s="87" t="s">
+        <v>90</v>
+      </c>
+      <c r="B51" s="65"/>
+      <c r="C51" s="87" t="s">
+        <v>174</v>
+      </c>
+      <c r="D51" s="65"/>
+      <c r="E51" s="87" t="s">
+        <v>93</v>
+      </c>
+      <c r="F51" s="87" t="s">
+        <v>175</v>
+      </c>
+      <c r="G51" s="75"/>
+    </row>
+    <row r="52" ht="18" customHeight="1" spans="1:7">
+      <c r="A52" s="87" t="s">
+        <v>95</v>
+      </c>
+      <c r="B52" s="65"/>
+      <c r="C52" s="87" t="s">
+        <v>176</v>
+      </c>
+      <c r="D52" s="65"/>
+      <c r="E52" s="87" t="s">
         <v>98</v>
       </c>
-      <c r="B35" s="65"/>
-      <c r="C35" s="63" t="s">
-        <v>135</v>
-      </c>
-      <c r="D35" s="63" t="s">
-        <v>136</v>
-      </c>
-      <c r="E35" s="63" t="s">
-        <v>101</v>
-      </c>
-      <c r="F35" s="63" t="s">
-        <v>137</v>
-      </c>
-      <c r="G35" s="71"/>
-    </row>
-    <row r="36" ht="13.5" customHeight="1" spans="1:7">
-      <c r="A36" s="63" t="s">
+      <c r="F52" s="87" t="s">
+        <v>177</v>
+      </c>
+      <c r="G52" s="75"/>
+    </row>
+    <row r="53" ht="18" customHeight="1" spans="1:7">
+      <c r="A53" s="87" t="s">
+        <v>100</v>
+      </c>
+      <c r="B53" s="65"/>
+      <c r="C53" s="87" t="s">
+        <v>178</v>
+      </c>
+      <c r="D53" s="65"/>
+      <c r="E53" s="87" t="s">
         <v>103</v>
       </c>
-      <c r="B36" s="65"/>
-      <c r="C36" s="63" t="s">
-        <v>138</v>
-      </c>
-      <c r="D36" s="63" t="s">
-        <v>139</v>
-      </c>
-      <c r="E36" s="63" t="s">
-        <v>106</v>
-      </c>
-      <c r="F36" s="63" t="s">
-        <v>140</v>
-      </c>
-      <c r="G36" s="71"/>
-    </row>
-    <row r="37" ht="13.5" customHeight="1" spans="1:7">
-      <c r="A37" s="63" t="s">
+      <c r="F53" s="87" t="s">
+        <v>179</v>
+      </c>
+      <c r="G53" s="75"/>
+    </row>
+    <row r="54" ht="18" customHeight="1" spans="1:7">
+      <c r="A54" s="87" t="s">
+        <v>105</v>
+      </c>
+      <c r="B54" s="65"/>
+      <c r="C54" s="87" t="s">
+        <v>180</v>
+      </c>
+      <c r="D54" s="65"/>
+      <c r="E54" s="87" t="s">
         <v>108</v>
       </c>
-      <c r="B37" s="65"/>
-      <c r="C37" s="63" t="s">
-        <v>141</v>
-      </c>
-      <c r="D37" s="63" t="s">
-        <v>142</v>
-      </c>
-      <c r="E37" s="63" t="s">
-        <v>111</v>
-      </c>
-      <c r="F37" s="63" t="s">
-        <v>143</v>
-      </c>
-      <c r="G37" s="71"/>
-    </row>
-    <row r="38" ht="13.5" customHeight="1" spans="1:7">
-      <c r="A38" s="63" t="s">
+      <c r="F54" s="87" t="s">
+        <v>181</v>
+      </c>
+      <c r="G54" s="75"/>
+    </row>
+    <row r="55" ht="18" customHeight="1" spans="1:7">
+      <c r="A55" s="87" t="s">
+        <v>110</v>
+      </c>
+      <c r="B55" s="65"/>
+      <c r="C55" s="87" t="s">
+        <v>182</v>
+      </c>
+      <c r="D55" s="65"/>
+      <c r="E55" s="87" t="s">
         <v>113</v>
       </c>
-      <c r="B38" s="65"/>
-      <c r="C38" s="63" t="s">
-        <v>144</v>
-      </c>
-      <c r="D38" s="63" t="s">
-        <v>145</v>
-      </c>
-      <c r="E38" s="63" t="s">
-        <v>116</v>
-      </c>
-      <c r="F38" s="63" t="s">
-        <v>146</v>
-      </c>
-      <c r="G38" s="71"/>
-    </row>
-    <row r="39" ht="13.5" customHeight="1" spans="1:7">
-      <c r="A39" s="63" t="s">
+      <c r="F55" s="87" t="s">
+        <v>183</v>
+      </c>
+      <c r="G55" s="75"/>
+    </row>
+    <row r="56" ht="18" customHeight="1" spans="1:7">
+      <c r="A56" s="87" t="s">
+        <v>115</v>
+      </c>
+      <c r="B56" s="65"/>
+      <c r="C56" s="87" t="s">
+        <v>184</v>
+      </c>
+      <c r="D56" s="65"/>
+      <c r="E56" s="87" t="s">
         <v>118</v>
       </c>
-      <c r="B39" s="73"/>
-      <c r="C39" s="63" t="s">
-        <v>147</v>
-      </c>
-      <c r="D39" s="63" t="s">
-        <v>148</v>
-      </c>
-      <c r="E39" s="63" t="s">
-        <v>121</v>
-      </c>
-      <c r="F39" s="63" t="s">
-        <v>149</v>
-      </c>
-      <c r="G39" s="71"/>
-    </row>
-    <row r="40" ht="13.5" customHeight="1" spans="1:7">
-      <c r="A40" s="63" t="s">
-        <v>78</v>
-      </c>
-      <c r="B40" s="88" t="s">
-        <v>18</v>
-      </c>
-      <c r="C40" s="63" t="s">
-        <v>150</v>
-      </c>
-      <c r="D40" s="90"/>
-      <c r="E40" s="63" t="s">
-        <v>81</v>
-      </c>
-      <c r="F40" s="63" t="s">
-        <v>151</v>
-      </c>
-      <c r="G40" s="71"/>
-    </row>
-    <row r="41" ht="13.5" customHeight="1" spans="1:7">
-      <c r="A41" s="63" t="s">
-        <v>98</v>
-      </c>
-      <c r="B41" s="65"/>
-      <c r="C41" s="63" t="s">
-        <v>152</v>
-      </c>
-      <c r="D41" s="65"/>
-      <c r="E41" s="63" t="s">
-        <v>101</v>
-      </c>
-      <c r="F41" s="63" t="s">
-        <v>153</v>
-      </c>
-      <c r="G41" s="71"/>
-    </row>
-    <row r="42" ht="13.5" customHeight="1" spans="1:7">
-      <c r="A42" s="63" t="s">
-        <v>118</v>
-      </c>
-      <c r="B42" s="65"/>
-      <c r="C42" s="63" t="s">
-        <v>154</v>
-      </c>
-      <c r="D42" s="65"/>
-      <c r="E42" s="63" t="s">
-        <v>121</v>
-      </c>
-      <c r="F42" s="63" t="s">
-        <v>155</v>
-      </c>
-      <c r="G42" s="71"/>
-    </row>
-    <row r="43" ht="13.5" customHeight="1" spans="1:7">
-      <c r="A43" s="63" t="s">
-        <v>93</v>
-      </c>
-      <c r="B43" s="65"/>
-      <c r="C43" s="63" t="s">
-        <v>156</v>
-      </c>
-      <c r="D43" s="65"/>
-      <c r="E43" s="63" t="s">
-        <v>96</v>
-      </c>
-      <c r="F43" s="63" t="s">
-        <v>157</v>
-      </c>
-      <c r="G43" s="71"/>
-    </row>
-    <row r="44" ht="13.5" customHeight="1" spans="1:7">
-      <c r="A44" s="63" t="s">
-        <v>83</v>
-      </c>
-      <c r="B44" s="65"/>
-      <c r="C44" s="63" t="s">
-        <v>158</v>
-      </c>
-      <c r="D44" s="65"/>
-      <c r="E44" s="63" t="s">
-        <v>86</v>
-      </c>
-      <c r="F44" s="63" t="s">
-        <v>159</v>
-      </c>
-      <c r="G44" s="71"/>
-    </row>
-    <row r="45" ht="13.5" customHeight="1" spans="1:7">
-      <c r="A45" s="63" t="s">
-        <v>88</v>
-      </c>
-      <c r="B45" s="65"/>
-      <c r="C45" s="63" t="s">
-        <v>160</v>
-      </c>
-      <c r="D45" s="65"/>
-      <c r="E45" s="63" t="s">
-        <v>91</v>
-      </c>
-      <c r="F45" s="63" t="s">
-        <v>161</v>
-      </c>
-      <c r="G45" s="71"/>
-    </row>
-    <row r="46" ht="13.5" customHeight="1" spans="1:7">
-      <c r="A46" s="63" t="s">
-        <v>103</v>
-      </c>
-      <c r="B46" s="65"/>
-      <c r="C46" s="63" t="s">
-        <v>162</v>
-      </c>
-      <c r="D46" s="65"/>
-      <c r="E46" s="63" t="s">
-        <v>106</v>
-      </c>
-      <c r="F46" s="63" t="s">
-        <v>163</v>
-      </c>
-      <c r="G46" s="71"/>
-    </row>
-    <row r="47" ht="13.5" customHeight="1" spans="1:7">
-      <c r="A47" s="63" t="s">
-        <v>108</v>
-      </c>
-      <c r="B47" s="65"/>
-      <c r="C47" s="63" t="s">
-        <v>164</v>
-      </c>
-      <c r="D47" s="65"/>
-      <c r="E47" s="63" t="s">
-        <v>111</v>
-      </c>
-      <c r="F47" s="63" t="s">
-        <v>165</v>
-      </c>
-      <c r="G47" s="71"/>
-    </row>
-    <row r="48" ht="13.5" customHeight="1" spans="1:7">
-      <c r="A48" s="63" t="s">
-        <v>113</v>
-      </c>
-      <c r="B48" s="65"/>
-      <c r="C48" s="63" t="s">
-        <v>166</v>
-      </c>
-      <c r="D48" s="73"/>
-      <c r="E48" s="63" t="s">
-        <v>116</v>
-      </c>
-      <c r="F48" s="63" t="s">
-        <v>167</v>
-      </c>
-      <c r="G48" s="71"/>
-    </row>
-    <row r="49" ht="13.5" customHeight="1" spans="1:7">
-      <c r="A49" s="63" t="s">
-        <v>78</v>
-      </c>
-      <c r="B49" s="88" t="s">
-        <v>21</v>
-      </c>
-      <c r="C49" s="89" t="s">
-        <v>168</v>
-      </c>
-      <c r="D49" s="90"/>
-      <c r="E49" s="63" t="s">
-        <v>81</v>
-      </c>
-      <c r="F49" s="63" t="s">
-        <v>169</v>
-      </c>
-      <c r="G49" s="71"/>
-    </row>
-    <row r="50" ht="13.5" customHeight="1" spans="1:7">
-      <c r="A50" s="63" t="s">
-        <v>83</v>
-      </c>
-      <c r="B50" s="65"/>
-      <c r="C50" s="63" t="s">
-        <v>170</v>
-      </c>
-      <c r="D50" s="65"/>
-      <c r="E50" s="63" t="s">
-        <v>86</v>
-      </c>
-      <c r="F50" s="63" t="s">
-        <v>171</v>
-      </c>
-      <c r="G50" s="71"/>
-    </row>
-    <row r="51" ht="13.5" customHeight="1" spans="1:7">
-      <c r="A51" s="63" t="s">
-        <v>88</v>
-      </c>
-      <c r="B51" s="65"/>
-      <c r="C51" s="63" t="s">
-        <v>172</v>
-      </c>
-      <c r="D51" s="65"/>
-      <c r="E51" s="63" t="s">
-        <v>91</v>
-      </c>
-      <c r="F51" s="63" t="s">
-        <v>173</v>
-      </c>
-      <c r="G51" s="71"/>
-    </row>
-    <row r="52" ht="13.5" customHeight="1" spans="1:7">
-      <c r="A52" s="63" t="s">
-        <v>93</v>
-      </c>
-      <c r="B52" s="65"/>
-      <c r="C52" s="63" t="s">
-        <v>174</v>
-      </c>
-      <c r="D52" s="65"/>
-      <c r="E52" s="63" t="s">
-        <v>96</v>
-      </c>
-      <c r="F52" s="63" t="s">
-        <v>175</v>
-      </c>
-      <c r="G52" s="71"/>
-    </row>
-    <row r="53" ht="13.5" customHeight="1" spans="1:7">
-      <c r="A53" s="63" t="s">
-        <v>98</v>
-      </c>
-      <c r="B53" s="65"/>
-      <c r="C53" s="63" t="s">
-        <v>176</v>
-      </c>
-      <c r="D53" s="65"/>
-      <c r="E53" s="63" t="s">
-        <v>101</v>
-      </c>
-      <c r="F53" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="G53" s="71"/>
-    </row>
-    <row r="54" ht="13.5" customHeight="1" spans="1:7">
-      <c r="A54" s="63" t="s">
-        <v>103</v>
-      </c>
-      <c r="B54" s="65"/>
-      <c r="C54" s="63" t="s">
-        <v>178</v>
-      </c>
-      <c r="D54" s="65"/>
-      <c r="E54" s="63" t="s">
-        <v>106</v>
-      </c>
-      <c r="F54" s="63" t="s">
-        <v>179</v>
-      </c>
-      <c r="G54" s="71"/>
-    </row>
-    <row r="55" ht="13.5" customHeight="1" spans="1:7">
-      <c r="A55" s="63" t="s">
-        <v>108</v>
-      </c>
-      <c r="B55" s="65"/>
-      <c r="C55" s="63" t="s">
-        <v>180</v>
-      </c>
-      <c r="D55" s="65"/>
-      <c r="E55" s="63" t="s">
-        <v>111</v>
-      </c>
-      <c r="F55" s="63" t="s">
-        <v>181</v>
-      </c>
-      <c r="G55" s="71"/>
-    </row>
-    <row r="56" ht="13.5" customHeight="1" spans="1:7">
-      <c r="A56" s="63" t="s">
-        <v>113</v>
-      </c>
-      <c r="B56" s="65"/>
-      <c r="C56" s="63" t="s">
-        <v>182</v>
-      </c>
-      <c r="D56" s="65"/>
-      <c r="E56" s="63" t="s">
-        <v>116</v>
-      </c>
-      <c r="F56" s="63" t="s">
-        <v>183</v>
-      </c>
-      <c r="G56" s="71"/>
-    </row>
-    <row r="57" ht="13.5" customHeight="1" spans="1:7">
-      <c r="A57" s="63" t="s">
-        <v>118</v>
-      </c>
-      <c r="B57" s="73"/>
-      <c r="C57" s="63" t="s">
-        <v>184</v>
-      </c>
-      <c r="D57" s="73"/>
-      <c r="E57" s="63" t="s">
-        <v>121</v>
-      </c>
-      <c r="F57" s="63" t="s">
+      <c r="F56" s="87" t="s">
         <v>185</v>
       </c>
-      <c r="G57" s="71"/>
+      <c r="G56" s="75"/>
+    </row>
+    <row r="57" ht="18" customHeight="1" spans="1:7">
+      <c r="A57" s="87" t="s">
+        <v>120</v>
+      </c>
+      <c r="B57" s="94"/>
+      <c r="C57" s="87" t="s">
+        <v>186</v>
+      </c>
+      <c r="D57" s="94"/>
+      <c r="E57" s="87" t="s">
+        <v>123</v>
+      </c>
+      <c r="F57" s="87" t="s">
+        <v>187</v>
+      </c>
+      <c r="G57" s="75"/>
     </row>
     <row r="58" ht="13.5" customHeight="1"/>
     <row r="59" ht="13.5" customHeight="1"/>
@@ -15358,7 +15587,7 @@
     <row r="999" ht="13.5" customHeight="1"/>
     <row r="1000" ht="13.5" customHeight="1"/>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="12">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A7:A10"/>
     <mergeCell ref="A12:A15"/>
@@ -15367,8 +15596,6 @@
     <mergeCell ref="B31:B39"/>
     <mergeCell ref="B40:B48"/>
     <mergeCell ref="B49:B57"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="D9:D15"/>
     <mergeCell ref="D40:D48"/>
     <mergeCell ref="D49:D57"/>
     <mergeCell ref="E6:E10"/>
@@ -15386,149 +15613,149 @@
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B1"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4259259259259" defaultRowHeight="15" customHeight="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="92.287037037037" customWidth="1"/>
+    <col min="1" max="1" width="102.222222222222" customWidth="1"/>
     <col min="2" max="2" width="90.8611111111111" customWidth="1"/>
     <col min="3" max="26" width="8.86111111111111" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.5" customHeight="1" spans="1:1">
       <c r="A1" s="41" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="2" ht="13.5" customHeight="1" spans="1:2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" ht="27" customHeight="1" spans="1:2">
       <c r="A2" s="42" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="3" ht="13.5" customHeight="1" spans="1:2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" ht="19" customHeight="1" spans="1:2">
       <c r="A3" s="43" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="4" ht="13.5" customHeight="1" spans="1:2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="4" ht="20" customHeight="1" spans="1:2">
       <c r="A4" s="44" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B4" s="44" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="5" ht="13.5" customHeight="1" spans="1:2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" ht="18" customHeight="1" spans="1:2">
       <c r="A5" s="22" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="6" ht="13.5" customHeight="1" spans="1:2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="6" ht="18" customHeight="1" spans="1:2">
       <c r="A6" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" ht="18" customHeight="1" spans="1:2">
+      <c r="A7" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" ht="18" customHeight="1" spans="1:2">
+      <c r="A8" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="B8" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="B6" s="31" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="7" ht="13.5" customHeight="1" spans="1:2">
-      <c r="A7" s="22" t="s">
-        <v>197</v>
-      </c>
-      <c r="B7" s="31" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="8" ht="13.5" customHeight="1" spans="1:2">
-      <c r="A8" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="9" ht="13.5" customHeight="1" spans="1:2">
+    </row>
+    <row r="9" ht="18" customHeight="1" spans="1:2">
       <c r="A9" s="22" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="10" ht="13.5" customHeight="1" spans="1:2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" ht="18" customHeight="1" spans="1:2">
       <c r="A10" s="33" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="11" ht="13.5" customHeight="1" spans="1:1">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" ht="18" customHeight="1" spans="1:1">
       <c r="A11" s="22" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="12" ht="13.5" customHeight="1" spans="1:1">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" ht="18" customHeight="1" spans="1:1">
       <c r="A12" s="22" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="13" ht="13.5" customHeight="1" spans="1:1">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="13" ht="18" customHeight="1" spans="1:1">
       <c r="A13" s="22" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="14" ht="13.5" customHeight="1" spans="1:1">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="14" ht="18" customHeight="1" spans="1:1">
       <c r="A14" s="22" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" ht="13.5" customHeight="1"/>
     <row r="16" ht="13.5" customHeight="1"/>
-    <row r="17" ht="13.5" customHeight="1" spans="1:2">
+    <row r="17" ht="35" customHeight="1" spans="1:2">
       <c r="A17" s="45" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B17" s="46"/>
     </row>
-    <row r="18" ht="13.5" customHeight="1" spans="1:1">
+    <row r="18" ht="25" customHeight="1" spans="1:1">
       <c r="A18" s="35" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="19" ht="13.5" customHeight="1" spans="1:1">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="19" ht="18" customHeight="1" spans="1:1">
       <c r="A19" s="4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="20" ht="13.5" customHeight="1" spans="1:1">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="20" ht="18" customHeight="1" spans="1:1">
       <c r="A20" s="4" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="21" ht="13.5" customHeight="1" spans="1:1">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="21" ht="18" customHeight="1" spans="1:1">
       <c r="A21" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="22" ht="13.5" customHeight="1" spans="1:1">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="22" ht="18" customHeight="1" spans="1:1">
       <c r="A22" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="23" ht="13.5" customHeight="1" spans="1:1">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="23" ht="18" customHeight="1" spans="1:1">
       <c r="A23" s="4" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24" ht="13.5" customHeight="1" spans="1:1">
@@ -15543,182 +15770,182 @@
     <row r="29" ht="13.5" customHeight="1"/>
     <row r="30" ht="13.5" customHeight="1" spans="1:1">
       <c r="A30" s="4" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31" ht="13.5" customHeight="1" spans="1:1">
       <c r="A31" s="4" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="32" ht="13.5" customHeight="1" spans="1:1">
       <c r="A32" s="4" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="33" ht="13.5" customHeight="1" spans="1:1">
       <c r="A33" s="4" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="34" ht="13.5" customHeight="1" spans="1:1">
       <c r="A34" s="4" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="35" ht="13.5" customHeight="1" spans="1:1">
       <c r="A35" s="4" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="36" ht="13.5" customHeight="1"/>
-    <row r="37" ht="13.5" customHeight="1" spans="1:1">
+    <row r="37" ht="90" customHeight="1" spans="1:1">
       <c r="A37" s="48" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="38" ht="13.5" customHeight="1"/>
     <row r="39" ht="13.5" customHeight="1"/>
-    <row r="40" ht="13.5" customHeight="1" spans="1:1">
+    <row r="40" ht="26" customHeight="1" spans="1:1">
       <c r="A40" s="35" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="41" ht="13.5" customHeight="1" spans="1:1">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="41" ht="114" customHeight="1" spans="1:1">
       <c r="A41" s="6" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="42" ht="13.5" customHeight="1" spans="1:1">
       <c r="A42" s="49" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="43" ht="13.5" customHeight="1" spans="1:1">
       <c r="A43" s="49" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="44" ht="13.5" customHeight="1" spans="1:1">
       <c r="A44" s="49" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="45" ht="13.5" customHeight="1" spans="1:1">
       <c r="A45" s="49" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="46" ht="13.5" customHeight="1"/>
     <row r="47" ht="13.5" customHeight="1"/>
-    <row r="48" ht="13.5" customHeight="1" spans="1:1">
+    <row r="48" ht="40" customHeight="1" spans="1:1">
       <c r="A48" s="35" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="49" ht="13.5" customHeight="1" spans="1:1">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="49" ht="18" customHeight="1" spans="1:1">
       <c r="A49" s="6" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="50" ht="13.5" customHeight="1" spans="1:1">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="50" ht="18" customHeight="1" spans="1:1">
       <c r="A50" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="51" ht="13.5" customHeight="1" spans="1:1">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="51" ht="18" customHeight="1" spans="1:1">
       <c r="A51" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="52" ht="13.5" customHeight="1" spans="1:1">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="52" ht="18" customHeight="1" spans="1:1">
       <c r="A52" s="50" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="53" ht="13.5" customHeight="1" spans="1:1">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="53" ht="18" customHeight="1" spans="1:1">
       <c r="A53" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="54" ht="13.5" customHeight="1" spans="1:1">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="54" ht="18" customHeight="1" spans="1:1">
       <c r="A54" s="3" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="55" ht="13.5" customHeight="1"/>
     <row r="56" ht="13.5" customHeight="1"/>
-    <row r="57" ht="13.5" customHeight="1" spans="1:1">
+    <row r="57" ht="34" customHeight="1" spans="1:1">
       <c r="A57" s="35" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="58" ht="13.5" customHeight="1" spans="1:1">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="58" ht="18" customHeight="1" spans="1:1">
       <c r="A58" s="6" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="59" ht="13.5" customHeight="1" spans="1:1">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="59" ht="18" customHeight="1" spans="1:1">
       <c r="A59" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="60" ht="13.5" customHeight="1" spans="1:1">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="60" ht="18" customHeight="1" spans="1:1">
       <c r="A60" s="3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="61" ht="13.5" customHeight="1" spans="1:1">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="61" ht="18" customHeight="1" spans="1:1">
       <c r="A61" s="3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="62" ht="13.5" customHeight="1" spans="1:1">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="62" ht="18" customHeight="1" spans="1:1">
       <c r="A62" s="51" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="63" ht="13.5" customHeight="1" spans="1:1">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="63" ht="18" customHeight="1" spans="1:1">
       <c r="A63" s="51" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="64" ht="13.5" customHeight="1" spans="1:1">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="64" ht="18" customHeight="1" spans="1:1">
       <c r="A64" s="3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="65" ht="13.5" customHeight="1" spans="1:1">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="65" ht="18" customHeight="1" spans="1:1">
       <c r="A65" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="66" ht="13.5" customHeight="1" spans="1:1">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="66" ht="18" customHeight="1" spans="1:1">
       <c r="A66" s="51" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="67" ht="13.5" customHeight="1" spans="1:1">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="67" ht="18" customHeight="1" spans="1:1">
       <c r="A67" s="3" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="68" ht="13.5" customHeight="1" spans="1:1">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="68" ht="18" customHeight="1" spans="1:1">
       <c r="A68" s="3" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="69" ht="13.5" customHeight="1" spans="1:1">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="69" ht="18" customHeight="1" spans="1:1">
       <c r="A69" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="70" ht="13.5" customHeight="1" spans="1:1">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="70" ht="18" customHeight="1" spans="1:1">
       <c r="A70" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="71" ht="13.5" customHeight="1"/>
+        <v>248</v>
+      </c>
+    </row>
+    <row r="71" ht="18" customHeight="1"/>
     <row r="72" ht="13.5" customHeight="1"/>
     <row r="73" ht="13.5" customHeight="1"/>
     <row r="74" ht="13.5" customHeight="1"/>
@@ -16665,8 +16892,8 @@
   <sheetPr/>
   <dimension ref="A1:B1056"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4259259259259" defaultRowHeight="15" customHeight="1" outlineLevelCol="1"/>
@@ -16678,73 +16905,73 @@
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:2">
       <c r="A1" s="14" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B1" s="15"/>
     </row>
     <row r="2" ht="30" customHeight="1" spans="1:1">
       <c r="A2" s="16" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:1">
       <c r="A3" s="17" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1" spans="1:1">
       <c r="A4" s="17" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1" spans="1:1">
       <c r="A5" s="18" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" ht="18" customHeight="1" spans="1:1">
       <c r="A6" s="19" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" ht="18" customHeight="1" spans="1:1">
       <c r="A7" s="19" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" ht="18" customHeight="1" spans="1:1">
       <c r="A8" s="19" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" ht="18" customHeight="1" spans="1:1">
       <c r="A9" s="19" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:1">
       <c r="A10" s="19" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" ht="18" customHeight="1" spans="1:1">
       <c r="A11" s="20" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="12" ht="18" customHeight="1" spans="1:1">
       <c r="A12" s="20" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" ht="29" customHeight="1" spans="1:1">
       <c r="A13" s="21" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1" spans="1:1">
       <c r="A14" s="21" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15" ht="18" customHeight="1" spans="1:1">
@@ -16755,52 +16982,52 @@
     </row>
     <row r="17" ht="39" customHeight="1" spans="1:1">
       <c r="A17" s="23" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="18" ht="18" customHeight="1" spans="1:1">
       <c r="A18" s="24" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="19" ht="18" customHeight="1" spans="1:1">
       <c r="A19" s="24" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" ht="18" customHeight="1" spans="1:1">
       <c r="A20" s="24" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" ht="18" customHeight="1" spans="1:1">
       <c r="A21" s="25" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="22" ht="18" customHeight="1" spans="1:1">
       <c r="A22" s="24" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:1">
       <c r="A23" s="25" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="24" ht="18" customHeight="1" spans="1:1">
       <c r="A24" s="25" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25" ht="18" customHeight="1" spans="1:1">
       <c r="A25" s="25" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="26" ht="18" customHeight="1" spans="1:1">
       <c r="A26" s="25" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="27" ht="18" customHeight="1" spans="1:1">
@@ -16808,37 +17035,37 @@
     </row>
     <row r="28" ht="18" customHeight="1" spans="1:1">
       <c r="A28" s="26" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="29" ht="18" customHeight="1" spans="1:1">
       <c r="A29" s="27" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="30" ht="18" customHeight="1" spans="1:1">
       <c r="A30" s="4" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="31" ht="18" customHeight="1" spans="1:1">
       <c r="A31" s="4" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="32" ht="18" customHeight="1" spans="1:1">
       <c r="A32" s="4" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="33" ht="18" customHeight="1" spans="1:1">
       <c r="A33" s="4" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="34" ht="18" customHeight="1" spans="1:1">
       <c r="A34" s="4" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="35" ht="18" customHeight="1" spans="1:1">
@@ -16846,72 +17073,72 @@
     </row>
     <row r="36" ht="18" customHeight="1" spans="1:1">
       <c r="A36" s="27" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="37" ht="18" customHeight="1" spans="1:1">
       <c r="A37" s="4" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="38" ht="18" customHeight="1" spans="1:1">
       <c r="A38" s="4" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="39" ht="18" customHeight="1" spans="1:1">
       <c r="A39" s="4" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="40" ht="18" customHeight="1" spans="1:1">
       <c r="A40" s="4" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="41" ht="18" customHeight="1" spans="1:1">
       <c r="A41" s="29" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="42" ht="18" customHeight="1" spans="1:1">
       <c r="A42" s="4" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="43" ht="18" customHeight="1" spans="1:1">
       <c r="A43" s="4" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="44" ht="18" customHeight="1" spans="1:1">
       <c r="A44" s="29" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="45" ht="18" customHeight="1" spans="1:1">
       <c r="A45" s="4" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="46" ht="18" customHeight="1" spans="1:1">
       <c r="A46" s="4" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="47" ht="18" customHeight="1" spans="1:1">
       <c r="A47" s="29" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="48" ht="18" customHeight="1" spans="1:1">
       <c r="A48" s="4" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="49" ht="18" customHeight="1" spans="1:1">
       <c r="A49" s="4" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="50" ht="18" customHeight="1" spans="1:1">
@@ -16919,32 +17146,32 @@
     </row>
     <row r="51" ht="18" customHeight="1" spans="1:1">
       <c r="A51" s="4" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="52" ht="18" customHeight="1" spans="1:1">
       <c r="A52" s="4" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="53" ht="18" customHeight="1" spans="1:1">
       <c r="A53" s="4" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="54" ht="18" customHeight="1" spans="1:1">
       <c r="A54" s="4" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="55" ht="18" customHeight="1" spans="1:1">
       <c r="A55" s="4" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="56" ht="18" customHeight="1" spans="1:1">
       <c r="A56" s="3" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="57" ht="18" customHeight="1" spans="1:1">
@@ -16955,43 +17182,43 @@
     </row>
     <row r="59" ht="37" customHeight="1" spans="1:2">
       <c r="A59" s="30" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B59" s="22"/>
     </row>
     <row r="60" ht="18" customHeight="1" spans="1:2">
       <c r="A60" s="18" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B60" s="22"/>
     </row>
     <row r="61" ht="18" customHeight="1" spans="1:2">
       <c r="A61" s="22" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B61" s="22"/>
     </row>
     <row r="62" ht="18" customHeight="1" spans="1:2">
       <c r="A62" s="31" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B62" s="22"/>
     </row>
     <row r="63" ht="18" customHeight="1" spans="1:2">
       <c r="A63" s="22" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B63" s="22"/>
     </row>
     <row r="64" ht="18" customHeight="1" spans="1:2">
       <c r="A64" s="32" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B64" s="33"/>
     </row>
     <row r="65" ht="18" customHeight="1" spans="1:2">
       <c r="A65" s="32" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B65" s="22"/>
     </row>
@@ -17005,43 +17232,43 @@
     </row>
     <row r="68" ht="34" customHeight="1" spans="1:2">
       <c r="A68" s="30" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B68" s="22"/>
     </row>
     <row r="69" ht="18" customHeight="1" spans="1:2">
       <c r="A69" s="18" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B69" s="22"/>
     </row>
     <row r="70" ht="18" customHeight="1" spans="1:2">
       <c r="A70" s="22" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B70" s="22"/>
     </row>
     <row r="71" ht="18" customHeight="1" spans="1:2">
       <c r="A71" s="31" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B71" s="33"/>
     </row>
     <row r="72" ht="18" customHeight="1" spans="1:2">
       <c r="A72" s="22" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B72" s="31"/>
     </row>
     <row r="73" ht="18" customHeight="1" spans="1:2">
       <c r="A73" s="32" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B73" s="22"/>
     </row>
     <row r="74" ht="18" customHeight="1" spans="1:2">
       <c r="A74" s="32" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B74" s="33"/>
     </row>
@@ -17055,22 +17282,22 @@
     </row>
     <row r="77" ht="45" customHeight="1" spans="1:1">
       <c r="A77" s="30" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="78" ht="18" customHeight="1" spans="1:1">
       <c r="A78" s="31" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="79" ht="18" customHeight="1" spans="1:1">
       <c r="A79" s="18" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="80" ht="22" customHeight="1" spans="1:1">
       <c r="A80" s="18" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="81" ht="18" customHeight="1" spans="1:1">
@@ -17081,7 +17308,7 @@
     </row>
     <row r="83" ht="39" customHeight="1" spans="1:1">
       <c r="A83" s="34" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="84" ht="18" customHeight="1" spans="1:1">
@@ -17089,32 +17316,32 @@
     </row>
     <row r="85" ht="26" customHeight="1" spans="1:1">
       <c r="A85" s="35" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="86" ht="18" customHeight="1" spans="1:1">
       <c r="A86" s="4" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="87" ht="18" customHeight="1" spans="1:1">
       <c r="A87" s="4" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="88" ht="18" customHeight="1" spans="1:1">
       <c r="A88" s="3" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="89" ht="18" customHeight="1" spans="1:1">
       <c r="A89" s="4" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="90" ht="18" customHeight="1" spans="1:1">
       <c r="A90" s="3" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="91" ht="18" customHeight="1" spans="1:1">
@@ -17122,7 +17349,7 @@
     </row>
     <row r="92" ht="28" customHeight="1" spans="1:1">
       <c r="A92" s="35" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="93" ht="18" customHeight="1" spans="1:1">
@@ -17167,12 +17394,12 @@
     <row r="106" ht="18" customHeight="1"/>
     <row r="107" ht="18" customHeight="1" spans="1:1">
       <c r="A107" s="35" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="108" ht="57" customHeight="1" spans="1:1">
       <c r="A108" s="6" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="109" ht="18" customHeight="1" spans="1:1">
@@ -17192,12 +17419,12 @@
     </row>
     <row r="114" ht="18" customHeight="1" spans="1:1">
       <c r="A114" s="35" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="115" ht="18" customHeight="1" spans="1:1">
       <c r="A115" s="6" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="116" ht="18" customHeight="1" spans="1:1">
@@ -17208,17 +17435,17 @@
     </row>
     <row r="118" ht="39" customHeight="1" spans="1:1">
       <c r="A118" s="36" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="119" ht="27" customHeight="1" spans="1:1">
       <c r="A119" s="37" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="120" ht="18" customHeight="1" spans="1:1">
       <c r="A120" s="4" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="121" ht="18" customHeight="1" spans="1:1">
@@ -17271,12 +17498,12 @@
     </row>
     <row r="137" ht="22" customHeight="1" spans="1:1">
       <c r="A137" s="37" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="138" ht="18" customHeight="1" spans="1:1">
       <c r="A138" s="4" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="139" ht="18" customHeight="1" spans="1:1">
@@ -17308,12 +17535,12 @@
     </row>
     <row r="148" ht="27" customHeight="1" spans="1:1">
       <c r="A148" s="17" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="149" ht="18" customHeight="1" spans="1:1">
       <c r="A149" s="4" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="150" ht="18" customHeight="1" spans="1:1">
@@ -17339,12 +17566,12 @@
     </row>
     <row r="157" ht="22" customHeight="1" spans="1:1">
       <c r="A157" s="21" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="158" ht="18" customHeight="1" spans="1:1">
       <c r="A158" s="4" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="159" ht="18" customHeight="1" spans="1:1">
@@ -19971,7 +20198,7 @@
   <dimension ref="A1:C993"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4259259259259" defaultRowHeight="15" customHeight="1" outlineLevelCol="2"/>
@@ -19981,71 +20208,70 @@
   <sheetData>
     <row r="1" customFormat="1" ht="29" customHeight="1" spans="1:1">
       <c r="A1" s="4" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="18" customHeight="1" spans="1:1">
       <c r="A2" s="4" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="18" customHeight="1" spans="1:1">
       <c r="A3" s="4" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="4" customFormat="1" ht="18" customHeight="1" spans="1:1">
       <c r="A4" s="4" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="5" customFormat="1" ht="18" customHeight="1" spans="1:1">
       <c r="A5" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" ht="18" customHeight="1"/>
-    <row r="7" customFormat="1" ht="18" customHeight="1"/>
+        <v>341</v>
+      </c>
+    </row>
+    <row r="6" ht="18" customHeight="1"/>
+    <row r="7" ht="18" customHeight="1"/>
     <row r="8" customFormat="1" ht="18" customHeight="1" spans="1:1">
       <c r="A8" s="8" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="9" customFormat="1" ht="18" customHeight="1" spans="1:1">
       <c r="A9" s="4" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="10" customFormat="1" ht="18" customHeight="1" spans="1:1">
       <c r="A10" s="4" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="11" customFormat="1" ht="18" customHeight="1"/>
-    <row r="12" customFormat="1" ht="18" customHeight="1"/>
-    <row r="13" customFormat="1" ht="13.5" customHeight="1"/>
+        <v>344</v>
+      </c>
+    </row>
+    <row r="11" ht="18" customHeight="1"/>
+    <row r="12" ht="18" customHeight="1"/>
+    <row r="13" ht="13.5" customHeight="1"/>
     <row r="14" customFormat="1" ht="13.5" customHeight="1" spans="1:1">
       <c r="A14" s="8" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="15" customFormat="1" ht="13.5" customHeight="1" spans="1:3">
       <c r="A15" s="9" t="s">
-        <v>344</v>
-      </c>
-      <c r="B15"/>
+        <v>346</v>
+      </c>
       <c r="C15" s="10" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="16" customFormat="1" ht="13.5" customHeight="1" spans="1:1">
       <c r="A16" s="11" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="17" customFormat="1" ht="13.5" customHeight="1" spans="1:1">
       <c r="A17" s="11" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="18" customFormat="1" ht="13.5" customHeight="1" spans="1:1">
@@ -20053,22 +20279,22 @@
     </row>
     <row r="19" customFormat="1" ht="13.5" customHeight="1" spans="1:1">
       <c r="A19" s="11" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="20" customFormat="1" ht="13.5" customHeight="1" spans="1:1">
       <c r="A20" s="11" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="21" customFormat="1" ht="13.5" customHeight="1" spans="1:1">
       <c r="A21" s="11" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="22" customFormat="1" ht="13.5" customHeight="1" spans="1:1">
       <c r="A22" s="11" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="23" customFormat="1" ht="13.5" customHeight="1" spans="1:1">
@@ -20076,7 +20302,7 @@
     </row>
     <row r="24" customFormat="1" ht="13.5" customHeight="1" spans="1:1">
       <c r="A24" s="13" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="25" customFormat="1" ht="13.5" customHeight="1" spans="1:1">
@@ -20084,12 +20310,12 @@
     </row>
     <row r="26" customFormat="1" ht="13.5" customHeight="1" spans="1:1">
       <c r="A26" s="11" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="27" customFormat="1" ht="13.5" customHeight="1" spans="1:1">
       <c r="A27" s="11" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="28" customFormat="1" ht="13.5" customHeight="1" spans="1:1">
@@ -20097,7 +20323,7 @@
     </row>
     <row r="29" customFormat="1" ht="13.5" customHeight="1" spans="1:1">
       <c r="A29" s="13" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="30" customFormat="1" ht="13.5" customHeight="1" spans="1:1">
@@ -20105,17 +20331,17 @@
     </row>
     <row r="31" customFormat="1" ht="13.5" customHeight="1" spans="1:1">
       <c r="A31" s="11" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="32" customFormat="1" ht="13.5" customHeight="1" spans="1:1">
       <c r="A32" s="11" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="33" customFormat="1" ht="13.5" customHeight="1" spans="1:1">
       <c r="A33" s="11" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="34" customFormat="1" ht="13.5" customHeight="1" spans="1:1">
@@ -20123,7 +20349,7 @@
     </row>
     <row r="35" customFormat="1" ht="13.5" customHeight="1" spans="1:1">
       <c r="A35" s="11" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="36" customFormat="1" ht="13.5" customHeight="1" spans="1:1">
@@ -20131,7 +20357,7 @@
     </row>
     <row r="37" customFormat="1" ht="13.5" customHeight="1" spans="1:1">
       <c r="A37" s="11" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="38" customFormat="1" ht="13.5" customHeight="1" spans="1:1">
@@ -20139,7 +20365,7 @@
     </row>
     <row r="39" customFormat="1" ht="13.5" customHeight="1" spans="1:1">
       <c r="A39" s="11" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="40" customFormat="1" ht="13.5" customHeight="1" spans="1:1">
@@ -20147,961 +20373,961 @@
     </row>
     <row r="41" customFormat="1" ht="13.5" customHeight="1" spans="1:1">
       <c r="A41" s="11" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="42" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="43" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="44" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="45" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="46" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="47" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="48" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="49" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="50" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="51" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="52" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="53" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="54" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="55" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="56" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="57" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="58" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="59" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="60" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="61" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="62" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="63" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="64" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="65" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="66" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="67" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="68" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="69" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="70" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="71" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="72" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="73" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="74" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="75" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="76" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="77" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="78" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="79" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="80" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="81" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="82" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="83" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="84" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="85" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="86" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="87" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="88" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="89" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="90" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="91" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="92" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="93" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="94" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="95" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="96" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="97" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="98" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="99" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="100" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="101" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="102" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="103" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="104" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="105" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="106" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="107" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="108" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="109" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="110" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="111" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="112" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="113" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="114" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="115" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="116" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="117" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="118" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="119" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="120" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="121" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="122" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="123" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="124" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="125" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="126" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="127" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="128" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="129" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="130" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="131" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="132" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="133" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="134" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="135" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="136" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="137" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="138" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="139" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="140" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="141" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="142" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="143" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="144" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="145" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="146" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="147" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="148" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="149" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="150" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="151" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="152" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="153" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="154" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="155" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="156" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="157" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="158" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="159" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="160" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="161" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="162" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="163" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="164" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="165" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="166" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="167" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="168" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="169" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="170" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="171" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="172" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="173" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="174" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="175" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="176" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="177" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="178" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="179" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="180" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="181" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="182" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="183" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="184" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="185" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="186" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="187" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="188" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="189" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="190" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="191" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="192" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="193" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="194" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="195" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="196" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="197" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="198" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="199" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="200" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="201" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="202" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="203" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="204" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="205" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="206" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="207" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="208" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="209" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="210" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="211" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="212" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="213" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="214" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="215" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="216" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="217" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="218" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="219" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="220" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="221" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="222" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="223" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="224" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="225" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="226" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="227" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="228" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="229" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="230" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="231" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="232" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="233" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="234" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="235" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="236" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="237" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="238" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="239" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="240" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="241" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="242" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="243" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="244" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="245" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="246" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="247" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="248" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="249" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="250" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="251" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="252" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="253" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="254" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="255" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="256" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="257" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="258" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="259" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="260" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="261" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="262" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="263" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="264" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="265" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="266" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="267" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="268" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="269" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="270" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="271" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="272" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="273" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="274" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="275" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="276" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="277" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="278" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="279" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="280" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="281" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="282" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="283" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="284" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="285" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="286" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="287" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="288" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="289" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="290" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="291" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="292" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="293" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="294" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="295" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="296" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="297" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="298" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="299" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="300" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="301" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="302" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="303" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="304" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="305" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="306" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="307" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="308" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="309" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="310" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="311" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="312" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="313" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="314" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="315" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="316" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="317" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="318" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="319" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="320" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="321" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="322" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="323" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="324" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="325" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="326" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="327" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="328" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="329" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="330" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="331" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="332" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="333" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="334" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="335" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="336" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="337" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="338" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="339" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="340" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="341" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="342" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="343" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="344" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="345" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="346" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="347" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="348" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="349" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="350" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="351" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="352" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="353" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="354" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="355" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="356" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="357" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="358" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="359" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="360" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="361" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="362" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="363" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="364" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="365" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="366" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="367" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="368" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="369" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="370" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="371" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="372" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="373" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="374" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="375" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="376" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="377" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="378" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="379" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="380" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="381" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="382" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="383" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="384" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="385" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="386" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="387" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="388" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="389" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="390" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="391" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="392" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="393" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="394" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="395" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="396" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="397" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="398" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="399" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="400" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="401" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="402" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="403" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="404" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="405" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="406" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="407" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="408" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="409" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="410" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="411" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="412" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="413" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="414" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="415" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="416" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="417" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="418" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="419" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="420" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="421" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="422" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="423" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="424" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="425" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="426" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="427" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="428" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="429" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="430" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="431" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="432" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="433" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="434" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="435" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="436" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="437" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="438" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="439" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="440" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="441" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="442" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="443" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="444" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="445" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="446" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="447" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="448" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="449" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="450" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="451" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="452" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="453" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="454" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="455" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="456" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="457" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="458" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="459" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="460" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="461" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="462" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="463" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="464" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="465" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="466" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="467" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="468" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="469" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="470" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="471" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="472" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="473" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="474" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="475" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="476" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="477" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="478" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="479" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="480" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="481" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="482" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="483" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="484" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="485" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="486" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="487" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="488" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="489" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="490" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="491" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="492" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="493" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="494" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="495" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="496" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="497" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="498" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="499" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="500" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="501" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="502" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="503" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="504" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="505" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="506" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="507" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="508" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="509" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="510" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="511" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="512" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="513" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="514" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="515" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="516" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="517" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="518" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="519" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="520" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="521" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="522" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="523" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="524" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="525" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="526" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="527" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="528" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="529" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="530" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="531" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="532" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="533" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="534" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="535" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="536" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="537" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="538" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="539" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="540" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="541" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="542" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="543" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="544" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="545" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="546" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="547" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="548" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="549" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="550" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="551" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="552" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="553" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="554" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="555" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="556" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="557" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="558" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="559" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="560" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="561" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="562" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="563" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="564" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="565" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="566" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="567" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="568" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="569" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="570" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="571" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="572" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="573" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="574" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="575" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="576" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="577" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="578" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="579" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="580" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="581" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="582" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="583" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="584" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="585" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="586" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="587" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="588" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="589" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="590" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="591" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="592" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="593" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="594" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="595" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="596" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="597" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="598" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="599" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="600" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="601" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="602" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="603" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="604" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="605" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="606" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="607" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="608" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="609" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="610" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="611" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="612" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="613" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="614" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="615" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="616" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="617" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="618" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="619" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="620" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="621" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="622" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="623" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="624" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="625" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="626" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="627" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="628" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="629" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="630" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="631" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="632" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="633" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="634" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="635" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="636" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="637" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="638" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="639" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="640" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="641" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="642" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="643" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="644" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="645" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="646" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="647" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="648" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="649" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="650" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="651" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="652" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="653" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="654" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="655" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="656" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="657" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="658" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="659" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="660" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="661" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="662" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="663" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="664" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="665" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="666" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="667" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="668" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="669" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="670" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="671" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="672" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="673" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="674" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="675" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="676" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="677" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="678" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="679" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="680" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="681" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="682" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="683" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="684" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="685" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="686" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="687" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="688" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="689" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="690" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="691" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="692" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="693" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="694" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="695" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="696" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="697" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="698" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="699" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="700" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="701" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="702" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="703" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="704" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="705" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="706" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="707" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="708" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="709" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="710" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="711" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="712" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="713" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="714" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="715" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="716" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="717" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="718" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="719" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="720" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="721" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="722" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="723" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="724" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="725" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="726" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="727" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="728" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="729" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="730" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="731" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="732" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="733" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="734" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="735" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="736" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="737" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="738" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="739" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="740" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="741" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="742" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="743" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="744" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="745" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="746" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="747" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="748" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="749" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="750" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="751" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="752" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="753" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="754" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="755" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="756" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="757" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="758" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="759" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="760" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="761" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="762" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="763" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="764" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="765" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="766" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="767" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="768" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="769" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="770" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="771" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="772" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="773" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="774" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="775" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="776" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="777" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="778" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="779" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="780" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="781" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="782" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="783" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="784" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="785" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="786" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="787" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="788" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="789" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="790" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="791" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="792" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="793" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="794" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="795" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="796" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="797" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="798" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="799" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="800" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="801" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="802" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="803" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="804" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="805" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="806" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="807" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="808" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="809" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="810" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="811" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="812" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="813" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="814" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="815" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="816" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="817" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="818" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="819" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="820" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="821" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="822" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="823" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="824" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="825" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="826" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="827" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="828" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="829" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="830" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="831" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="832" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="833" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="834" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="835" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="836" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="837" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="838" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="839" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="840" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="841" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="842" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="843" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="844" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="845" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="846" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="847" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="848" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="849" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="850" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="851" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="852" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="853" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="854" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="855" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="856" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="857" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="858" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="859" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="860" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="861" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="862" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="863" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="864" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="865" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="866" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="867" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="868" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="869" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="870" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="871" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="872" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="873" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="874" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="875" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="876" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="877" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="878" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="879" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="880" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="881" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="882" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="883" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="884" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="885" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="886" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="887" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="888" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="889" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="890" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="891" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="892" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="893" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="894" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="895" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="896" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="897" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="898" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="899" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="900" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="901" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="902" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="903" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="904" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="905" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="906" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="907" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="908" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="909" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="910" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="911" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="912" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="913" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="914" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="915" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="916" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="917" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="918" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="919" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="920" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="921" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="922" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="923" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="924" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="925" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="926" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="927" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="928" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="929" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="930" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="931" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="932" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="933" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="934" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="935" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="936" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="937" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="938" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="939" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="940" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="941" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="942" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="943" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="944" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="945" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="946" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="947" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="948" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="949" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="950" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="951" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="952" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="953" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="954" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="955" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="956" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="957" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="958" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="959" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="960" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="961" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="962" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="963" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="964" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="965" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="966" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="967" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="968" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="969" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="970" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="971" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="972" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="973" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="974" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="975" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="976" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="977" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="978" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="979" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="980" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="981" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="982" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="983" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="984" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="985" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="986" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="987" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="988" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="989" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="990" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="991" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="992" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="993" customFormat="1" ht="13.5" customHeight="1"/>
+        <v>363</v>
+      </c>
+    </row>
+    <row r="42" ht="13.5" customHeight="1"/>
+    <row r="43" ht="13.5" customHeight="1"/>
+    <row r="44" ht="13.5" customHeight="1"/>
+    <row r="45" ht="13.5" customHeight="1"/>
+    <row r="46" ht="13.5" customHeight="1"/>
+    <row r="47" ht="13.5" customHeight="1"/>
+    <row r="48" ht="13.5" customHeight="1"/>
+    <row r="49" ht="13.5" customHeight="1"/>
+    <row r="50" ht="13.5" customHeight="1"/>
+    <row r="51" ht="13.5" customHeight="1"/>
+    <row r="52" ht="13.5" customHeight="1"/>
+    <row r="53" ht="13.5" customHeight="1"/>
+    <row r="54" ht="13.5" customHeight="1"/>
+    <row r="55" ht="13.5" customHeight="1"/>
+    <row r="56" ht="13.5" customHeight="1"/>
+    <row r="57" ht="13.5" customHeight="1"/>
+    <row r="58" ht="13.5" customHeight="1"/>
+    <row r="59" ht="13.5" customHeight="1"/>
+    <row r="60" ht="13.5" customHeight="1"/>
+    <row r="61" ht="13.5" customHeight="1"/>
+    <row r="62" ht="13.5" customHeight="1"/>
+    <row r="63" ht="13.5" customHeight="1"/>
+    <row r="64" ht="13.5" customHeight="1"/>
+    <row r="65" ht="13.5" customHeight="1"/>
+    <row r="66" ht="13.5" customHeight="1"/>
+    <row r="67" ht="13.5" customHeight="1"/>
+    <row r="68" ht="13.5" customHeight="1"/>
+    <row r="69" ht="13.5" customHeight="1"/>
+    <row r="70" ht="13.5" customHeight="1"/>
+    <row r="71" ht="13.5" customHeight="1"/>
+    <row r="72" ht="13.5" customHeight="1"/>
+    <row r="73" ht="13.5" customHeight="1"/>
+    <row r="74" ht="13.5" customHeight="1"/>
+    <row r="75" ht="13.5" customHeight="1"/>
+    <row r="76" ht="13.5" customHeight="1"/>
+    <row r="77" ht="13.5" customHeight="1"/>
+    <row r="78" ht="13.5" customHeight="1"/>
+    <row r="79" ht="13.5" customHeight="1"/>
+    <row r="80" ht="13.5" customHeight="1"/>
+    <row r="81" ht="13.5" customHeight="1"/>
+    <row r="82" ht="13.5" customHeight="1"/>
+    <row r="83" ht="13.5" customHeight="1"/>
+    <row r="84" ht="13.5" customHeight="1"/>
+    <row r="85" ht="13.5" customHeight="1"/>
+    <row r="86" ht="13.5" customHeight="1"/>
+    <row r="87" ht="13.5" customHeight="1"/>
+    <row r="88" ht="13.5" customHeight="1"/>
+    <row r="89" ht="13.5" customHeight="1"/>
+    <row r="90" ht="13.5" customHeight="1"/>
+    <row r="91" ht="13.5" customHeight="1"/>
+    <row r="92" ht="13.5" customHeight="1"/>
+    <row r="93" ht="13.5" customHeight="1"/>
+    <row r="94" ht="13.5" customHeight="1"/>
+    <row r="95" ht="13.5" customHeight="1"/>
+    <row r="96" ht="13.5" customHeight="1"/>
+    <row r="97" ht="13.5" customHeight="1"/>
+    <row r="98" ht="13.5" customHeight="1"/>
+    <row r="99" ht="13.5" customHeight="1"/>
+    <row r="100" ht="13.5" customHeight="1"/>
+    <row r="101" ht="13.5" customHeight="1"/>
+    <row r="102" ht="13.5" customHeight="1"/>
+    <row r="103" ht="13.5" customHeight="1"/>
+    <row r="104" ht="13.5" customHeight="1"/>
+    <row r="105" ht="13.5" customHeight="1"/>
+    <row r="106" ht="13.5" customHeight="1"/>
+    <row r="107" ht="13.5" customHeight="1"/>
+    <row r="108" ht="13.5" customHeight="1"/>
+    <row r="109" ht="13.5" customHeight="1"/>
+    <row r="110" ht="13.5" customHeight="1"/>
+    <row r="111" ht="13.5" customHeight="1"/>
+    <row r="112" ht="13.5" customHeight="1"/>
+    <row r="113" ht="13.5" customHeight="1"/>
+    <row r="114" ht="13.5" customHeight="1"/>
+    <row r="115" ht="13.5" customHeight="1"/>
+    <row r="116" ht="13.5" customHeight="1"/>
+    <row r="117" ht="13.5" customHeight="1"/>
+    <row r="118" ht="13.5" customHeight="1"/>
+    <row r="119" ht="13.5" customHeight="1"/>
+    <row r="120" ht="13.5" customHeight="1"/>
+    <row r="121" ht="13.5" customHeight="1"/>
+    <row r="122" ht="13.5" customHeight="1"/>
+    <row r="123" ht="13.5" customHeight="1"/>
+    <row r="124" ht="13.5" customHeight="1"/>
+    <row r="125" ht="13.5" customHeight="1"/>
+    <row r="126" ht="13.5" customHeight="1"/>
+    <row r="127" ht="13.5" customHeight="1"/>
+    <row r="128" ht="13.5" customHeight="1"/>
+    <row r="129" ht="13.5" customHeight="1"/>
+    <row r="130" ht="13.5" customHeight="1"/>
+    <row r="131" ht="13.5" customHeight="1"/>
+    <row r="132" ht="13.5" customHeight="1"/>
+    <row r="133" ht="13.5" customHeight="1"/>
+    <row r="134" ht="13.5" customHeight="1"/>
+    <row r="135" ht="13.5" customHeight="1"/>
+    <row r="136" ht="13.5" customHeight="1"/>
+    <row r="137" ht="13.5" customHeight="1"/>
+    <row r="138" ht="13.5" customHeight="1"/>
+    <row r="139" ht="13.5" customHeight="1"/>
+    <row r="140" ht="13.5" customHeight="1"/>
+    <row r="141" ht="13.5" customHeight="1"/>
+    <row r="142" ht="13.5" customHeight="1"/>
+    <row r="143" ht="13.5" customHeight="1"/>
+    <row r="144" ht="13.5" customHeight="1"/>
+    <row r="145" ht="13.5" customHeight="1"/>
+    <row r="146" ht="13.5" customHeight="1"/>
+    <row r="147" ht="13.5" customHeight="1"/>
+    <row r="148" ht="13.5" customHeight="1"/>
+    <row r="149" ht="13.5" customHeight="1"/>
+    <row r="150" ht="13.5" customHeight="1"/>
+    <row r="151" ht="13.5" customHeight="1"/>
+    <row r="152" ht="13.5" customHeight="1"/>
+    <row r="153" ht="13.5" customHeight="1"/>
+    <row r="154" ht="13.5" customHeight="1"/>
+    <row r="155" ht="13.5" customHeight="1"/>
+    <row r="156" ht="13.5" customHeight="1"/>
+    <row r="157" ht="13.5" customHeight="1"/>
+    <row r="158" ht="13.5" customHeight="1"/>
+    <row r="159" ht="13.5" customHeight="1"/>
+    <row r="160" ht="13.5" customHeight="1"/>
+    <row r="161" ht="13.5" customHeight="1"/>
+    <row r="162" ht="13.5" customHeight="1"/>
+    <row r="163" ht="13.5" customHeight="1"/>
+    <row r="164" ht="13.5" customHeight="1"/>
+    <row r="165" ht="13.5" customHeight="1"/>
+    <row r="166" ht="13.5" customHeight="1"/>
+    <row r="167" ht="13.5" customHeight="1"/>
+    <row r="168" ht="13.5" customHeight="1"/>
+    <row r="169" ht="13.5" customHeight="1"/>
+    <row r="170" ht="13.5" customHeight="1"/>
+    <row r="171" ht="13.5" customHeight="1"/>
+    <row r="172" ht="13.5" customHeight="1"/>
+    <row r="173" ht="13.5" customHeight="1"/>
+    <row r="174" ht="13.5" customHeight="1"/>
+    <row r="175" ht="13.5" customHeight="1"/>
+    <row r="176" ht="13.5" customHeight="1"/>
+    <row r="177" ht="13.5" customHeight="1"/>
+    <row r="178" ht="13.5" customHeight="1"/>
+    <row r="179" ht="13.5" customHeight="1"/>
+    <row r="180" ht="13.5" customHeight="1"/>
+    <row r="181" ht="13.5" customHeight="1"/>
+    <row r="182" ht="13.5" customHeight="1"/>
+    <row r="183" ht="13.5" customHeight="1"/>
+    <row r="184" ht="13.5" customHeight="1"/>
+    <row r="185" ht="13.5" customHeight="1"/>
+    <row r="186" ht="13.5" customHeight="1"/>
+    <row r="187" ht="13.5" customHeight="1"/>
+    <row r="188" ht="13.5" customHeight="1"/>
+    <row r="189" ht="13.5" customHeight="1"/>
+    <row r="190" ht="13.5" customHeight="1"/>
+    <row r="191" ht="13.5" customHeight="1"/>
+    <row r="192" ht="13.5" customHeight="1"/>
+    <row r="193" ht="13.5" customHeight="1"/>
+    <row r="194" ht="13.5" customHeight="1"/>
+    <row r="195" ht="13.5" customHeight="1"/>
+    <row r="196" ht="13.5" customHeight="1"/>
+    <row r="197" ht="13.5" customHeight="1"/>
+    <row r="198" ht="13.5" customHeight="1"/>
+    <row r="199" ht="13.5" customHeight="1"/>
+    <row r="200" ht="13.5" customHeight="1"/>
+    <row r="201" ht="13.5" customHeight="1"/>
+    <row r="202" ht="13.5" customHeight="1"/>
+    <row r="203" ht="13.5" customHeight="1"/>
+    <row r="204" ht="13.5" customHeight="1"/>
+    <row r="205" ht="13.5" customHeight="1"/>
+    <row r="206" ht="13.5" customHeight="1"/>
+    <row r="207" ht="13.5" customHeight="1"/>
+    <row r="208" ht="13.5" customHeight="1"/>
+    <row r="209" ht="13.5" customHeight="1"/>
+    <row r="210" ht="13.5" customHeight="1"/>
+    <row r="211" ht="13.5" customHeight="1"/>
+    <row r="212" ht="13.5" customHeight="1"/>
+    <row r="213" ht="13.5" customHeight="1"/>
+    <row r="214" ht="13.5" customHeight="1"/>
+    <row r="215" ht="13.5" customHeight="1"/>
+    <row r="216" ht="13.5" customHeight="1"/>
+    <row r="217" ht="13.5" customHeight="1"/>
+    <row r="218" ht="13.5" customHeight="1"/>
+    <row r="219" ht="13.5" customHeight="1"/>
+    <row r="220" ht="13.5" customHeight="1"/>
+    <row r="221" ht="13.5" customHeight="1"/>
+    <row r="222" ht="13.5" customHeight="1"/>
+    <row r="223" ht="13.5" customHeight="1"/>
+    <row r="224" ht="13.5" customHeight="1"/>
+    <row r="225" ht="13.5" customHeight="1"/>
+    <row r="226" ht="13.5" customHeight="1"/>
+    <row r="227" ht="13.5" customHeight="1"/>
+    <row r="228" ht="13.5" customHeight="1"/>
+    <row r="229" ht="13.5" customHeight="1"/>
+    <row r="230" ht="13.5" customHeight="1"/>
+    <row r="231" ht="13.5" customHeight="1"/>
+    <row r="232" ht="13.5" customHeight="1"/>
+    <row r="233" ht="13.5" customHeight="1"/>
+    <row r="234" ht="13.5" customHeight="1"/>
+    <row r="235" ht="13.5" customHeight="1"/>
+    <row r="236" ht="13.5" customHeight="1"/>
+    <row r="237" ht="13.5" customHeight="1"/>
+    <row r="238" ht="13.5" customHeight="1"/>
+    <row r="239" ht="13.5" customHeight="1"/>
+    <row r="240" ht="13.5" customHeight="1"/>
+    <row r="241" ht="13.5" customHeight="1"/>
+    <row r="242" ht="13.5" customHeight="1"/>
+    <row r="243" ht="13.5" customHeight="1"/>
+    <row r="244" ht="13.5" customHeight="1"/>
+    <row r="245" ht="13.5" customHeight="1"/>
+    <row r="246" ht="13.5" customHeight="1"/>
+    <row r="247" ht="13.5" customHeight="1"/>
+    <row r="248" ht="13.5" customHeight="1"/>
+    <row r="249" ht="13.5" customHeight="1"/>
+    <row r="250" ht="13.5" customHeight="1"/>
+    <row r="251" ht="13.5" customHeight="1"/>
+    <row r="252" ht="13.5" customHeight="1"/>
+    <row r="253" ht="13.5" customHeight="1"/>
+    <row r="254" ht="13.5" customHeight="1"/>
+    <row r="255" ht="13.5" customHeight="1"/>
+    <row r="256" ht="13.5" customHeight="1"/>
+    <row r="257" ht="13.5" customHeight="1"/>
+    <row r="258" ht="13.5" customHeight="1"/>
+    <row r="259" ht="13.5" customHeight="1"/>
+    <row r="260" ht="13.5" customHeight="1"/>
+    <row r="261" ht="13.5" customHeight="1"/>
+    <row r="262" ht="13.5" customHeight="1"/>
+    <row r="263" ht="13.5" customHeight="1"/>
+    <row r="264" ht="13.5" customHeight="1"/>
+    <row r="265" ht="13.5" customHeight="1"/>
+    <row r="266" ht="13.5" customHeight="1"/>
+    <row r="267" ht="13.5" customHeight="1"/>
+    <row r="268" ht="13.5" customHeight="1"/>
+    <row r="269" ht="13.5" customHeight="1"/>
+    <row r="270" ht="13.5" customHeight="1"/>
+    <row r="271" ht="13.5" customHeight="1"/>
+    <row r="272" ht="13.5" customHeight="1"/>
+    <row r="273" ht="13.5" customHeight="1"/>
+    <row r="274" ht="13.5" customHeight="1"/>
+    <row r="275" ht="13.5" customHeight="1"/>
+    <row r="276" ht="13.5" customHeight="1"/>
+    <row r="277" ht="13.5" customHeight="1"/>
+    <row r="278" ht="13.5" customHeight="1"/>
+    <row r="279" ht="13.5" customHeight="1"/>
+    <row r="280" ht="13.5" customHeight="1"/>
+    <row r="281" ht="13.5" customHeight="1"/>
+    <row r="282" ht="13.5" customHeight="1"/>
+    <row r="283" ht="13.5" customHeight="1"/>
+    <row r="284" ht="13.5" customHeight="1"/>
+    <row r="285" ht="13.5" customHeight="1"/>
+    <row r="286" ht="13.5" customHeight="1"/>
+    <row r="287" ht="13.5" customHeight="1"/>
+    <row r="288" ht="13.5" customHeight="1"/>
+    <row r="289" ht="13.5" customHeight="1"/>
+    <row r="290" ht="13.5" customHeight="1"/>
+    <row r="291" ht="13.5" customHeight="1"/>
+    <row r="292" ht="13.5" customHeight="1"/>
+    <row r="293" ht="13.5" customHeight="1"/>
+    <row r="294" ht="13.5" customHeight="1"/>
+    <row r="295" ht="13.5" customHeight="1"/>
+    <row r="296" ht="13.5" customHeight="1"/>
+    <row r="297" ht="13.5" customHeight="1"/>
+    <row r="298" ht="13.5" customHeight="1"/>
+    <row r="299" ht="13.5" customHeight="1"/>
+    <row r="300" ht="13.5" customHeight="1"/>
+    <row r="301" ht="13.5" customHeight="1"/>
+    <row r="302" ht="13.5" customHeight="1"/>
+    <row r="303" ht="13.5" customHeight="1"/>
+    <row r="304" ht="13.5" customHeight="1"/>
+    <row r="305" ht="13.5" customHeight="1"/>
+    <row r="306" ht="13.5" customHeight="1"/>
+    <row r="307" ht="13.5" customHeight="1"/>
+    <row r="308" ht="13.5" customHeight="1"/>
+    <row r="309" ht="13.5" customHeight="1"/>
+    <row r="310" ht="13.5" customHeight="1"/>
+    <row r="311" ht="13.5" customHeight="1"/>
+    <row r="312" ht="13.5" customHeight="1"/>
+    <row r="313" ht="13.5" customHeight="1"/>
+    <row r="314" ht="13.5" customHeight="1"/>
+    <row r="315" ht="13.5" customHeight="1"/>
+    <row r="316" ht="13.5" customHeight="1"/>
+    <row r="317" ht="13.5" customHeight="1"/>
+    <row r="318" ht="13.5" customHeight="1"/>
+    <row r="319" ht="13.5" customHeight="1"/>
+    <row r="320" ht="13.5" customHeight="1"/>
+    <row r="321" ht="13.5" customHeight="1"/>
+    <row r="322" ht="13.5" customHeight="1"/>
+    <row r="323" ht="13.5" customHeight="1"/>
+    <row r="324" ht="13.5" customHeight="1"/>
+    <row r="325" ht="13.5" customHeight="1"/>
+    <row r="326" ht="13.5" customHeight="1"/>
+    <row r="327" ht="13.5" customHeight="1"/>
+    <row r="328" ht="13.5" customHeight="1"/>
+    <row r="329" ht="13.5" customHeight="1"/>
+    <row r="330" ht="13.5" customHeight="1"/>
+    <row r="331" ht="13.5" customHeight="1"/>
+    <row r="332" ht="13.5" customHeight="1"/>
+    <row r="333" ht="13.5" customHeight="1"/>
+    <row r="334" ht="13.5" customHeight="1"/>
+    <row r="335" ht="13.5" customHeight="1"/>
+    <row r="336" ht="13.5" customHeight="1"/>
+    <row r="337" ht="13.5" customHeight="1"/>
+    <row r="338" ht="13.5" customHeight="1"/>
+    <row r="339" ht="13.5" customHeight="1"/>
+    <row r="340" ht="13.5" customHeight="1"/>
+    <row r="341" ht="13.5" customHeight="1"/>
+    <row r="342" ht="13.5" customHeight="1"/>
+    <row r="343" ht="13.5" customHeight="1"/>
+    <row r="344" ht="13.5" customHeight="1"/>
+    <row r="345" ht="13.5" customHeight="1"/>
+    <row r="346" ht="13.5" customHeight="1"/>
+    <row r="347" ht="13.5" customHeight="1"/>
+    <row r="348" ht="13.5" customHeight="1"/>
+    <row r="349" ht="13.5" customHeight="1"/>
+    <row r="350" ht="13.5" customHeight="1"/>
+    <row r="351" ht="13.5" customHeight="1"/>
+    <row r="352" ht="13.5" customHeight="1"/>
+    <row r="353" ht="13.5" customHeight="1"/>
+    <row r="354" ht="13.5" customHeight="1"/>
+    <row r="355" ht="13.5" customHeight="1"/>
+    <row r="356" ht="13.5" customHeight="1"/>
+    <row r="357" ht="13.5" customHeight="1"/>
+    <row r="358" ht="13.5" customHeight="1"/>
+    <row r="359" ht="13.5" customHeight="1"/>
+    <row r="360" ht="13.5" customHeight="1"/>
+    <row r="361" ht="13.5" customHeight="1"/>
+    <row r="362" ht="13.5" customHeight="1"/>
+    <row r="363" ht="13.5" customHeight="1"/>
+    <row r="364" ht="13.5" customHeight="1"/>
+    <row r="365" ht="13.5" customHeight="1"/>
+    <row r="366" ht="13.5" customHeight="1"/>
+    <row r="367" ht="13.5" customHeight="1"/>
+    <row r="368" ht="13.5" customHeight="1"/>
+    <row r="369" ht="13.5" customHeight="1"/>
+    <row r="370" ht="13.5" customHeight="1"/>
+    <row r="371" ht="13.5" customHeight="1"/>
+    <row r="372" ht="13.5" customHeight="1"/>
+    <row r="373" ht="13.5" customHeight="1"/>
+    <row r="374" ht="13.5" customHeight="1"/>
+    <row r="375" ht="13.5" customHeight="1"/>
+    <row r="376" ht="13.5" customHeight="1"/>
+    <row r="377" ht="13.5" customHeight="1"/>
+    <row r="378" ht="13.5" customHeight="1"/>
+    <row r="379" ht="13.5" customHeight="1"/>
+    <row r="380" ht="13.5" customHeight="1"/>
+    <row r="381" ht="13.5" customHeight="1"/>
+    <row r="382" ht="13.5" customHeight="1"/>
+    <row r="383" ht="13.5" customHeight="1"/>
+    <row r="384" ht="13.5" customHeight="1"/>
+    <row r="385" ht="13.5" customHeight="1"/>
+    <row r="386" ht="13.5" customHeight="1"/>
+    <row r="387" ht="13.5" customHeight="1"/>
+    <row r="388" ht="13.5" customHeight="1"/>
+    <row r="389" ht="13.5" customHeight="1"/>
+    <row r="390" ht="13.5" customHeight="1"/>
+    <row r="391" ht="13.5" customHeight="1"/>
+    <row r="392" ht="13.5" customHeight="1"/>
+    <row r="393" ht="13.5" customHeight="1"/>
+    <row r="394" ht="13.5" customHeight="1"/>
+    <row r="395" ht="13.5" customHeight="1"/>
+    <row r="396" ht="13.5" customHeight="1"/>
+    <row r="397" ht="13.5" customHeight="1"/>
+    <row r="398" ht="13.5" customHeight="1"/>
+    <row r="399" ht="13.5" customHeight="1"/>
+    <row r="400" ht="13.5" customHeight="1"/>
+    <row r="401" ht="13.5" customHeight="1"/>
+    <row r="402" ht="13.5" customHeight="1"/>
+    <row r="403" ht="13.5" customHeight="1"/>
+    <row r="404" ht="13.5" customHeight="1"/>
+    <row r="405" ht="13.5" customHeight="1"/>
+    <row r="406" ht="13.5" customHeight="1"/>
+    <row r="407" ht="13.5" customHeight="1"/>
+    <row r="408" ht="13.5" customHeight="1"/>
+    <row r="409" ht="13.5" customHeight="1"/>
+    <row r="410" ht="13.5" customHeight="1"/>
+    <row r="411" ht="13.5" customHeight="1"/>
+    <row r="412" ht="13.5" customHeight="1"/>
+    <row r="413" ht="13.5" customHeight="1"/>
+    <row r="414" ht="13.5" customHeight="1"/>
+    <row r="415" ht="13.5" customHeight="1"/>
+    <row r="416" ht="13.5" customHeight="1"/>
+    <row r="417" ht="13.5" customHeight="1"/>
+    <row r="418" ht="13.5" customHeight="1"/>
+    <row r="419" ht="13.5" customHeight="1"/>
+    <row r="420" ht="13.5" customHeight="1"/>
+    <row r="421" ht="13.5" customHeight="1"/>
+    <row r="422" ht="13.5" customHeight="1"/>
+    <row r="423" ht="13.5" customHeight="1"/>
+    <row r="424" ht="13.5" customHeight="1"/>
+    <row r="425" ht="13.5" customHeight="1"/>
+    <row r="426" ht="13.5" customHeight="1"/>
+    <row r="427" ht="13.5" customHeight="1"/>
+    <row r="428" ht="13.5" customHeight="1"/>
+    <row r="429" ht="13.5" customHeight="1"/>
+    <row r="430" ht="13.5" customHeight="1"/>
+    <row r="431" ht="13.5" customHeight="1"/>
+    <row r="432" ht="13.5" customHeight="1"/>
+    <row r="433" ht="13.5" customHeight="1"/>
+    <row r="434" ht="13.5" customHeight="1"/>
+    <row r="435" ht="13.5" customHeight="1"/>
+    <row r="436" ht="13.5" customHeight="1"/>
+    <row r="437" ht="13.5" customHeight="1"/>
+    <row r="438" ht="13.5" customHeight="1"/>
+    <row r="439" ht="13.5" customHeight="1"/>
+    <row r="440" ht="13.5" customHeight="1"/>
+    <row r="441" ht="13.5" customHeight="1"/>
+    <row r="442" ht="13.5" customHeight="1"/>
+    <row r="443" ht="13.5" customHeight="1"/>
+    <row r="444" ht="13.5" customHeight="1"/>
+    <row r="445" ht="13.5" customHeight="1"/>
+    <row r="446" ht="13.5" customHeight="1"/>
+    <row r="447" ht="13.5" customHeight="1"/>
+    <row r="448" ht="13.5" customHeight="1"/>
+    <row r="449" ht="13.5" customHeight="1"/>
+    <row r="450" ht="13.5" customHeight="1"/>
+    <row r="451" ht="13.5" customHeight="1"/>
+    <row r="452" ht="13.5" customHeight="1"/>
+    <row r="453" ht="13.5" customHeight="1"/>
+    <row r="454" ht="13.5" customHeight="1"/>
+    <row r="455" ht="13.5" customHeight="1"/>
+    <row r="456" ht="13.5" customHeight="1"/>
+    <row r="457" ht="13.5" customHeight="1"/>
+    <row r="458" ht="13.5" customHeight="1"/>
+    <row r="459" ht="13.5" customHeight="1"/>
+    <row r="460" ht="13.5" customHeight="1"/>
+    <row r="461" ht="13.5" customHeight="1"/>
+    <row r="462" ht="13.5" customHeight="1"/>
+    <row r="463" ht="13.5" customHeight="1"/>
+    <row r="464" ht="13.5" customHeight="1"/>
+    <row r="465" ht="13.5" customHeight="1"/>
+    <row r="466" ht="13.5" customHeight="1"/>
+    <row r="467" ht="13.5" customHeight="1"/>
+    <row r="468" ht="13.5" customHeight="1"/>
+    <row r="469" ht="13.5" customHeight="1"/>
+    <row r="470" ht="13.5" customHeight="1"/>
+    <row r="471" ht="13.5" customHeight="1"/>
+    <row r="472" ht="13.5" customHeight="1"/>
+    <row r="473" ht="13.5" customHeight="1"/>
+    <row r="474" ht="13.5" customHeight="1"/>
+    <row r="475" ht="13.5" customHeight="1"/>
+    <row r="476" ht="13.5" customHeight="1"/>
+    <row r="477" ht="13.5" customHeight="1"/>
+    <row r="478" ht="13.5" customHeight="1"/>
+    <row r="479" ht="13.5" customHeight="1"/>
+    <row r="480" ht="13.5" customHeight="1"/>
+    <row r="481" ht="13.5" customHeight="1"/>
+    <row r="482" ht="13.5" customHeight="1"/>
+    <row r="483" ht="13.5" customHeight="1"/>
+    <row r="484" ht="13.5" customHeight="1"/>
+    <row r="485" ht="13.5" customHeight="1"/>
+    <row r="486" ht="13.5" customHeight="1"/>
+    <row r="487" ht="13.5" customHeight="1"/>
+    <row r="488" ht="13.5" customHeight="1"/>
+    <row r="489" ht="13.5" customHeight="1"/>
+    <row r="490" ht="13.5" customHeight="1"/>
+    <row r="491" ht="13.5" customHeight="1"/>
+    <row r="492" ht="13.5" customHeight="1"/>
+    <row r="493" ht="13.5" customHeight="1"/>
+    <row r="494" ht="13.5" customHeight="1"/>
+    <row r="495" ht="13.5" customHeight="1"/>
+    <row r="496" ht="13.5" customHeight="1"/>
+    <row r="497" ht="13.5" customHeight="1"/>
+    <row r="498" ht="13.5" customHeight="1"/>
+    <row r="499" ht="13.5" customHeight="1"/>
+    <row r="500" ht="13.5" customHeight="1"/>
+    <row r="501" ht="13.5" customHeight="1"/>
+    <row r="502" ht="13.5" customHeight="1"/>
+    <row r="503" ht="13.5" customHeight="1"/>
+    <row r="504" ht="13.5" customHeight="1"/>
+    <row r="505" ht="13.5" customHeight="1"/>
+    <row r="506" ht="13.5" customHeight="1"/>
+    <row r="507" ht="13.5" customHeight="1"/>
+    <row r="508" ht="13.5" customHeight="1"/>
+    <row r="509" ht="13.5" customHeight="1"/>
+    <row r="510" ht="13.5" customHeight="1"/>
+    <row r="511" ht="13.5" customHeight="1"/>
+    <row r="512" ht="13.5" customHeight="1"/>
+    <row r="513" ht="13.5" customHeight="1"/>
+    <row r="514" ht="13.5" customHeight="1"/>
+    <row r="515" ht="13.5" customHeight="1"/>
+    <row r="516" ht="13.5" customHeight="1"/>
+    <row r="517" ht="13.5" customHeight="1"/>
+    <row r="518" ht="13.5" customHeight="1"/>
+    <row r="519" ht="13.5" customHeight="1"/>
+    <row r="520" ht="13.5" customHeight="1"/>
+    <row r="521" ht="13.5" customHeight="1"/>
+    <row r="522" ht="13.5" customHeight="1"/>
+    <row r="523" ht="13.5" customHeight="1"/>
+    <row r="524" ht="13.5" customHeight="1"/>
+    <row r="525" ht="13.5" customHeight="1"/>
+    <row r="526" ht="13.5" customHeight="1"/>
+    <row r="527" ht="13.5" customHeight="1"/>
+    <row r="528" ht="13.5" customHeight="1"/>
+    <row r="529" ht="13.5" customHeight="1"/>
+    <row r="530" ht="13.5" customHeight="1"/>
+    <row r="531" ht="13.5" customHeight="1"/>
+    <row r="532" ht="13.5" customHeight="1"/>
+    <row r="533" ht="13.5" customHeight="1"/>
+    <row r="534" ht="13.5" customHeight="1"/>
+    <row r="535" ht="13.5" customHeight="1"/>
+    <row r="536" ht="13.5" customHeight="1"/>
+    <row r="537" ht="13.5" customHeight="1"/>
+    <row r="538" ht="13.5" customHeight="1"/>
+    <row r="539" ht="13.5" customHeight="1"/>
+    <row r="540" ht="13.5" customHeight="1"/>
+    <row r="541" ht="13.5" customHeight="1"/>
+    <row r="542" ht="13.5" customHeight="1"/>
+    <row r="543" ht="13.5" customHeight="1"/>
+    <row r="544" ht="13.5" customHeight="1"/>
+    <row r="545" ht="13.5" customHeight="1"/>
+    <row r="546" ht="13.5" customHeight="1"/>
+    <row r="547" ht="13.5" customHeight="1"/>
+    <row r="548" ht="13.5" customHeight="1"/>
+    <row r="549" ht="13.5" customHeight="1"/>
+    <row r="550" ht="13.5" customHeight="1"/>
+    <row r="551" ht="13.5" customHeight="1"/>
+    <row r="552" ht="13.5" customHeight="1"/>
+    <row r="553" ht="13.5" customHeight="1"/>
+    <row r="554" ht="13.5" customHeight="1"/>
+    <row r="555" ht="13.5" customHeight="1"/>
+    <row r="556" ht="13.5" customHeight="1"/>
+    <row r="557" ht="13.5" customHeight="1"/>
+    <row r="558" ht="13.5" customHeight="1"/>
+    <row r="559" ht="13.5" customHeight="1"/>
+    <row r="560" ht="13.5" customHeight="1"/>
+    <row r="561" ht="13.5" customHeight="1"/>
+    <row r="562" ht="13.5" customHeight="1"/>
+    <row r="563" ht="13.5" customHeight="1"/>
+    <row r="564" ht="13.5" customHeight="1"/>
+    <row r="565" ht="13.5" customHeight="1"/>
+    <row r="566" ht="13.5" customHeight="1"/>
+    <row r="567" ht="13.5" customHeight="1"/>
+    <row r="568" ht="13.5" customHeight="1"/>
+    <row r="569" ht="13.5" customHeight="1"/>
+    <row r="570" ht="13.5" customHeight="1"/>
+    <row r="571" ht="13.5" customHeight="1"/>
+    <row r="572" ht="13.5" customHeight="1"/>
+    <row r="573" ht="13.5" customHeight="1"/>
+    <row r="574" ht="13.5" customHeight="1"/>
+    <row r="575" ht="13.5" customHeight="1"/>
+    <row r="576" ht="13.5" customHeight="1"/>
+    <row r="577" ht="13.5" customHeight="1"/>
+    <row r="578" ht="13.5" customHeight="1"/>
+    <row r="579" ht="13.5" customHeight="1"/>
+    <row r="580" ht="13.5" customHeight="1"/>
+    <row r="581" ht="13.5" customHeight="1"/>
+    <row r="582" ht="13.5" customHeight="1"/>
+    <row r="583" ht="13.5" customHeight="1"/>
+    <row r="584" ht="13.5" customHeight="1"/>
+    <row r="585" ht="13.5" customHeight="1"/>
+    <row r="586" ht="13.5" customHeight="1"/>
+    <row r="587" ht="13.5" customHeight="1"/>
+    <row r="588" ht="13.5" customHeight="1"/>
+    <row r="589" ht="13.5" customHeight="1"/>
+    <row r="590" ht="13.5" customHeight="1"/>
+    <row r="591" ht="13.5" customHeight="1"/>
+    <row r="592" ht="13.5" customHeight="1"/>
+    <row r="593" ht="13.5" customHeight="1"/>
+    <row r="594" ht="13.5" customHeight="1"/>
+    <row r="595" ht="13.5" customHeight="1"/>
+    <row r="596" ht="13.5" customHeight="1"/>
+    <row r="597" ht="13.5" customHeight="1"/>
+    <row r="598" ht="13.5" customHeight="1"/>
+    <row r="599" ht="13.5" customHeight="1"/>
+    <row r="600" ht="13.5" customHeight="1"/>
+    <row r="601" ht="13.5" customHeight="1"/>
+    <row r="602" ht="13.5" customHeight="1"/>
+    <row r="603" ht="13.5" customHeight="1"/>
+    <row r="604" ht="13.5" customHeight="1"/>
+    <row r="605" ht="13.5" customHeight="1"/>
+    <row r="606" ht="13.5" customHeight="1"/>
+    <row r="607" ht="13.5" customHeight="1"/>
+    <row r="608" ht="13.5" customHeight="1"/>
+    <row r="609" ht="13.5" customHeight="1"/>
+    <row r="610" ht="13.5" customHeight="1"/>
+    <row r="611" ht="13.5" customHeight="1"/>
+    <row r="612" ht="13.5" customHeight="1"/>
+    <row r="613" ht="13.5" customHeight="1"/>
+    <row r="614" ht="13.5" customHeight="1"/>
+    <row r="615" ht="13.5" customHeight="1"/>
+    <row r="616" ht="13.5" customHeight="1"/>
+    <row r="617" ht="13.5" customHeight="1"/>
+    <row r="618" ht="13.5" customHeight="1"/>
+    <row r="619" ht="13.5" customHeight="1"/>
+    <row r="620" ht="13.5" customHeight="1"/>
+    <row r="621" ht="13.5" customHeight="1"/>
+    <row r="622" ht="13.5" customHeight="1"/>
+    <row r="623" ht="13.5" customHeight="1"/>
+    <row r="624" ht="13.5" customHeight="1"/>
+    <row r="625" ht="13.5" customHeight="1"/>
+    <row r="626" ht="13.5" customHeight="1"/>
+    <row r="627" ht="13.5" customHeight="1"/>
+    <row r="628" ht="13.5" customHeight="1"/>
+    <row r="629" ht="13.5" customHeight="1"/>
+    <row r="630" ht="13.5" customHeight="1"/>
+    <row r="631" ht="13.5" customHeight="1"/>
+    <row r="632" ht="13.5" customHeight="1"/>
+    <row r="633" ht="13.5" customHeight="1"/>
+    <row r="634" ht="13.5" customHeight="1"/>
+    <row r="635" ht="13.5" customHeight="1"/>
+    <row r="636" ht="13.5" customHeight="1"/>
+    <row r="637" ht="13.5" customHeight="1"/>
+    <row r="638" ht="13.5" customHeight="1"/>
+    <row r="639" ht="13.5" customHeight="1"/>
+    <row r="640" ht="13.5" customHeight="1"/>
+    <row r="641" ht="13.5" customHeight="1"/>
+    <row r="642" ht="13.5" customHeight="1"/>
+    <row r="643" ht="13.5" customHeight="1"/>
+    <row r="644" ht="13.5" customHeight="1"/>
+    <row r="645" ht="13.5" customHeight="1"/>
+    <row r="646" ht="13.5" customHeight="1"/>
+    <row r="647" ht="13.5" customHeight="1"/>
+    <row r="648" ht="13.5" customHeight="1"/>
+    <row r="649" ht="13.5" customHeight="1"/>
+    <row r="650" ht="13.5" customHeight="1"/>
+    <row r="651" ht="13.5" customHeight="1"/>
+    <row r="652" ht="13.5" customHeight="1"/>
+    <row r="653" ht="13.5" customHeight="1"/>
+    <row r="654" ht="13.5" customHeight="1"/>
+    <row r="655" ht="13.5" customHeight="1"/>
+    <row r="656" ht="13.5" customHeight="1"/>
+    <row r="657" ht="13.5" customHeight="1"/>
+    <row r="658" ht="13.5" customHeight="1"/>
+    <row r="659" ht="13.5" customHeight="1"/>
+    <row r="660" ht="13.5" customHeight="1"/>
+    <row r="661" ht="13.5" customHeight="1"/>
+    <row r="662" ht="13.5" customHeight="1"/>
+    <row r="663" ht="13.5" customHeight="1"/>
+    <row r="664" ht="13.5" customHeight="1"/>
+    <row r="665" ht="13.5" customHeight="1"/>
+    <row r="666" ht="13.5" customHeight="1"/>
+    <row r="667" ht="13.5" customHeight="1"/>
+    <row r="668" ht="13.5" customHeight="1"/>
+    <row r="669" ht="13.5" customHeight="1"/>
+    <row r="670" ht="13.5" customHeight="1"/>
+    <row r="671" ht="13.5" customHeight="1"/>
+    <row r="672" ht="13.5" customHeight="1"/>
+    <row r="673" ht="13.5" customHeight="1"/>
+    <row r="674" ht="13.5" customHeight="1"/>
+    <row r="675" ht="13.5" customHeight="1"/>
+    <row r="676" ht="13.5" customHeight="1"/>
+    <row r="677" ht="13.5" customHeight="1"/>
+    <row r="678" ht="13.5" customHeight="1"/>
+    <row r="679" ht="13.5" customHeight="1"/>
+    <row r="680" ht="13.5" customHeight="1"/>
+    <row r="681" ht="13.5" customHeight="1"/>
+    <row r="682" ht="13.5" customHeight="1"/>
+    <row r="683" ht="13.5" customHeight="1"/>
+    <row r="684" ht="13.5" customHeight="1"/>
+    <row r="685" ht="13.5" customHeight="1"/>
+    <row r="686" ht="13.5" customHeight="1"/>
+    <row r="687" ht="13.5" customHeight="1"/>
+    <row r="688" ht="13.5" customHeight="1"/>
+    <row r="689" ht="13.5" customHeight="1"/>
+    <row r="690" ht="13.5" customHeight="1"/>
+    <row r="691" ht="13.5" customHeight="1"/>
+    <row r="692" ht="13.5" customHeight="1"/>
+    <row r="693" ht="13.5" customHeight="1"/>
+    <row r="694" ht="13.5" customHeight="1"/>
+    <row r="695" ht="13.5" customHeight="1"/>
+    <row r="696" ht="13.5" customHeight="1"/>
+    <row r="697" ht="13.5" customHeight="1"/>
+    <row r="698" ht="13.5" customHeight="1"/>
+    <row r="699" ht="13.5" customHeight="1"/>
+    <row r="700" ht="13.5" customHeight="1"/>
+    <row r="701" ht="13.5" customHeight="1"/>
+    <row r="702" ht="13.5" customHeight="1"/>
+    <row r="703" ht="13.5" customHeight="1"/>
+    <row r="704" ht="13.5" customHeight="1"/>
+    <row r="705" ht="13.5" customHeight="1"/>
+    <row r="706" ht="13.5" customHeight="1"/>
+    <row r="707" ht="13.5" customHeight="1"/>
+    <row r="708" ht="13.5" customHeight="1"/>
+    <row r="709" ht="13.5" customHeight="1"/>
+    <row r="710" ht="13.5" customHeight="1"/>
+    <row r="711" ht="13.5" customHeight="1"/>
+    <row r="712" ht="13.5" customHeight="1"/>
+    <row r="713" ht="13.5" customHeight="1"/>
+    <row r="714" ht="13.5" customHeight="1"/>
+    <row r="715" ht="13.5" customHeight="1"/>
+    <row r="716" ht="13.5" customHeight="1"/>
+    <row r="717" ht="13.5" customHeight="1"/>
+    <row r="718" ht="13.5" customHeight="1"/>
+    <row r="719" ht="13.5" customHeight="1"/>
+    <row r="720" ht="13.5" customHeight="1"/>
+    <row r="721" ht="13.5" customHeight="1"/>
+    <row r="722" ht="13.5" customHeight="1"/>
+    <row r="723" ht="13.5" customHeight="1"/>
+    <row r="724" ht="13.5" customHeight="1"/>
+    <row r="725" ht="13.5" customHeight="1"/>
+    <row r="726" ht="13.5" customHeight="1"/>
+    <row r="727" ht="13.5" customHeight="1"/>
+    <row r="728" ht="13.5" customHeight="1"/>
+    <row r="729" ht="13.5" customHeight="1"/>
+    <row r="730" ht="13.5" customHeight="1"/>
+    <row r="731" ht="13.5" customHeight="1"/>
+    <row r="732" ht="13.5" customHeight="1"/>
+    <row r="733" ht="13.5" customHeight="1"/>
+    <row r="734" ht="13.5" customHeight="1"/>
+    <row r="735" ht="13.5" customHeight="1"/>
+    <row r="736" ht="13.5" customHeight="1"/>
+    <row r="737" ht="13.5" customHeight="1"/>
+    <row r="738" ht="13.5" customHeight="1"/>
+    <row r="739" ht="13.5" customHeight="1"/>
+    <row r="740" ht="13.5" customHeight="1"/>
+    <row r="741" ht="13.5" customHeight="1"/>
+    <row r="742" ht="13.5" customHeight="1"/>
+    <row r="743" ht="13.5" customHeight="1"/>
+    <row r="744" ht="13.5" customHeight="1"/>
+    <row r="745" ht="13.5" customHeight="1"/>
+    <row r="746" ht="13.5" customHeight="1"/>
+    <row r="747" ht="13.5" customHeight="1"/>
+    <row r="748" ht="13.5" customHeight="1"/>
+    <row r="749" ht="13.5" customHeight="1"/>
+    <row r="750" ht="13.5" customHeight="1"/>
+    <row r="751" ht="13.5" customHeight="1"/>
+    <row r="752" ht="13.5" customHeight="1"/>
+    <row r="753" ht="13.5" customHeight="1"/>
+    <row r="754" ht="13.5" customHeight="1"/>
+    <row r="755" ht="13.5" customHeight="1"/>
+    <row r="756" ht="13.5" customHeight="1"/>
+    <row r="757" ht="13.5" customHeight="1"/>
+    <row r="758" ht="13.5" customHeight="1"/>
+    <row r="759" ht="13.5" customHeight="1"/>
+    <row r="760" ht="13.5" customHeight="1"/>
+    <row r="761" ht="13.5" customHeight="1"/>
+    <row r="762" ht="13.5" customHeight="1"/>
+    <row r="763" ht="13.5" customHeight="1"/>
+    <row r="764" ht="13.5" customHeight="1"/>
+    <row r="765" ht="13.5" customHeight="1"/>
+    <row r="766" ht="13.5" customHeight="1"/>
+    <row r="767" ht="13.5" customHeight="1"/>
+    <row r="768" ht="13.5" customHeight="1"/>
+    <row r="769" ht="13.5" customHeight="1"/>
+    <row r="770" ht="13.5" customHeight="1"/>
+    <row r="771" ht="13.5" customHeight="1"/>
+    <row r="772" ht="13.5" customHeight="1"/>
+    <row r="773" ht="13.5" customHeight="1"/>
+    <row r="774" ht="13.5" customHeight="1"/>
+    <row r="775" ht="13.5" customHeight="1"/>
+    <row r="776" ht="13.5" customHeight="1"/>
+    <row r="777" ht="13.5" customHeight="1"/>
+    <row r="778" ht="13.5" customHeight="1"/>
+    <row r="779" ht="13.5" customHeight="1"/>
+    <row r="780" ht="13.5" customHeight="1"/>
+    <row r="781" ht="13.5" customHeight="1"/>
+    <row r="782" ht="13.5" customHeight="1"/>
+    <row r="783" ht="13.5" customHeight="1"/>
+    <row r="784" ht="13.5" customHeight="1"/>
+    <row r="785" ht="13.5" customHeight="1"/>
+    <row r="786" ht="13.5" customHeight="1"/>
+    <row r="787" ht="13.5" customHeight="1"/>
+    <row r="788" ht="13.5" customHeight="1"/>
+    <row r="789" ht="13.5" customHeight="1"/>
+    <row r="790" ht="13.5" customHeight="1"/>
+    <row r="791" ht="13.5" customHeight="1"/>
+    <row r="792" ht="13.5" customHeight="1"/>
+    <row r="793" ht="13.5" customHeight="1"/>
+    <row r="794" ht="13.5" customHeight="1"/>
+    <row r="795" ht="13.5" customHeight="1"/>
+    <row r="796" ht="13.5" customHeight="1"/>
+    <row r="797" ht="13.5" customHeight="1"/>
+    <row r="798" ht="13.5" customHeight="1"/>
+    <row r="799" ht="13.5" customHeight="1"/>
+    <row r="800" ht="13.5" customHeight="1"/>
+    <row r="801" ht="13.5" customHeight="1"/>
+    <row r="802" ht="13.5" customHeight="1"/>
+    <row r="803" ht="13.5" customHeight="1"/>
+    <row r="804" ht="13.5" customHeight="1"/>
+    <row r="805" ht="13.5" customHeight="1"/>
+    <row r="806" ht="13.5" customHeight="1"/>
+    <row r="807" ht="13.5" customHeight="1"/>
+    <row r="808" ht="13.5" customHeight="1"/>
+    <row r="809" ht="13.5" customHeight="1"/>
+    <row r="810" ht="13.5" customHeight="1"/>
+    <row r="811" ht="13.5" customHeight="1"/>
+    <row r="812" ht="13.5" customHeight="1"/>
+    <row r="813" ht="13.5" customHeight="1"/>
+    <row r="814" ht="13.5" customHeight="1"/>
+    <row r="815" ht="13.5" customHeight="1"/>
+    <row r="816" ht="13.5" customHeight="1"/>
+    <row r="817" ht="13.5" customHeight="1"/>
+    <row r="818" ht="13.5" customHeight="1"/>
+    <row r="819" ht="13.5" customHeight="1"/>
+    <row r="820" ht="13.5" customHeight="1"/>
+    <row r="821" ht="13.5" customHeight="1"/>
+    <row r="822" ht="13.5" customHeight="1"/>
+    <row r="823" ht="13.5" customHeight="1"/>
+    <row r="824" ht="13.5" customHeight="1"/>
+    <row r="825" ht="13.5" customHeight="1"/>
+    <row r="826" ht="13.5" customHeight="1"/>
+    <row r="827" ht="13.5" customHeight="1"/>
+    <row r="828" ht="13.5" customHeight="1"/>
+    <row r="829" ht="13.5" customHeight="1"/>
+    <row r="830" ht="13.5" customHeight="1"/>
+    <row r="831" ht="13.5" customHeight="1"/>
+    <row r="832" ht="13.5" customHeight="1"/>
+    <row r="833" ht="13.5" customHeight="1"/>
+    <row r="834" ht="13.5" customHeight="1"/>
+    <row r="835" ht="13.5" customHeight="1"/>
+    <row r="836" ht="13.5" customHeight="1"/>
+    <row r="837" ht="13.5" customHeight="1"/>
+    <row r="838" ht="13.5" customHeight="1"/>
+    <row r="839" ht="13.5" customHeight="1"/>
+    <row r="840" ht="13.5" customHeight="1"/>
+    <row r="841" ht="13.5" customHeight="1"/>
+    <row r="842" ht="13.5" customHeight="1"/>
+    <row r="843" ht="13.5" customHeight="1"/>
+    <row r="844" ht="13.5" customHeight="1"/>
+    <row r="845" ht="13.5" customHeight="1"/>
+    <row r="846" ht="13.5" customHeight="1"/>
+    <row r="847" ht="13.5" customHeight="1"/>
+    <row r="848" ht="13.5" customHeight="1"/>
+    <row r="849" ht="13.5" customHeight="1"/>
+    <row r="850" ht="13.5" customHeight="1"/>
+    <row r="851" ht="13.5" customHeight="1"/>
+    <row r="852" ht="13.5" customHeight="1"/>
+    <row r="853" ht="13.5" customHeight="1"/>
+    <row r="854" ht="13.5" customHeight="1"/>
+    <row r="855" ht="13.5" customHeight="1"/>
+    <row r="856" ht="13.5" customHeight="1"/>
+    <row r="857" ht="13.5" customHeight="1"/>
+    <row r="858" ht="13.5" customHeight="1"/>
+    <row r="859" ht="13.5" customHeight="1"/>
+    <row r="860" ht="13.5" customHeight="1"/>
+    <row r="861" ht="13.5" customHeight="1"/>
+    <row r="862" ht="13.5" customHeight="1"/>
+    <row r="863" ht="13.5" customHeight="1"/>
+    <row r="864" ht="13.5" customHeight="1"/>
+    <row r="865" ht="13.5" customHeight="1"/>
+    <row r="866" ht="13.5" customHeight="1"/>
+    <row r="867" ht="13.5" customHeight="1"/>
+    <row r="868" ht="13.5" customHeight="1"/>
+    <row r="869" ht="13.5" customHeight="1"/>
+    <row r="870" ht="13.5" customHeight="1"/>
+    <row r="871" ht="13.5" customHeight="1"/>
+    <row r="872" ht="13.5" customHeight="1"/>
+    <row r="873" ht="13.5" customHeight="1"/>
+    <row r="874" ht="13.5" customHeight="1"/>
+    <row r="875" ht="13.5" customHeight="1"/>
+    <row r="876" ht="13.5" customHeight="1"/>
+    <row r="877" ht="13.5" customHeight="1"/>
+    <row r="878" ht="13.5" customHeight="1"/>
+    <row r="879" ht="13.5" customHeight="1"/>
+    <row r="880" ht="13.5" customHeight="1"/>
+    <row r="881" ht="13.5" customHeight="1"/>
+    <row r="882" ht="13.5" customHeight="1"/>
+    <row r="883" ht="13.5" customHeight="1"/>
+    <row r="884" ht="13.5" customHeight="1"/>
+    <row r="885" ht="13.5" customHeight="1"/>
+    <row r="886" ht="13.5" customHeight="1"/>
+    <row r="887" ht="13.5" customHeight="1"/>
+    <row r="888" ht="13.5" customHeight="1"/>
+    <row r="889" ht="13.5" customHeight="1"/>
+    <row r="890" ht="13.5" customHeight="1"/>
+    <row r="891" ht="13.5" customHeight="1"/>
+    <row r="892" ht="13.5" customHeight="1"/>
+    <row r="893" ht="13.5" customHeight="1"/>
+    <row r="894" ht="13.5" customHeight="1"/>
+    <row r="895" ht="13.5" customHeight="1"/>
+    <row r="896" ht="13.5" customHeight="1"/>
+    <row r="897" ht="13.5" customHeight="1"/>
+    <row r="898" ht="13.5" customHeight="1"/>
+    <row r="899" ht="13.5" customHeight="1"/>
+    <row r="900" ht="13.5" customHeight="1"/>
+    <row r="901" ht="13.5" customHeight="1"/>
+    <row r="902" ht="13.5" customHeight="1"/>
+    <row r="903" ht="13.5" customHeight="1"/>
+    <row r="904" ht="13.5" customHeight="1"/>
+    <row r="905" ht="13.5" customHeight="1"/>
+    <row r="906" ht="13.5" customHeight="1"/>
+    <row r="907" ht="13.5" customHeight="1"/>
+    <row r="908" ht="13.5" customHeight="1"/>
+    <row r="909" ht="13.5" customHeight="1"/>
+    <row r="910" ht="13.5" customHeight="1"/>
+    <row r="911" ht="13.5" customHeight="1"/>
+    <row r="912" ht="13.5" customHeight="1"/>
+    <row r="913" ht="13.5" customHeight="1"/>
+    <row r="914" ht="13.5" customHeight="1"/>
+    <row r="915" ht="13.5" customHeight="1"/>
+    <row r="916" ht="13.5" customHeight="1"/>
+    <row r="917" ht="13.5" customHeight="1"/>
+    <row r="918" ht="13.5" customHeight="1"/>
+    <row r="919" ht="13.5" customHeight="1"/>
+    <row r="920" ht="13.5" customHeight="1"/>
+    <row r="921" ht="13.5" customHeight="1"/>
+    <row r="922" ht="13.5" customHeight="1"/>
+    <row r="923" ht="13.5" customHeight="1"/>
+    <row r="924" ht="13.5" customHeight="1"/>
+    <row r="925" ht="13.5" customHeight="1"/>
+    <row r="926" ht="13.5" customHeight="1"/>
+    <row r="927" ht="13.5" customHeight="1"/>
+    <row r="928" ht="13.5" customHeight="1"/>
+    <row r="929" ht="13.5" customHeight="1"/>
+    <row r="930" ht="13.5" customHeight="1"/>
+    <row r="931" ht="13.5" customHeight="1"/>
+    <row r="932" ht="13.5" customHeight="1"/>
+    <row r="933" ht="13.5" customHeight="1"/>
+    <row r="934" ht="13.5" customHeight="1"/>
+    <row r="935" ht="13.5" customHeight="1"/>
+    <row r="936" ht="13.5" customHeight="1"/>
+    <row r="937" ht="13.5" customHeight="1"/>
+    <row r="938" ht="13.5" customHeight="1"/>
+    <row r="939" ht="13.5" customHeight="1"/>
+    <row r="940" ht="13.5" customHeight="1"/>
+    <row r="941" ht="13.5" customHeight="1"/>
+    <row r="942" ht="13.5" customHeight="1"/>
+    <row r="943" ht="13.5" customHeight="1"/>
+    <row r="944" ht="13.5" customHeight="1"/>
+    <row r="945" ht="13.5" customHeight="1"/>
+    <row r="946" ht="13.5" customHeight="1"/>
+    <row r="947" ht="13.5" customHeight="1"/>
+    <row r="948" ht="13.5" customHeight="1"/>
+    <row r="949" ht="13.5" customHeight="1"/>
+    <row r="950" ht="13.5" customHeight="1"/>
+    <row r="951" ht="13.5" customHeight="1"/>
+    <row r="952" ht="13.5" customHeight="1"/>
+    <row r="953" ht="13.5" customHeight="1"/>
+    <row r="954" ht="13.5" customHeight="1"/>
+    <row r="955" ht="13.5" customHeight="1"/>
+    <row r="956" ht="13.5" customHeight="1"/>
+    <row r="957" ht="13.5" customHeight="1"/>
+    <row r="958" ht="13.5" customHeight="1"/>
+    <row r="959" ht="13.5" customHeight="1"/>
+    <row r="960" ht="13.5" customHeight="1"/>
+    <row r="961" ht="13.5" customHeight="1"/>
+    <row r="962" ht="13.5" customHeight="1"/>
+    <row r="963" ht="13.5" customHeight="1"/>
+    <row r="964" ht="13.5" customHeight="1"/>
+    <row r="965" ht="13.5" customHeight="1"/>
+    <row r="966" ht="13.5" customHeight="1"/>
+    <row r="967" ht="13.5" customHeight="1"/>
+    <row r="968" ht="13.5" customHeight="1"/>
+    <row r="969" ht="13.5" customHeight="1"/>
+    <row r="970" ht="13.5" customHeight="1"/>
+    <row r="971" ht="13.5" customHeight="1"/>
+    <row r="972" ht="13.5" customHeight="1"/>
+    <row r="973" ht="13.5" customHeight="1"/>
+    <row r="974" ht="13.5" customHeight="1"/>
+    <row r="975" ht="13.5" customHeight="1"/>
+    <row r="976" ht="13.5" customHeight="1"/>
+    <row r="977" ht="13.5" customHeight="1"/>
+    <row r="978" ht="13.5" customHeight="1"/>
+    <row r="979" ht="13.5" customHeight="1"/>
+    <row r="980" ht="13.5" customHeight="1"/>
+    <row r="981" ht="13.5" customHeight="1"/>
+    <row r="982" ht="13.5" customHeight="1"/>
+    <row r="983" ht="13.5" customHeight="1"/>
+    <row r="984" ht="13.5" customHeight="1"/>
+    <row r="985" ht="13.5" customHeight="1"/>
+    <row r="986" ht="13.5" customHeight="1"/>
+    <row r="987" ht="13.5" customHeight="1"/>
+    <row r="988" ht="13.5" customHeight="1"/>
+    <row r="989" ht="13.5" customHeight="1"/>
+    <row r="990" ht="13.5" customHeight="1"/>
+    <row r="991" ht="13.5" customHeight="1"/>
+    <row r="992" ht="13.5" customHeight="1"/>
+    <row r="993" ht="13.5" customHeight="1"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C15" r:id="rId1" display="https://zhuanlan.zhihu.com/p/89029581"/>
@@ -21118,7 +21344,7 @@
   <dimension ref="A1:Q1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4259259259259" defaultRowHeight="15" customHeight="1"/>
@@ -21128,178 +21354,178 @@
     <col min="3" max="26" width="8.86111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" customHeight="1" spans="1:5">
+    <row r="1" ht="30" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="2" ht="13.5" customHeight="1" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="3" ht="13.5" customHeight="1" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4" ht="13.5" customHeight="1" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="5" ht="13.5" customHeight="1" spans="1:6">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="E5" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="6" ht="13.5" customHeight="1" spans="5:6">
       <c r="E6" s="2" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="7" ht="13.5" customHeight="1" spans="1:6">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="7" ht="25" customHeight="1" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F7" s="4"/>
     </row>
     <row r="8" ht="13.5" customHeight="1" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="9" ht="13.5" customHeight="1" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="10" ht="13.5" customHeight="1" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="11" ht="13.5" customHeight="1" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="12" ht="13.5" customHeight="1" spans="2:2">
       <c r="B12" s="4"/>
     </row>
     <row r="13" ht="13.5" customHeight="1"/>
-    <row r="14" ht="13.5" customHeight="1" spans="1:1">
+    <row r="14" ht="25" customHeight="1" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="15" ht="13.5" customHeight="1" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="16" ht="13.5" customHeight="1" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="17" ht="13.5" customHeight="1" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="18" ht="13.5" customHeight="1" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="19" ht="13.5" customHeight="1"/>

--- a/Basic Grammar for N5-N4.xlsx
+++ b/Basic Grammar for N5-N4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9024"/>
+    <workbookView windowWidth="23040" windowHeight="9024" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Basic" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="422">
   <si>
     <t>Nouns</t>
   </si>
@@ -45,6 +45,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>学生</t>
     </r>
     <r>
@@ -101,6 +107,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>学生</t>
     </r>
     <r>
@@ -129,7 +141,19 @@
     <t>Remove the る</t>
   </si>
   <si>
-    <t>学生 じゃないです</t>
+    <r>
+      <t>学生 じゃない</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>です</t>
+    </r>
   </si>
   <si>
     <r>
@@ -209,20 +233,23 @@
   </si>
   <si>
     <r>
+      <t>学生</t>
+    </r>
+    <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">学生 </t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="MS Gothic"/>
         <charset val="134"/>
       </rPr>
       <t>じゃなかったです</t>
@@ -317,6 +344,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>静</t>
     </r>
     <r>
@@ -349,6 +382,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>静</t>
     </r>
     <r>
@@ -381,6 +420,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>静</t>
     </r>
     <r>
@@ -414,6 +459,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>静</t>
     </r>
     <r>
@@ -626,6 +677,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>可愛</t>
     </r>
     <r>
@@ -699,6 +756,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>可愛</t>
     </r>
     <r>
@@ -722,6 +785,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>可愛</t>
     </r>
     <r>
@@ -757,12 +826,45 @@
   </si>
   <si>
     <r>
+      <t>可愛</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>い</t>
+    </r>
+    <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>くないです</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">可愛い </t>
     </r>
     <r>
@@ -773,8 +875,17 @@
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
-      <t>くないです</t>
-    </r>
+      <t>くありません</t>
+    </r>
+  </si>
+  <si>
+    <t>past-neg: よく ありませんでした</t>
+  </si>
+  <si>
+    <t>可愛 かった</t>
+  </si>
+  <si>
+    <t>くる ----&gt; き</t>
   </si>
   <si>
     <r>
@@ -791,36 +902,6 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>くありません</t>
-    </r>
-  </si>
-  <si>
-    <t>past-neg: よく ありませんでした</t>
-  </si>
-  <si>
-    <t>可愛 かった</t>
-  </si>
-  <si>
-    <t>くる ----&gt; き</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">可愛い </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Yu Gothic"/>
         <charset val="134"/>
       </rPr>
@@ -832,6 +913,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>可愛い</t>
     </r>
     <r>
@@ -2453,6 +2540,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Replace the </t>
     </r>
     <r>
@@ -2952,6 +3045,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>To describe a continuing action, first conjugate the verb to the te-form and then attach the verb</t>
     </r>
     <r>
@@ -6208,12 +6307,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">• </t>
     </r>
     <r>
@@ -6316,7 +6409,16 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t>.</t>
+      <t xml:space="preserve">.  /u/ -&gt; /e/ + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>る</t>
     </r>
   </si>
   <si>
@@ -8487,12 +8589,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">• </t>
     </r>
     <r>
@@ -8584,7 +8680,16 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t>.</t>
+      <t xml:space="preserve">.  /u/ -&gt; /a/ + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>せる</t>
     </r>
   </si>
   <si>
@@ -8668,34 +8773,27 @@
   </si>
   <si>
     <r>
+      <t>Passive Conjugation Rules/</t>
+    </r>
+    <r>
       <rPr>
         <b/>
         <sz val="18"/>
         <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Passive Conjugation Rules/</t>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>被动形</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="18"/>
         <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>被动形</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/sb be required/asked to do sth</t>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/sb be required/asked to do sth/to let do sth</t>
     </r>
   </si>
   <si>
@@ -8789,12 +8887,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">• </t>
     </r>
     <r>
@@ -8886,7 +8978,16 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t>.</t>
+      <t xml:space="preserve">.  /u/ -&gt; /a/ + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>れる</t>
     </r>
   </si>
   <si>
@@ -9404,18 +9505,48 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>•For u-verbs:Replace the / u / vowel sound with the / o / vowel sound and add</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
+      <t xml:space="preserve">•For u-verbs:Replace the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/ u /</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> vowel sound with the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/ o /</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> vowel sound and add</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -9424,7 +9555,7 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="MS Gothic"/>
         <charset val="134"/>
       </rPr>
@@ -9433,24 +9564,34 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>」</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">.   /u/ -&gt; /o/ + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>う</t>
+    </r>
   </si>
   <si>
     <t>Example:入る→入ろ+う→入ろう</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
       <t>****</t>
     </r>
     <r>
@@ -9819,13 +9960,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="21"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">Conditionals </t>
     </r>
     <r>
@@ -10009,6 +10143,262 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">• For verbs: Change the last </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/u/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> vowel sound to the equivalent </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">/e/ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vowel sound and attach 「ば」.  /u/ -&gt; /e/ + ば</t>
+    </r>
+  </si>
+  <si>
+    <t>1. ⾷べる →  ⾷べれ → ⾷べれば</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>待</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>つ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> →  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>待</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>て</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>待</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>てば</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">• For i-adjectives or negatives ending in 「ない」: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Drop the last 「い」 and attach 「ければ」.</t>
+    </r>
+  </si>
+  <si>
+    <t>1. おかしい →  おかしければ</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ない</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> →  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>なければ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">For nouns and na-adjectives: Attach </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>であれば</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>」</t>
+    </r>
+  </si>
+  <si>
+    <t>1. 学⽣  →  学⽣であれば</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>暇</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>  →  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>暇</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>であれば</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <rPr>
         <sz val="17"/>
         <color rgb="FFFF0000"/>
@@ -10129,6 +10519,243 @@
     </r>
   </si>
   <si>
+    <t>• First change the noun, adjective, or verb to its past tense and attach 「ら」</t>
+  </si>
+  <si>
+    <t>1. ⾃動  →  ⾃動だった → ⾃動だったら</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>待</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>つ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> →  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>待</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>った</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>待</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ったら</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>読</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>む</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> →  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>読</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>んだ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> →  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>読</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>んだら</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>忙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>しい</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> →  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>忙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>しかった</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>忙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>しかったら</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="17"/>
@@ -10170,31 +10797,43 @@
   </si>
   <si>
     <r>
+      <t>Contextual conditionals using</t>
+    </r>
+    <r>
       <rPr>
         <sz val="18"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Contextual conditionals using</t>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>「</t>
     </r>
     <r>
       <rPr>
         <sz val="18"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>「</t>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>なら</t>
     </r>
     <r>
       <rPr>
         <sz val="18"/>
         <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
         <rFont val="MS Gothic"/>
         <charset val="134"/>
       </rPr>
-      <t>なら</t>
+      <t>ば</t>
     </r>
     <r>
       <rPr>
@@ -10203,16 +10842,16 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t>(</t>
+      <t>)</t>
     </r>
     <r>
       <rPr>
         <sz val="18"/>
         <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ば</t>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>」</t>
     </r>
     <r>
       <rPr>
@@ -10221,16 +10860,26 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t>)</t>
+      <t xml:space="preserve">  </t>
     </r>
     <r>
       <rPr>
         <sz val="18"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>」</t>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>polite form:ません＋なら</t>
     </r>
   </si>
   <si>
@@ -11273,7 +11922,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="119">
+  <fonts count="130">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -11452,6 +12101,21 @@
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="19"/>
@@ -11905,6 +12569,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="MS Gothic"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="17"/>
       <color rgb="FF000000"/>
       <name val="Meiryo"/>
@@ -11930,12 +12600,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="MS Gothic"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Meiryo"/>
@@ -11944,6 +12608,28 @@
     <font>
       <sz val="21"/>
       <color theme="1"/>
+      <name val="MS Gothic"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FFFF0000"/>
+      <name val="MS Gothic"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="13"/>
       <name val="MS Gothic"/>
       <charset val="134"/>
     </font>
@@ -11971,6 +12657,39 @@
       <sz val="17"/>
       <color rgb="FFFF0000"/>
       <name val="MS Gothic"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="17"/>
+      <color theme="1"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="17"/>
+      <color theme="1"/>
+      <name val="MS Gothic"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="SimSun"/>
       <charset val="134"/>
     </font>
     <font>
@@ -12032,6 +12751,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="MS Gothic"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Yu Gothic"/>
@@ -12041,13 +12767,6 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="MS Gothic"/>
       <charset val="134"/>
     </font>
     <font>
@@ -12515,137 +13234,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="4" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="4" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="6" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="62" fillId="6" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="65" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="66" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="67" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="68" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="69" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="69" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="68" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="68" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="69" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="69" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="68" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="68" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="69" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="69" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="68" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="68" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="69" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="69" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="68" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="68" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="69" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="69" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="68" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="68" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="69" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -12690,9 +13409,12 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -12700,8 +13422,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -12711,135 +13433,135 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13158,7 +13880,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>149</xdr:row>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="7658100" cy="1114425"/>
@@ -13175,7 +13897,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="37230050"/>
+          <a:off x="0" y="35820350"/>
           <a:ext cx="7658100" cy="1114425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13190,7 +13912,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>158</xdr:row>
+      <xdr:row>152</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5457825" cy="809625"/>
@@ -13207,7 +13929,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="39281100"/>
+          <a:off x="0" y="37871400"/>
           <a:ext cx="5457825" cy="809625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13222,13 +13944,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>120</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="7572375" cy="3457575"/>
+    <xdr:ext cx="3895725" cy="923925"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="image7.png" title="图片"/>
+        <xdr:cNvPr id="6" name="image1.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -13239,71 +13961,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="30406975"/>
-          <a:ext cx="7572375" cy="3457575"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>137</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5915025" cy="1676400"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="image4.png" title="图片"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId4" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="28575" y="34534475"/>
-          <a:ext cx="5915025" cy="1676400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="3895725" cy="923925"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="image1.png"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId5" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="27254200"/>
+          <a:off x="0" y="27025600"/>
           <a:ext cx="3895725" cy="923925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13318,7 +13976,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>74295</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>323850</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3714750" cy="2790825"/>
@@ -13328,14 +13986,14 @@
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId6" cstate="print"/>
+        <a:blip r:embed="rId4" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="74295" y="23069550"/>
+          <a:off x="74295" y="22840950"/>
           <a:ext cx="3714750" cy="2790825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13549,12 +14207,12 @@
   <sheetPr/>
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C28" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E45" sqref="E45"/>
+      <selection pane="bottomRight" activeCell="D40" sqref="D40:D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4259259259259" defaultRowHeight="15" customHeight="1"/>
@@ -13572,1076 +14230,1076 @@
   </cols>
   <sheetData>
     <row r="1" ht="21.75" customHeight="1" spans="1:9">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="52" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="F1" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="55" t="s">
+      <c r="G1" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="56"/>
-      <c r="I1" s="103"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="106"/>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:8">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="60" t="s">
+      <c r="D2" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="61" t="s">
+      <c r="E2" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="62" t="s">
+      <c r="F2" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="63" t="s">
+      <c r="G2" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="64"/>
+      <c r="H2" s="67"/>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:8">
-      <c r="A3" s="65"/>
-      <c r="B3" s="58" t="s">
+      <c r="A3" s="68"/>
+      <c r="B3" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="66" t="s">
+      <c r="C3" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="67" t="s">
+      <c r="D3" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="68" t="s">
+      <c r="E3" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="69" t="s">
+      <c r="F3" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="69" t="s">
+      <c r="G3" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="64"/>
+      <c r="H3" s="67"/>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:8">
-      <c r="A4" s="65"/>
-      <c r="B4" s="58" t="s">
+      <c r="A4" s="68"/>
+      <c r="B4" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="70" t="s">
+      <c r="C4" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="71"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="73" t="s">
+      <c r="D4" s="75"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="63" t="s">
+      <c r="G4" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="64"/>
+      <c r="H4" s="67"/>
     </row>
     <row r="5" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A5" s="65"/>
-      <c r="B5" s="58" t="s">
+      <c r="A5" s="68"/>
+      <c r="B5" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="70" t="s">
+      <c r="C5" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="71"/>
-      <c r="E5" s="72" t="s">
+      <c r="D5" s="75"/>
+      <c r="E5" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="74" t="s">
+      <c r="F5" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="75" t="s">
+      <c r="G5" s="78" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" ht="21.75" customHeight="1" spans="1:7">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="76" t="s">
+      <c r="B6" s="56"/>
+      <c r="C6" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="71"/>
-      <c r="E6" s="77" t="s">
+      <c r="D6" s="75"/>
+      <c r="E6" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="52" t="s">
+      <c r="F6" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="75"/>
+      <c r="G6" s="78"/>
     </row>
     <row r="7" customHeight="1" spans="1:7">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="78" t="s">
+      <c r="C7" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="67" t="s">
+      <c r="D7" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="79"/>
-      <c r="F7" s="59" t="s">
+      <c r="E7" s="82"/>
+      <c r="F7" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="63" t="s">
+      <c r="G7" s="66" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:7">
-      <c r="A8" s="65"/>
-      <c r="B8" s="58" t="s">
+      <c r="A8" s="68"/>
+      <c r="B8" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="78" t="s">
+      <c r="C8" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="80" t="s">
+      <c r="D8" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="79"/>
-      <c r="F8" s="81" t="s">
+      <c r="E8" s="82"/>
+      <c r="F8" s="84" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="75" t="s">
+      <c r="G8" s="78" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:7">
-      <c r="A9" s="65"/>
-      <c r="B9" s="58" t="s">
+      <c r="A9" s="68"/>
+      <c r="B9" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="82" t="s">
+      <c r="C9" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="71"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="73" t="s">
+      <c r="D9" s="75"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="63" t="s">
+      <c r="G9" s="66" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:7">
-      <c r="A10" s="65"/>
-      <c r="B10" s="58" t="s">
+      <c r="A10" s="68"/>
+      <c r="B10" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="82" t="s">
+      <c r="C10" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="71"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="81" t="s">
+      <c r="D10" s="75"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="75" t="s">
+      <c r="G10" s="78" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="11" ht="21.75" customHeight="1" spans="1:8">
-      <c r="A11" s="52" t="s">
+      <c r="A11" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="53"/>
-      <c r="C11" s="76" t="s">
+      <c r="B11" s="56"/>
+      <c r="C11" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="71"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="52" t="s">
+      <c r="D11" s="75"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="75"/>
-      <c r="H11" s="85" t="s">
+      <c r="G11" s="78"/>
+      <c r="H11" s="88" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1" spans="1:8">
-      <c r="A12" s="86" t="s">
+      <c r="A12" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="78" t="s">
+      <c r="C12" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="67" t="s">
+      <c r="D12" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="72" t="s">
+      <c r="E12" s="76" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="74" t="s">
+      <c r="F12" s="90" t="s">
         <v>48</v>
       </c>
-      <c r="G12" s="63" t="s">
+      <c r="G12" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="87" t="s">
+      <c r="H12" s="91" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1" spans="1:8">
-      <c r="A13" s="65"/>
-      <c r="B13" s="58" t="s">
+      <c r="A13" s="68"/>
+      <c r="B13" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="78" t="s">
+      <c r="C13" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="67" t="s">
+      <c r="D13" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="68" t="s">
+      <c r="E13" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="74" t="s">
+      <c r="F13" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="G13" s="75" t="s">
+      <c r="G13" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="H13" s="87" t="s">
+      <c r="H13" s="91" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A14" s="65"/>
-      <c r="B14" s="58" t="s">
+      <c r="A14" s="68"/>
+      <c r="B14" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="82" t="s">
+      <c r="C14" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="71"/>
-      <c r="E14" s="68" t="s">
+      <c r="D14" s="75"/>
+      <c r="E14" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="F14" s="74" t="s">
+      <c r="F14" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="G14" s="63" t="s">
+      <c r="G14" s="66" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1" spans="1:8">
-      <c r="A15" s="65"/>
-      <c r="B15" s="58" t="s">
+      <c r="A15" s="68"/>
+      <c r="B15" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="82" t="s">
+      <c r="C15" s="85" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="71"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="88" t="s">
+      <c r="D15" s="75"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="G15" s="75" t="s">
+      <c r="G15" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="H15" s="87" t="s">
+      <c r="H15" s="91" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="16" ht="21.75" customHeight="1" spans="1:8">
-      <c r="A16" s="52" t="s">
+      <c r="A16" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="53"/>
-      <c r="C16" s="52" t="s">
+      <c r="B16" s="56"/>
+      <c r="C16" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="89" t="s">
+      <c r="D16" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="53" t="s">
+      <c r="E16" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="F16" s="52" t="s">
+      <c r="F16" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="G16" s="75"/>
-      <c r="H16" s="87" t="s">
+      <c r="G16" s="78"/>
+      <c r="H16" s="91" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:8">
-      <c r="A17" s="90" t="s">
+      <c r="A17" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="91" t="s">
+      <c r="B17" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="82" t="s">
+      <c r="C17" s="85" t="s">
         <v>67</v>
       </c>
-      <c r="D17" s="92" t="s">
+      <c r="D17" s="95" t="s">
         <v>68</v>
       </c>
-      <c r="E17" s="93" t="s">
+      <c r="E17" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="F17" s="74" t="s">
+      <c r="F17" s="90" t="s">
         <v>70</v>
       </c>
-      <c r="G17" s="75"/>
-      <c r="H17" s="87" t="s">
+      <c r="G17" s="78"/>
+      <c r="H17" s="91" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:7">
-      <c r="A18" s="65"/>
-      <c r="B18" s="58" t="s">
+      <c r="A18" s="68"/>
+      <c r="B18" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="82" t="s">
+      <c r="C18" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="D18" s="92" t="s">
+      <c r="D18" s="95" t="s">
         <v>73</v>
       </c>
-      <c r="E18" s="79"/>
-      <c r="F18" s="74" t="s">
+      <c r="E18" s="82"/>
+      <c r="F18" s="90" t="s">
         <v>74</v>
       </c>
-      <c r="G18" s="75"/>
+      <c r="G18" s="78"/>
     </row>
     <row r="19" customHeight="1" spans="1:7">
-      <c r="A19" s="65"/>
-      <c r="B19" s="58" t="s">
+      <c r="A19" s="68"/>
+      <c r="B19" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="82" t="s">
+      <c r="C19" s="85" t="s">
         <v>75</v>
       </c>
-      <c r="D19" s="92"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="74" t="s">
+      <c r="D19" s="95"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="90" t="s">
         <v>76</v>
       </c>
-      <c r="G19" s="75"/>
+      <c r="G19" s="78"/>
     </row>
     <row r="20" ht="18" customHeight="1" spans="1:7">
-      <c r="A20" s="94"/>
-      <c r="B20" s="95" t="s">
+      <c r="A20" s="97"/>
+      <c r="B20" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="82" t="s">
+      <c r="C20" s="85" t="s">
         <v>77</v>
       </c>
-      <c r="D20" s="92"/>
-      <c r="E20" s="83"/>
-      <c r="F20" s="74" t="s">
+      <c r="D20" s="95"/>
+      <c r="E20" s="86"/>
+      <c r="F20" s="90" t="s">
         <v>78</v>
       </c>
-      <c r="G20" s="75"/>
+      <c r="G20" s="78"/>
     </row>
     <row r="21" ht="21.75" customHeight="1" spans="1:7">
-      <c r="A21" s="52" t="s">
+      <c r="A21" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="B21" s="53"/>
-      <c r="C21" s="52" t="s">
+      <c r="B21" s="56"/>
+      <c r="C21" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="D21" s="96" t="s">
+      <c r="D21" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="52" t="s">
+      <c r="E21" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="F21" s="52" t="s">
+      <c r="F21" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="75"/>
+      <c r="G21" s="78"/>
     </row>
     <row r="22" ht="18" customHeight="1" spans="1:7">
-      <c r="A22" s="87" t="s">
+      <c r="A22" s="91" t="s">
         <v>80</v>
       </c>
-      <c r="B22" s="97" t="s">
+      <c r="B22" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="87" t="s">
+      <c r="C22" s="91" t="s">
         <v>81</v>
       </c>
-      <c r="D22" s="98" t="s">
+      <c r="D22" s="101" t="s">
         <v>82</v>
       </c>
-      <c r="E22" s="87" t="s">
+      <c r="E22" s="91" t="s">
         <v>83</v>
       </c>
-      <c r="F22" s="87" t="s">
+      <c r="F22" s="91" t="s">
         <v>84</v>
       </c>
-      <c r="G22" s="75"/>
+      <c r="G22" s="78"/>
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:7">
-      <c r="A23" s="87" t="s">
+      <c r="A23" s="91" t="s">
         <v>85</v>
       </c>
-      <c r="B23" s="65"/>
-      <c r="C23" s="87" t="s">
+      <c r="B23" s="68"/>
+      <c r="C23" s="91" t="s">
         <v>86</v>
       </c>
-      <c r="D23" s="98" t="s">
+      <c r="D23" s="101" t="s">
         <v>87</v>
       </c>
-      <c r="E23" s="87" t="s">
+      <c r="E23" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="F23" s="87" t="s">
+      <c r="F23" s="91" t="s">
         <v>89</v>
       </c>
-      <c r="G23" s="75"/>
+      <c r="G23" s="78"/>
     </row>
     <row r="24" ht="18" customHeight="1" spans="1:7">
-      <c r="A24" s="87" t="s">
+      <c r="A24" s="91" t="s">
         <v>90</v>
       </c>
-      <c r="B24" s="65"/>
-      <c r="C24" s="87" t="s">
+      <c r="B24" s="68"/>
+      <c r="C24" s="91" t="s">
         <v>91</v>
       </c>
-      <c r="D24" s="98" t="s">
+      <c r="D24" s="101" t="s">
         <v>92</v>
       </c>
-      <c r="E24" s="87" t="s">
+      <c r="E24" s="91" t="s">
         <v>93</v>
       </c>
-      <c r="F24" s="87" t="s">
+      <c r="F24" s="91" t="s">
         <v>94</v>
       </c>
-      <c r="G24" s="75"/>
+      <c r="G24" s="78"/>
     </row>
     <row r="25" ht="18" customHeight="1" spans="1:7">
-      <c r="A25" s="87" t="s">
+      <c r="A25" s="91" t="s">
         <v>95</v>
       </c>
-      <c r="B25" s="65"/>
-      <c r="C25" s="87" t="s">
+      <c r="B25" s="68"/>
+      <c r="C25" s="91" t="s">
         <v>96</v>
       </c>
-      <c r="D25" s="98" t="s">
+      <c r="D25" s="101" t="s">
         <v>97</v>
       </c>
-      <c r="E25" s="87" t="s">
+      <c r="E25" s="91" t="s">
         <v>98</v>
       </c>
-      <c r="F25" s="87" t="s">
+      <c r="F25" s="91" t="s">
         <v>99</v>
       </c>
-      <c r="G25" s="75"/>
+      <c r="G25" s="78"/>
     </row>
     <row r="26" ht="18" customHeight="1" spans="1:7">
-      <c r="A26" s="87" t="s">
+      <c r="A26" s="91" t="s">
         <v>100</v>
       </c>
-      <c r="B26" s="65"/>
-      <c r="C26" s="87" t="s">
+      <c r="B26" s="68"/>
+      <c r="C26" s="91" t="s">
         <v>101</v>
       </c>
-      <c r="D26" s="98" t="s">
+      <c r="D26" s="101" t="s">
         <v>102</v>
       </c>
-      <c r="E26" s="87" t="s">
+      <c r="E26" s="91" t="s">
         <v>103</v>
       </c>
-      <c r="F26" s="87" t="s">
+      <c r="F26" s="91" t="s">
         <v>104</v>
       </c>
-      <c r="G26" s="75"/>
+      <c r="G26" s="78"/>
     </row>
     <row r="27" ht="18" customHeight="1" spans="1:7">
-      <c r="A27" s="87" t="s">
+      <c r="A27" s="91" t="s">
         <v>105</v>
       </c>
-      <c r="B27" s="65"/>
-      <c r="C27" s="87" t="s">
+      <c r="B27" s="68"/>
+      <c r="C27" s="91" t="s">
         <v>106</v>
       </c>
-      <c r="D27" s="98" t="s">
+      <c r="D27" s="101" t="s">
         <v>107</v>
       </c>
-      <c r="E27" s="87" t="s">
+      <c r="E27" s="91" t="s">
         <v>108</v>
       </c>
-      <c r="F27" s="87" t="s">
+      <c r="F27" s="91" t="s">
         <v>109</v>
       </c>
-      <c r="G27" s="75"/>
+      <c r="G27" s="78"/>
     </row>
     <row r="28" ht="18" customHeight="1" spans="1:7">
-      <c r="A28" s="87" t="s">
+      <c r="A28" s="91" t="s">
         <v>110</v>
       </c>
-      <c r="B28" s="65"/>
-      <c r="C28" s="87" t="s">
+      <c r="B28" s="68"/>
+      <c r="C28" s="91" t="s">
         <v>111</v>
       </c>
-      <c r="D28" s="98" t="s">
+      <c r="D28" s="101" t="s">
         <v>112</v>
       </c>
-      <c r="E28" s="87" t="s">
+      <c r="E28" s="91" t="s">
         <v>113</v>
       </c>
-      <c r="F28" s="87" t="s">
+      <c r="F28" s="91" t="s">
         <v>114</v>
       </c>
-      <c r="G28" s="75"/>
+      <c r="G28" s="78"/>
     </row>
     <row r="29" ht="18" customHeight="1" spans="1:7">
-      <c r="A29" s="87" t="s">
+      <c r="A29" s="91" t="s">
         <v>115</v>
       </c>
-      <c r="B29" s="65"/>
-      <c r="C29" s="87" t="s">
+      <c r="B29" s="68"/>
+      <c r="C29" s="91" t="s">
         <v>116</v>
       </c>
-      <c r="D29" s="99" t="s">
+      <c r="D29" s="102" t="s">
         <v>117</v>
       </c>
-      <c r="E29" s="87" t="s">
+      <c r="E29" s="91" t="s">
         <v>118</v>
       </c>
-      <c r="F29" s="87" t="s">
+      <c r="F29" s="91" t="s">
         <v>119</v>
       </c>
-      <c r="G29" s="75"/>
+      <c r="G29" s="78"/>
     </row>
     <row r="30" ht="18" customHeight="1" spans="1:7">
-      <c r="A30" s="87" t="s">
+      <c r="A30" s="91" t="s">
         <v>120</v>
       </c>
-      <c r="B30" s="65"/>
-      <c r="C30" s="87" t="s">
+      <c r="B30" s="68"/>
+      <c r="C30" s="91" t="s">
         <v>121</v>
       </c>
-      <c r="D30" s="98" t="s">
+      <c r="D30" s="101" t="s">
         <v>122</v>
       </c>
-      <c r="E30" s="87" t="s">
+      <c r="E30" s="91" t="s">
         <v>123</v>
       </c>
-      <c r="F30" s="87" t="s">
+      <c r="F30" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="G30" s="75"/>
+      <c r="G30" s="78"/>
     </row>
     <row r="31" ht="18" customHeight="1" spans="1:7">
-      <c r="A31" s="87" t="s">
+      <c r="A31" s="91" t="s">
         <v>80</v>
       </c>
-      <c r="B31" s="100" t="s">
+      <c r="B31" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="101" t="s">
+      <c r="C31" s="104" t="s">
         <v>125</v>
       </c>
-      <c r="D31" s="101" t="s">
+      <c r="D31" s="104" t="s">
         <v>126</v>
       </c>
-      <c r="E31" s="87" t="s">
+      <c r="E31" s="91" t="s">
         <v>83</v>
       </c>
-      <c r="F31" s="87" t="s">
+      <c r="F31" s="91" t="s">
         <v>127</v>
       </c>
-      <c r="G31" s="75"/>
+      <c r="G31" s="78"/>
     </row>
     <row r="32" ht="18" customHeight="1" spans="1:7">
-      <c r="A32" s="87" t="s">
+      <c r="A32" s="91" t="s">
         <v>85</v>
       </c>
-      <c r="B32" s="65"/>
-      <c r="C32" s="87" t="s">
+      <c r="B32" s="68"/>
+      <c r="C32" s="91" t="s">
         <v>128</v>
       </c>
-      <c r="D32" s="87" t="s">
+      <c r="D32" s="91" t="s">
         <v>129</v>
       </c>
-      <c r="E32" s="87" t="s">
+      <c r="E32" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="F32" s="87" t="s">
+      <c r="F32" s="91" t="s">
         <v>130</v>
       </c>
-      <c r="G32" s="75"/>
+      <c r="G32" s="78"/>
     </row>
     <row r="33" ht="18" customHeight="1" spans="1:7">
-      <c r="A33" s="87" t="s">
+      <c r="A33" s="91" t="s">
         <v>90</v>
       </c>
-      <c r="B33" s="65"/>
-      <c r="C33" s="87" t="s">
+      <c r="B33" s="68"/>
+      <c r="C33" s="91" t="s">
         <v>131</v>
       </c>
-      <c r="D33" s="87" t="s">
+      <c r="D33" s="91" t="s">
         <v>132</v>
       </c>
-      <c r="E33" s="87" t="s">
+      <c r="E33" s="91" t="s">
         <v>93</v>
       </c>
-      <c r="F33" s="87" t="s">
+      <c r="F33" s="91" t="s">
         <v>133</v>
       </c>
-      <c r="G33" s="75"/>
+      <c r="G33" s="78"/>
     </row>
     <row r="34" ht="18" customHeight="1" spans="1:7">
-      <c r="A34" s="87" t="s">
+      <c r="A34" s="91" t="s">
         <v>95</v>
       </c>
-      <c r="B34" s="65"/>
-      <c r="C34" s="87" t="s">
+      <c r="B34" s="68"/>
+      <c r="C34" s="91" t="s">
         <v>134</v>
       </c>
-      <c r="D34" s="87" t="s">
+      <c r="D34" s="91" t="s">
         <v>135</v>
       </c>
-      <c r="E34" s="87" t="s">
+      <c r="E34" s="91" t="s">
         <v>98</v>
       </c>
-      <c r="F34" s="87" t="s">
+      <c r="F34" s="91" t="s">
         <v>136</v>
       </c>
-      <c r="G34" s="75"/>
+      <c r="G34" s="78"/>
     </row>
     <row r="35" ht="18" customHeight="1" spans="1:7">
-      <c r="A35" s="87" t="s">
+      <c r="A35" s="91" t="s">
         <v>100</v>
       </c>
-      <c r="B35" s="65"/>
-      <c r="C35" s="87" t="s">
+      <c r="B35" s="68"/>
+      <c r="C35" s="91" t="s">
         <v>137</v>
       </c>
-      <c r="D35" s="87" t="s">
+      <c r="D35" s="91" t="s">
         <v>138</v>
       </c>
-      <c r="E35" s="87" t="s">
+      <c r="E35" s="91" t="s">
         <v>103</v>
       </c>
-      <c r="F35" s="87" t="s">
+      <c r="F35" s="91" t="s">
         <v>139</v>
       </c>
-      <c r="G35" s="75"/>
+      <c r="G35" s="78"/>
     </row>
     <row r="36" ht="18" customHeight="1" spans="1:7">
-      <c r="A36" s="87" t="s">
+      <c r="A36" s="91" t="s">
         <v>105</v>
       </c>
-      <c r="B36" s="65"/>
-      <c r="C36" s="87" t="s">
+      <c r="B36" s="68"/>
+      <c r="C36" s="91" t="s">
         <v>140</v>
       </c>
-      <c r="D36" s="87" t="s">
+      <c r="D36" s="91" t="s">
         <v>141</v>
       </c>
-      <c r="E36" s="87" t="s">
+      <c r="E36" s="91" t="s">
         <v>108</v>
       </c>
-      <c r="F36" s="87" t="s">
+      <c r="F36" s="91" t="s">
         <v>142</v>
       </c>
-      <c r="G36" s="75"/>
+      <c r="G36" s="78"/>
     </row>
     <row r="37" ht="18" customHeight="1" spans="1:7">
-      <c r="A37" s="87" t="s">
+      <c r="A37" s="91" t="s">
         <v>110</v>
       </c>
-      <c r="B37" s="65"/>
-      <c r="C37" s="87" t="s">
+      <c r="B37" s="68"/>
+      <c r="C37" s="91" t="s">
         <v>143</v>
       </c>
-      <c r="D37" s="87" t="s">
+      <c r="D37" s="91" t="s">
         <v>144</v>
       </c>
-      <c r="E37" s="87" t="s">
+      <c r="E37" s="91" t="s">
         <v>113</v>
       </c>
-      <c r="F37" s="87" t="s">
+      <c r="F37" s="91" t="s">
         <v>145</v>
       </c>
-      <c r="G37" s="75"/>
+      <c r="G37" s="78"/>
     </row>
     <row r="38" ht="18" customHeight="1" spans="1:7">
-      <c r="A38" s="87" t="s">
+      <c r="A38" s="91" t="s">
         <v>115</v>
       </c>
-      <c r="B38" s="65"/>
-      <c r="C38" s="87" t="s">
+      <c r="B38" s="68"/>
+      <c r="C38" s="91" t="s">
         <v>146</v>
       </c>
-      <c r="D38" s="87" t="s">
+      <c r="D38" s="91" t="s">
         <v>147</v>
       </c>
-      <c r="E38" s="87" t="s">
+      <c r="E38" s="91" t="s">
         <v>118</v>
       </c>
-      <c r="F38" s="87" t="s">
+      <c r="F38" s="91" t="s">
         <v>148</v>
       </c>
-      <c r="G38" s="75"/>
+      <c r="G38" s="78"/>
     </row>
     <row r="39" ht="18" customHeight="1" spans="1:7">
-      <c r="A39" s="87" t="s">
+      <c r="A39" s="91" t="s">
         <v>120</v>
       </c>
-      <c r="B39" s="94"/>
-      <c r="C39" s="87" t="s">
+      <c r="B39" s="97"/>
+      <c r="C39" s="91" t="s">
         <v>149</v>
       </c>
-      <c r="D39" s="87" t="s">
+      <c r="D39" s="91" t="s">
         <v>150</v>
       </c>
-      <c r="E39" s="87" t="s">
+      <c r="E39" s="91" t="s">
         <v>123</v>
       </c>
-      <c r="F39" s="87" t="s">
+      <c r="F39" s="91" t="s">
         <v>151</v>
       </c>
-      <c r="G39" s="75"/>
+      <c r="G39" s="78"/>
     </row>
     <row r="40" ht="18" customHeight="1" spans="1:7">
-      <c r="A40" s="87" t="s">
+      <c r="A40" s="91" t="s">
         <v>80</v>
       </c>
-      <c r="B40" s="100" t="s">
+      <c r="B40" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="C40" s="87" t="s">
+      <c r="C40" s="91" t="s">
         <v>152</v>
       </c>
-      <c r="D40" s="102"/>
-      <c r="E40" s="87" t="s">
+      <c r="D40" s="105"/>
+      <c r="E40" s="91" t="s">
         <v>83</v>
       </c>
-      <c r="F40" s="87" t="s">
+      <c r="F40" s="91" t="s">
         <v>153</v>
       </c>
-      <c r="G40" s="75"/>
+      <c r="G40" s="78"/>
     </row>
     <row r="41" ht="18" customHeight="1" spans="1:7">
-      <c r="A41" s="87" t="s">
+      <c r="A41" s="91" t="s">
         <v>100</v>
       </c>
-      <c r="B41" s="65"/>
-      <c r="C41" s="87" t="s">
+      <c r="B41" s="68"/>
+      <c r="C41" s="91" t="s">
         <v>154</v>
       </c>
-      <c r="D41" s="65"/>
-      <c r="E41" s="87" t="s">
+      <c r="D41" s="68"/>
+      <c r="E41" s="91" t="s">
         <v>103</v>
       </c>
-      <c r="F41" s="87" t="s">
+      <c r="F41" s="91" t="s">
         <v>155</v>
       </c>
-      <c r="G41" s="75"/>
+      <c r="G41" s="78"/>
     </row>
     <row r="42" ht="18" customHeight="1" spans="1:7">
-      <c r="A42" s="87" t="s">
+      <c r="A42" s="91" t="s">
         <v>120</v>
       </c>
-      <c r="B42" s="65"/>
-      <c r="C42" s="87" t="s">
+      <c r="B42" s="68"/>
+      <c r="C42" s="91" t="s">
         <v>156</v>
       </c>
-      <c r="D42" s="65"/>
-      <c r="E42" s="87" t="s">
+      <c r="D42" s="68"/>
+      <c r="E42" s="91" t="s">
         <v>123</v>
       </c>
-      <c r="F42" s="87" t="s">
+      <c r="F42" s="91" t="s">
         <v>157</v>
       </c>
-      <c r="G42" s="75"/>
+      <c r="G42" s="78"/>
     </row>
     <row r="43" ht="18" customHeight="1" spans="1:7">
-      <c r="A43" s="87" t="s">
+      <c r="A43" s="91" t="s">
         <v>95</v>
       </c>
-      <c r="B43" s="65"/>
-      <c r="C43" s="87" t="s">
+      <c r="B43" s="68"/>
+      <c r="C43" s="91" t="s">
         <v>158</v>
       </c>
-      <c r="D43" s="65"/>
-      <c r="E43" s="87" t="s">
+      <c r="D43" s="68"/>
+      <c r="E43" s="91" t="s">
         <v>98</v>
       </c>
-      <c r="F43" s="87" t="s">
+      <c r="F43" s="91" t="s">
         <v>159</v>
       </c>
-      <c r="G43" s="75"/>
+      <c r="G43" s="78"/>
     </row>
     <row r="44" ht="18" customHeight="1" spans="1:7">
-      <c r="A44" s="87" t="s">
+      <c r="A44" s="91" t="s">
         <v>85</v>
       </c>
-      <c r="B44" s="65"/>
-      <c r="C44" s="87" t="s">
+      <c r="B44" s="68"/>
+      <c r="C44" s="91" t="s">
         <v>160</v>
       </c>
-      <c r="D44" s="65"/>
-      <c r="E44" s="87" t="s">
+      <c r="D44" s="68"/>
+      <c r="E44" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="F44" s="87" t="s">
+      <c r="F44" s="91" t="s">
         <v>161</v>
       </c>
-      <c r="G44" s="75"/>
+      <c r="G44" s="78"/>
     </row>
     <row r="45" ht="18" customHeight="1" spans="1:7">
-      <c r="A45" s="87" t="s">
+      <c r="A45" s="91" t="s">
         <v>90</v>
       </c>
-      <c r="B45" s="65"/>
-      <c r="C45" s="87" t="s">
+      <c r="B45" s="68"/>
+      <c r="C45" s="91" t="s">
         <v>162</v>
       </c>
-      <c r="D45" s="65"/>
-      <c r="E45" s="87" t="s">
+      <c r="D45" s="68"/>
+      <c r="E45" s="91" t="s">
         <v>93</v>
       </c>
-      <c r="F45" s="87" t="s">
+      <c r="F45" s="91" t="s">
         <v>163</v>
       </c>
-      <c r="G45" s="75"/>
+      <c r="G45" s="78"/>
     </row>
     <row r="46" ht="18" customHeight="1" spans="1:7">
-      <c r="A46" s="87" t="s">
+      <c r="A46" s="91" t="s">
         <v>105</v>
       </c>
-      <c r="B46" s="65"/>
-      <c r="C46" s="87" t="s">
+      <c r="B46" s="68"/>
+      <c r="C46" s="91" t="s">
         <v>164</v>
       </c>
-      <c r="D46" s="65"/>
-      <c r="E46" s="87" t="s">
+      <c r="D46" s="68"/>
+      <c r="E46" s="91" t="s">
         <v>108</v>
       </c>
-      <c r="F46" s="87" t="s">
+      <c r="F46" s="91" t="s">
         <v>165</v>
       </c>
-      <c r="G46" s="75"/>
+      <c r="G46" s="78"/>
     </row>
     <row r="47" ht="18" customHeight="1" spans="1:7">
-      <c r="A47" s="87" t="s">
+      <c r="A47" s="91" t="s">
         <v>110</v>
       </c>
-      <c r="B47" s="65"/>
-      <c r="C47" s="87" t="s">
+      <c r="B47" s="68"/>
+      <c r="C47" s="91" t="s">
         <v>166</v>
       </c>
-      <c r="D47" s="65"/>
-      <c r="E47" s="87" t="s">
+      <c r="D47" s="68"/>
+      <c r="E47" s="91" t="s">
         <v>113</v>
       </c>
-      <c r="F47" s="87" t="s">
+      <c r="F47" s="91" t="s">
         <v>167</v>
       </c>
-      <c r="G47" s="75"/>
+      <c r="G47" s="78"/>
     </row>
     <row r="48" ht="18" customHeight="1" spans="1:7">
-      <c r="A48" s="87" t="s">
+      <c r="A48" s="91" t="s">
         <v>115</v>
       </c>
-      <c r="B48" s="65"/>
-      <c r="C48" s="87" t="s">
+      <c r="B48" s="68"/>
+      <c r="C48" s="91" t="s">
         <v>168</v>
       </c>
-      <c r="D48" s="94"/>
-      <c r="E48" s="87" t="s">
+      <c r="D48" s="97"/>
+      <c r="E48" s="91" t="s">
         <v>118</v>
       </c>
-      <c r="F48" s="87" t="s">
+      <c r="F48" s="91" t="s">
         <v>169</v>
       </c>
-      <c r="G48" s="75"/>
+      <c r="G48" s="78"/>
     </row>
     <row r="49" ht="18" customHeight="1" spans="1:7">
-      <c r="A49" s="87" t="s">
+      <c r="A49" s="91" t="s">
         <v>80</v>
       </c>
-      <c r="B49" s="100" t="s">
+      <c r="B49" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="C49" s="101" t="s">
+      <c r="C49" s="104" t="s">
         <v>170</v>
       </c>
-      <c r="D49" s="102"/>
-      <c r="E49" s="87" t="s">
+      <c r="D49" s="105"/>
+      <c r="E49" s="91" t="s">
         <v>83</v>
       </c>
-      <c r="F49" s="87" t="s">
+      <c r="F49" s="91" t="s">
         <v>171</v>
       </c>
-      <c r="G49" s="75"/>
+      <c r="G49" s="78"/>
     </row>
     <row r="50" ht="18" customHeight="1" spans="1:7">
-      <c r="A50" s="87" t="s">
+      <c r="A50" s="91" t="s">
         <v>85</v>
       </c>
-      <c r="B50" s="65"/>
-      <c r="C50" s="87" t="s">
+      <c r="B50" s="68"/>
+      <c r="C50" s="91" t="s">
         <v>172</v>
       </c>
-      <c r="D50" s="65"/>
-      <c r="E50" s="87" t="s">
+      <c r="D50" s="68"/>
+      <c r="E50" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="F50" s="87" t="s">
+      <c r="F50" s="91" t="s">
         <v>173</v>
       </c>
-      <c r="G50" s="75"/>
+      <c r="G50" s="78"/>
     </row>
     <row r="51" ht="18" customHeight="1" spans="1:7">
-      <c r="A51" s="87" t="s">
+      <c r="A51" s="91" t="s">
         <v>90</v>
       </c>
-      <c r="B51" s="65"/>
-      <c r="C51" s="87" t="s">
+      <c r="B51" s="68"/>
+      <c r="C51" s="91" t="s">
         <v>174</v>
       </c>
-      <c r="D51" s="65"/>
-      <c r="E51" s="87" t="s">
+      <c r="D51" s="68"/>
+      <c r="E51" s="91" t="s">
         <v>93</v>
       </c>
-      <c r="F51" s="87" t="s">
+      <c r="F51" s="91" t="s">
         <v>175</v>
       </c>
-      <c r="G51" s="75"/>
+      <c r="G51" s="78"/>
     </row>
     <row r="52" ht="18" customHeight="1" spans="1:7">
-      <c r="A52" s="87" t="s">
+      <c r="A52" s="91" t="s">
         <v>95</v>
       </c>
-      <c r="B52" s="65"/>
-      <c r="C52" s="87" t="s">
+      <c r="B52" s="68"/>
+      <c r="C52" s="91" t="s">
         <v>176</v>
       </c>
-      <c r="D52" s="65"/>
-      <c r="E52" s="87" t="s">
+      <c r="D52" s="68"/>
+      <c r="E52" s="91" t="s">
         <v>98</v>
       </c>
-      <c r="F52" s="87" t="s">
+      <c r="F52" s="91" t="s">
         <v>177</v>
       </c>
-      <c r="G52" s="75"/>
+      <c r="G52" s="78"/>
     </row>
     <row r="53" ht="18" customHeight="1" spans="1:7">
-      <c r="A53" s="87" t="s">
+      <c r="A53" s="91" t="s">
         <v>100</v>
       </c>
-      <c r="B53" s="65"/>
-      <c r="C53" s="87" t="s">
+      <c r="B53" s="68"/>
+      <c r="C53" s="91" t="s">
         <v>178</v>
       </c>
-      <c r="D53" s="65"/>
-      <c r="E53" s="87" t="s">
+      <c r="D53" s="68"/>
+      <c r="E53" s="91" t="s">
         <v>103</v>
       </c>
-      <c r="F53" s="87" t="s">
+      <c r="F53" s="91" t="s">
         <v>179</v>
       </c>
-      <c r="G53" s="75"/>
+      <c r="G53" s="78"/>
     </row>
     <row r="54" ht="18" customHeight="1" spans="1:7">
-      <c r="A54" s="87" t="s">
+      <c r="A54" s="91" t="s">
         <v>105</v>
       </c>
-      <c r="B54" s="65"/>
-      <c r="C54" s="87" t="s">
+      <c r="B54" s="68"/>
+      <c r="C54" s="91" t="s">
         <v>180</v>
       </c>
-      <c r="D54" s="65"/>
-      <c r="E54" s="87" t="s">
+      <c r="D54" s="68"/>
+      <c r="E54" s="91" t="s">
         <v>108</v>
       </c>
-      <c r="F54" s="87" t="s">
+      <c r="F54" s="91" t="s">
         <v>181</v>
       </c>
-      <c r="G54" s="75"/>
+      <c r="G54" s="78"/>
     </row>
     <row r="55" ht="18" customHeight="1" spans="1:7">
-      <c r="A55" s="87" t="s">
+      <c r="A55" s="91" t="s">
         <v>110</v>
       </c>
-      <c r="B55" s="65"/>
-      <c r="C55" s="87" t="s">
+      <c r="B55" s="68"/>
+      <c r="C55" s="91" t="s">
         <v>182</v>
       </c>
-      <c r="D55" s="65"/>
-      <c r="E55" s="87" t="s">
+      <c r="D55" s="68"/>
+      <c r="E55" s="91" t="s">
         <v>113</v>
       </c>
-      <c r="F55" s="87" t="s">
+      <c r="F55" s="91" t="s">
         <v>183</v>
       </c>
-      <c r="G55" s="75"/>
+      <c r="G55" s="78"/>
     </row>
     <row r="56" ht="18" customHeight="1" spans="1:7">
-      <c r="A56" s="87" t="s">
+      <c r="A56" s="91" t="s">
         <v>115</v>
       </c>
-      <c r="B56" s="65"/>
-      <c r="C56" s="87" t="s">
+      <c r="B56" s="68"/>
+      <c r="C56" s="91" t="s">
         <v>184</v>
       </c>
-      <c r="D56" s="65"/>
-      <c r="E56" s="87" t="s">
+      <c r="D56" s="68"/>
+      <c r="E56" s="91" t="s">
         <v>118</v>
       </c>
-      <c r="F56" s="87" t="s">
+      <c r="F56" s="91" t="s">
         <v>185</v>
       </c>
-      <c r="G56" s="75"/>
+      <c r="G56" s="78"/>
     </row>
     <row r="57" ht="18" customHeight="1" spans="1:7">
-      <c r="A57" s="87" t="s">
+      <c r="A57" s="91" t="s">
         <v>120</v>
       </c>
-      <c r="B57" s="94"/>
-      <c r="C57" s="87" t="s">
+      <c r="B57" s="97"/>
+      <c r="C57" s="91" t="s">
         <v>186</v>
       </c>
-      <c r="D57" s="94"/>
-      <c r="E57" s="87" t="s">
+      <c r="D57" s="97"/>
+      <c r="E57" s="91" t="s">
         <v>123</v>
       </c>
-      <c r="F57" s="87" t="s">
+      <c r="F57" s="91" t="s">
         <v>187</v>
       </c>
-      <c r="G57" s="75"/>
+      <c r="G57" s="78"/>
     </row>
     <row r="58" ht="13.5" customHeight="1"/>
     <row r="59" ht="13.5" customHeight="1"/>
@@ -15613,7 +16271,7 @@
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4259259259259" defaultRowHeight="15" customHeight="1" outlineLevelCol="1"/>
@@ -15624,12 +16282,12 @@
   </cols>
   <sheetData>
     <row r="1" ht="25.5" customHeight="1" spans="1:1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="44" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="2" ht="27" customHeight="1" spans="1:2">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="45" t="s">
         <v>189</v>
       </c>
       <c r="B2" s="35" t="s">
@@ -15637,18 +16295,18 @@
       </c>
     </row>
     <row r="3" ht="19" customHeight="1" spans="1:2">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="46" t="s">
         <v>191</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="46" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1" spans="1:2">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="47" t="s">
         <v>193</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="47" t="s">
         <v>194</v>
       </c>
     </row>
@@ -15723,10 +16381,10 @@
     <row r="15" ht="13.5" customHeight="1"/>
     <row r="16" ht="13.5" customHeight="1"/>
     <row r="17" ht="35" customHeight="1" spans="1:2">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="48" t="s">
         <v>209</v>
       </c>
-      <c r="B17" s="46"/>
+      <c r="B17" s="49"/>
     </row>
     <row r="18" ht="25" customHeight="1" spans="1:1">
       <c r="A18" s="35" t="s">
@@ -15759,7 +16417,7 @@
       </c>
     </row>
     <row r="24" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A24" s="47"/>
+      <c r="A24" s="50"/>
     </row>
     <row r="25" ht="13.5" customHeight="1" spans="1:1">
       <c r="A25" s="4"/>
@@ -15800,7 +16458,7 @@
     </row>
     <row r="36" ht="13.5" customHeight="1"/>
     <row r="37" ht="90" customHeight="1" spans="1:1">
-      <c r="A37" s="48" t="s">
+      <c r="A37" s="51" t="s">
         <v>221</v>
       </c>
     </row>
@@ -15817,22 +16475,22 @@
       </c>
     </row>
     <row r="42" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A42" s="49" t="s">
+      <c r="A42" s="52" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="43" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A43" s="49" t="s">
+      <c r="A43" s="52" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="44" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A44" s="49" t="s">
+      <c r="A44" s="52" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="45" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A45" s="49" t="s">
+      <c r="A45" s="52" t="s">
         <v>227</v>
       </c>
     </row>
@@ -15859,7 +16517,7 @@
       </c>
     </row>
     <row r="52" ht="18" customHeight="1" spans="1:1">
-      <c r="A52" s="50" t="s">
+      <c r="A52" s="53" t="s">
         <v>232</v>
       </c>
     </row>
@@ -15901,12 +16559,12 @@
       </c>
     </row>
     <row r="62" ht="18" customHeight="1" spans="1:1">
-      <c r="A62" s="51" t="s">
+      <c r="A62" s="54" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="63" ht="18" customHeight="1" spans="1:1">
-      <c r="A63" s="51" t="s">
+      <c r="A63" s="54" t="s">
         <v>241</v>
       </c>
     </row>
@@ -15921,7 +16579,7 @@
       </c>
     </row>
     <row r="66" ht="18" customHeight="1" spans="1:1">
-      <c r="A66" s="51" t="s">
+      <c r="A66" s="54" t="s">
         <v>244</v>
       </c>
     </row>
@@ -16890,10 +17548,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B1056"/>
+  <dimension ref="A1:B1050"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="A132" sqref="A132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4259259259259" defaultRowHeight="15" customHeight="1" outlineLevelCol="1"/>
@@ -17274,83 +17932,82 @@
     </row>
     <row r="75" ht="18" customHeight="1" spans="1:2">
       <c r="A75" s="32"/>
-      <c r="B75" s="22"/>
-    </row>
-    <row r="76" ht="18" customHeight="1" spans="1:2">
-      <c r="A76" s="32"/>
-      <c r="B76" s="32"/>
-    </row>
-    <row r="77" ht="45" customHeight="1" spans="1:1">
-      <c r="A77" s="30" t="s">
+      <c r="B75" s="32"/>
+    </row>
+    <row r="76" ht="45" customHeight="1" spans="1:1">
+      <c r="A76" s="30" t="s">
         <v>312</v>
       </c>
     </row>
+    <row r="77" ht="18" customHeight="1" spans="1:1">
+      <c r="A77" s="31" t="s">
+        <v>313</v>
+      </c>
+    </row>
     <row r="78" ht="18" customHeight="1" spans="1:1">
-      <c r="A78" s="31" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="79" ht="18" customHeight="1" spans="1:1">
+      <c r="A78" s="18" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="79" ht="22" customHeight="1" spans="1:1">
       <c r="A79" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="80" ht="22" customHeight="1" spans="1:1">
-      <c r="A80" s="18" t="s">
         <v>315</v>
       </c>
+    </row>
+    <row r="80" ht="18" customHeight="1" spans="1:1">
+      <c r="A80" s="32"/>
     </row>
     <row r="81" ht="18" customHeight="1" spans="1:1">
       <c r="A81" s="32"/>
     </row>
-    <row r="82" ht="18" customHeight="1" spans="1:1">
-      <c r="A82" s="32"/>
-    </row>
-    <row r="83" ht="39" customHeight="1" spans="1:1">
-      <c r="A83" s="34" t="s">
+    <row r="82" ht="39" customHeight="1" spans="1:1">
+      <c r="A82" s="34" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="84" ht="18" customHeight="1" spans="1:1">
-      <c r="A84" s="35"/>
-    </row>
-    <row r="85" ht="26" customHeight="1" spans="1:1">
-      <c r="A85" s="35" t="s">
+    <row r="83" ht="18" customHeight="1" spans="1:1">
+      <c r="A83" s="35"/>
+    </row>
+    <row r="84" ht="26" customHeight="1" spans="1:1">
+      <c r="A84" s="35" t="s">
         <v>317</v>
+      </c>
+    </row>
+    <row r="85" ht="18" customHeight="1" spans="1:1">
+      <c r="A85" s="4" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="86" ht="18" customHeight="1" spans="1:1">
       <c r="A86" s="4" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="87" ht="18" customHeight="1" spans="1:1">
-      <c r="A87" s="4" t="s">
-        <v>319</v>
+      <c r="A87" s="3" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="88" ht="18" customHeight="1" spans="1:1">
-      <c r="A88" s="3" t="s">
-        <v>320</v>
+      <c r="A88" s="4" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="89" ht="18" customHeight="1" spans="1:1">
-      <c r="A89" s="4" t="s">
-        <v>321</v>
+      <c r="A89" s="3" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="90" ht="18" customHeight="1" spans="1:1">
-      <c r="A90" s="3" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="91" ht="18" customHeight="1" spans="1:1">
-      <c r="A91" s="35"/>
-    </row>
-    <row r="92" ht="28" customHeight="1" spans="1:1">
-      <c r="A92" s="35" t="s">
+      <c r="A90" s="35"/>
+    </row>
+    <row r="91" ht="28" customHeight="1" spans="1:1">
+      <c r="A91" s="35" t="s">
         <v>323</v>
       </c>
+    </row>
+    <row r="92" ht="18" customHeight="1" spans="1:1">
+      <c r="A92" s="22"/>
     </row>
     <row r="93" ht="18" customHeight="1" spans="1:1">
       <c r="A93" s="22"/>
@@ -17388,19 +18045,19 @@
     <row r="104" ht="18" customHeight="1" spans="1:1">
       <c r="A104" s="22"/>
     </row>
-    <row r="105" ht="18" customHeight="1" spans="1:1">
-      <c r="A105" s="22"/>
-    </row>
-    <row r="106" ht="18" customHeight="1"/>
-    <row r="107" ht="18" customHeight="1" spans="1:1">
-      <c r="A107" s="35" t="s">
+    <row r="105" ht="18" customHeight="1"/>
+    <row r="106" ht="18" customHeight="1" spans="1:1">
+      <c r="A106" s="35" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="108" ht="57" customHeight="1" spans="1:1">
-      <c r="A108" s="6" t="s">
+    <row r="107" ht="57" customHeight="1" spans="1:1">
+      <c r="A107" s="6" t="s">
         <v>325</v>
       </c>
+    </row>
+    <row r="108" ht="18" customHeight="1" spans="1:1">
+      <c r="A108" s="22"/>
     </row>
     <row r="109" ht="18" customHeight="1" spans="1:1">
       <c r="A109" s="22"/>
@@ -17415,145 +18072,185 @@
       <c r="A112" s="22"/>
     </row>
     <row r="113" ht="18" customHeight="1" spans="1:1">
-      <c r="A113" s="22"/>
+      <c r="A113" s="35" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="114" ht="18" customHeight="1" spans="1:1">
-      <c r="A114" s="35" t="s">
-        <v>326</v>
+      <c r="A114" s="6" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="115" ht="18" customHeight="1" spans="1:1">
-      <c r="A115" s="6" t="s">
-        <v>327</v>
-      </c>
+      <c r="A115" s="32"/>
     </row>
     <row r="116" ht="18" customHeight="1" spans="1:1">
-      <c r="A116" s="32"/>
-    </row>
-    <row r="117" ht="18" customHeight="1" spans="1:1">
-      <c r="A117" s="22"/>
-    </row>
-    <row r="118" ht="39" customHeight="1" spans="1:1">
-      <c r="A118" s="36" t="s">
+      <c r="A116" s="22"/>
+    </row>
+    <row r="117" ht="39" customHeight="1" spans="1:1">
+      <c r="A117" s="36" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="119" ht="27" customHeight="1" spans="1:1">
-      <c r="A119" s="37" t="s">
+    <row r="118" ht="27" customHeight="1" spans="1:1">
+      <c r="A118" s="37" t="s">
         <v>329</v>
       </c>
     </row>
+    <row r="119" ht="18" customHeight="1" spans="1:1">
+      <c r="A119" s="4" t="s">
+        <v>330</v>
+      </c>
+    </row>
     <row r="120" ht="18" customHeight="1" spans="1:1">
-      <c r="A120" s="4" t="s">
-        <v>330</v>
+      <c r="A120" s="38" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="121" ht="18" customHeight="1" spans="1:1">
-      <c r="A121" s="17"/>
+      <c r="A121" s="3" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="122" ht="18" customHeight="1" spans="1:1">
-      <c r="A122" s="17"/>
+      <c r="A122" s="39" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="123" ht="18" customHeight="1" spans="1:1">
-      <c r="A123" s="17"/>
+      <c r="A123" s="3" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="124" ht="18" customHeight="1" spans="1:1">
-      <c r="A124" s="17"/>
+      <c r="A124" s="38" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="125" ht="18" customHeight="1" spans="1:1">
-      <c r="A125" s="17"/>
+      <c r="A125" s="3" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="126" ht="18" customHeight="1" spans="1:1">
-      <c r="A126" s="17"/>
+      <c r="A126" s="40" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="127" ht="18" customHeight="1" spans="1:1">
-      <c r="A127" s="17"/>
+      <c r="A127" s="3" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="128" ht="18" customHeight="1" spans="1:1">
-      <c r="A128" s="17"/>
+      <c r="A128" s="17" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="129" ht="18" customHeight="1" spans="1:1">
-      <c r="A129" s="17"/>
+      <c r="A129" s="3" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="130" ht="18" customHeight="1" spans="1:1">
-      <c r="A130" s="17"/>
+      <c r="A130" s="40" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="131" ht="18" customHeight="1" spans="1:1">
-      <c r="A131" s="17"/>
+      <c r="A131" s="3" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="132" ht="18" customHeight="1" spans="1:1">
       <c r="A132" s="17"/>
     </row>
-    <row r="133" ht="18" customHeight="1" spans="1:1">
-      <c r="A133" s="17"/>
+    <row r="133" ht="22" customHeight="1" spans="1:1">
+      <c r="A133" s="37" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="134" ht="18" customHeight="1" spans="1:1">
-      <c r="A134" s="17"/>
+      <c r="A134" s="4" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="135" ht="18" customHeight="1" spans="1:1">
-      <c r="A135" s="17"/>
+      <c r="A135" s="38" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="136" ht="18" customHeight="1" spans="1:1">
-      <c r="A136" s="17"/>
-    </row>
-    <row r="137" ht="22" customHeight="1" spans="1:1">
-      <c r="A137" s="37" t="s">
-        <v>331</v>
+      <c r="A136" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="137" ht="18" customHeight="1" spans="1:1">
+      <c r="A137" s="40" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="138" ht="18" customHeight="1" spans="1:1">
-      <c r="A138" s="4" t="s">
-        <v>332</v>
+      <c r="A138" s="3" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="139" ht="18" customHeight="1" spans="1:1">
-      <c r="A139" s="17"/>
+      <c r="A139" s="3" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="140" ht="18" customHeight="1" spans="1:1">
-      <c r="A140" s="17"/>
+      <c r="A140" s="3" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="141" ht="18" customHeight="1" spans="1:1">
       <c r="A141" s="17"/>
     </row>
-    <row r="142" ht="18" customHeight="1" spans="1:1">
-      <c r="A142" s="17"/>
+    <row r="142" ht="24" customHeight="1" spans="1:1">
+      <c r="A142" s="17" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="143" ht="18" customHeight="1" spans="1:1">
-      <c r="A143" s="17"/>
+      <c r="A143" s="4" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="144" ht="18" customHeight="1" spans="1:1">
-      <c r="A144" s="17"/>
+      <c r="A144" s="4"/>
     </row>
     <row r="145" ht="18" customHeight="1" spans="1:1">
-      <c r="A145" s="17"/>
+      <c r="A145" s="4"/>
     </row>
     <row r="146" ht="18" customHeight="1" spans="1:1">
-      <c r="A146" s="17"/>
+      <c r="A146" s="4"/>
     </row>
     <row r="147" ht="18" customHeight="1" spans="1:1">
-      <c r="A147" s="17"/>
-    </row>
-    <row r="148" ht="27" customHeight="1" spans="1:1">
-      <c r="A148" s="17" t="s">
-        <v>333</v>
-      </c>
+      <c r="A147" s="4"/>
+    </row>
+    <row r="148" ht="18" customHeight="1" spans="1:1">
+      <c r="A148" s="22"/>
     </row>
     <row r="149" ht="18" customHeight="1" spans="1:1">
-      <c r="A149" s="4" t="s">
-        <v>334</v>
-      </c>
+      <c r="A149" s="22"/>
     </row>
     <row r="150" ht="18" customHeight="1" spans="1:1">
-      <c r="A150" s="4"/>
-    </row>
-    <row r="151" ht="18" customHeight="1" spans="1:1">
-      <c r="A151" s="4"/>
+      <c r="A150" s="22"/>
+    </row>
+    <row r="151" ht="22" customHeight="1" spans="1:1">
+      <c r="A151" s="21" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="152" ht="18" customHeight="1" spans="1:1">
-      <c r="A152" s="4"/>
+      <c r="A152" s="4" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="153" ht="18" customHeight="1" spans="1:1">
-      <c r="A153" s="4"/>
+      <c r="A153" s="22"/>
     </row>
     <row r="154" ht="18" customHeight="1" spans="1:1">
       <c r="A154" s="22"/>
@@ -17564,34 +18261,18 @@
     <row r="156" ht="18" customHeight="1" spans="1:1">
       <c r="A156" s="22"/>
     </row>
-    <row r="157" ht="22" customHeight="1" spans="1:1">
-      <c r="A157" s="21" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="158" ht="18" customHeight="1" spans="1:1">
-      <c r="A158" s="4" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="159" ht="18" customHeight="1" spans="1:1">
-      <c r="A159" s="22"/>
-    </row>
-    <row r="160" ht="18" customHeight="1" spans="1:1">
-      <c r="A160" s="22"/>
-    </row>
-    <row r="161" ht="18" customHeight="1" spans="1:1">
-      <c r="A161" s="22"/>
-    </row>
-    <row r="162" ht="18" customHeight="1" spans="1:1">
-      <c r="A162" s="22"/>
-    </row>
-    <row r="163" ht="18" customHeight="1" spans="1:1">
-      <c r="A163" s="22"/>
-    </row>
+    <row r="157" ht="18" customHeight="1" spans="1:1">
+      <c r="A157" s="22"/>
+    </row>
+    <row r="158" ht="18" customHeight="1"/>
+    <row r="159" ht="18" customHeight="1"/>
+    <row r="160" ht="35" customHeight="1"/>
+    <row r="161" ht="18" customHeight="1"/>
+    <row r="162" ht="18" customHeight="1"/>
+    <row r="163" ht="18" customHeight="1"/>
     <row r="164" ht="18" customHeight="1"/>
     <row r="165" ht="18" customHeight="1"/>
-    <row r="166" ht="35" customHeight="1"/>
+    <row r="166" ht="18" customHeight="1"/>
     <row r="167" ht="18" customHeight="1"/>
     <row r="168" ht="18" customHeight="1"/>
     <row r="169" ht="18" customHeight="1"/>
@@ -17610,24 +18291,36 @@
     <row r="182" ht="18" customHeight="1"/>
     <row r="183" ht="18" customHeight="1"/>
     <row r="184" ht="18" customHeight="1"/>
-    <row r="185" ht="18" customHeight="1"/>
+    <row r="185" ht="68" customHeight="1"/>
     <row r="186" ht="18" customHeight="1"/>
     <row r="187" ht="18" customHeight="1"/>
     <row r="188" ht="18" customHeight="1"/>
     <row r="189" ht="18" customHeight="1"/>
     <row r="190" ht="18" customHeight="1"/>
-    <row r="191" ht="68" customHeight="1"/>
-    <row r="192" ht="18" customHeight="1"/>
+    <row r="191" ht="28" customHeight="1"/>
+    <row r="192" ht="73" customHeight="1"/>
     <row r="193" ht="18" customHeight="1"/>
     <row r="194" ht="18" customHeight="1"/>
     <row r="195" ht="18" customHeight="1"/>
     <row r="196" ht="18" customHeight="1"/>
-    <row r="197" ht="28" customHeight="1"/>
-    <row r="198" ht="73" customHeight="1"/>
-    <row r="199" ht="18" customHeight="1"/>
-    <row r="200" ht="18" customHeight="1"/>
-    <row r="201" ht="18" customHeight="1"/>
-    <row r="202" ht="18" customHeight="1"/>
+    <row r="197" ht="18" customHeight="1" spans="1:1">
+      <c r="A197" s="22"/>
+    </row>
+    <row r="198" ht="18" customHeight="1" spans="1:1">
+      <c r="A198" s="22"/>
+    </row>
+    <row r="199" ht="18" customHeight="1" spans="1:1">
+      <c r="A199" s="22"/>
+    </row>
+    <row r="200" ht="18" customHeight="1" spans="1:1">
+      <c r="A200" s="22"/>
+    </row>
+    <row r="201" ht="18" customHeight="1" spans="1:1">
+      <c r="A201" s="22"/>
+    </row>
+    <row r="202" ht="18" customHeight="1" spans="1:1">
+      <c r="A202" s="22"/>
+    </row>
     <row r="203" ht="18" customHeight="1" spans="1:1">
       <c r="A203" s="22"/>
     </row>
@@ -17667,9 +18360,7 @@
     <row r="215" ht="18" customHeight="1" spans="1:1">
       <c r="A215" s="22"/>
     </row>
-    <row r="216" ht="18" customHeight="1" spans="1:1">
-      <c r="A216" s="22"/>
-    </row>
+    <row r="216" ht="18" customHeight="1"/>
     <row r="217" ht="18" customHeight="1" spans="1:1">
       <c r="A217" s="22"/>
     </row>
@@ -17685,26 +18376,28 @@
     <row r="221" ht="18" customHeight="1" spans="1:1">
       <c r="A221" s="22"/>
     </row>
-    <row r="222" ht="18" customHeight="1"/>
+    <row r="222" ht="18" customHeight="1" spans="1:1">
+      <c r="A222" s="22"/>
+    </row>
     <row r="223" ht="18" customHeight="1" spans="1:1">
       <c r="A223" s="22"/>
     </row>
-    <row r="224" ht="18" customHeight="1" spans="1:1">
+    <row r="224" ht="30" customHeight="1" spans="1:1">
       <c r="A224" s="22"/>
     </row>
-    <row r="225" ht="18" customHeight="1" spans="1:1">
+    <row r="225" ht="30" customHeight="1" spans="1:1">
       <c r="A225" s="22"/>
     </row>
-    <row r="226" ht="18" customHeight="1" spans="1:1">
+    <row r="226" ht="30" customHeight="1" spans="1:1">
       <c r="A226" s="22"/>
     </row>
-    <row r="227" ht="18" customHeight="1" spans="1:1">
+    <row r="227" ht="30" customHeight="1" spans="1:1">
       <c r="A227" s="22"/>
     </row>
-    <row r="228" ht="18" customHeight="1" spans="1:1">
+    <row r="228" ht="30" customHeight="1" spans="1:1">
       <c r="A228" s="22"/>
     </row>
-    <row r="229" ht="18" customHeight="1" spans="1:1">
+    <row r="229" ht="30" customHeight="1" spans="1:1">
       <c r="A229" s="22"/>
     </row>
     <row r="230" ht="30" customHeight="1" spans="1:1">
@@ -17734,34 +18427,34 @@
     <row r="238" ht="30" customHeight="1" spans="1:1">
       <c r="A238" s="22"/>
     </row>
-    <row r="239" ht="30" customHeight="1" spans="1:1">
+    <row r="239" ht="13.5" customHeight="1" spans="1:1">
       <c r="A239" s="22"/>
     </row>
-    <row r="240" ht="30" customHeight="1" spans="1:1">
+    <row r="240" ht="13.5" customHeight="1" spans="1:1">
       <c r="A240" s="22"/>
     </row>
-    <row r="241" ht="30" customHeight="1" spans="1:1">
-      <c r="A241" s="22"/>
-    </row>
-    <row r="242" ht="30" customHeight="1" spans="1:1">
-      <c r="A242" s="22"/>
-    </row>
-    <row r="243" ht="30" customHeight="1" spans="1:1">
+    <row r="241" ht="13.5" customHeight="1"/>
+    <row r="242" ht="13.5" customHeight="1"/>
+    <row r="243" ht="13.5" customHeight="1" spans="1:1">
       <c r="A243" s="22"/>
     </row>
-    <row r="244" ht="30" customHeight="1" spans="1:1">
+    <row r="244" ht="13.5" customHeight="1" spans="1:1">
       <c r="A244" s="22"/>
     </row>
     <row r="245" ht="13.5" customHeight="1" spans="1:1">
       <c r="A245" s="22"/>
     </row>
     <row r="246" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A246" s="22"/>
-    </row>
-    <row r="247" ht="13.5" customHeight="1"/>
-    <row r="248" ht="13.5" customHeight="1"/>
+      <c r="A246" s="41"/>
+    </row>
+    <row r="247" ht="13.5" customHeight="1" spans="1:1">
+      <c r="A247" s="17"/>
+    </row>
+    <row r="248" ht="13.5" customHeight="1" spans="1:1">
+      <c r="A248" s="17"/>
+    </row>
     <row r="249" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A249" s="22"/>
+      <c r="A249" s="17"/>
     </row>
     <row r="250" ht="13.5" customHeight="1" spans="1:1">
       <c r="A250" s="22"/>
@@ -17770,70 +18463,70 @@
       <c r="A251" s="22"/>
     </row>
     <row r="252" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A252" s="38"/>
+      <c r="A252" s="22"/>
     </row>
     <row r="253" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A253" s="17"/>
+      <c r="A253" s="42"/>
     </row>
     <row r="254" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A254" s="17"/>
+      <c r="A254" s="43"/>
     </row>
     <row r="255" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A255" s="17"/>
+      <c r="A255" s="43"/>
     </row>
     <row r="256" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A256" s="22"/>
+      <c r="A256" s="43"/>
     </row>
     <row r="257" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A257" s="22"/>
+      <c r="A257" s="43"/>
     </row>
     <row r="258" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A258" s="22"/>
+      <c r="A258" s="43"/>
     </row>
     <row r="259" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A259" s="39"/>
+      <c r="A259" s="43"/>
     </row>
     <row r="260" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A260" s="40"/>
+      <c r="A260" s="22"/>
     </row>
     <row r="261" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A261" s="40"/>
+      <c r="A261" s="22"/>
     </row>
     <row r="262" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A262" s="40"/>
+      <c r="A262" s="22"/>
     </row>
     <row r="263" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A263" s="40"/>
+      <c r="A263" s="42"/>
     </row>
     <row r="264" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A264" s="40"/>
+      <c r="A264" s="22"/>
     </row>
     <row r="265" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A265" s="40"/>
+      <c r="A265" s="42"/>
     </row>
     <row r="266" ht="13.5" customHeight="1" spans="1:1">
       <c r="A266" s="22"/>
     </row>
     <row r="267" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A267" s="22"/>
+      <c r="A267" s="42"/>
     </row>
     <row r="268" ht="13.5" customHeight="1" spans="1:1">
       <c r="A268" s="22"/>
     </row>
     <row r="269" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A269" s="39"/>
+      <c r="A269" s="22"/>
     </row>
     <row r="270" ht="13.5" customHeight="1" spans="1:1">
       <c r="A270" s="22"/>
     </row>
     <row r="271" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A271" s="39"/>
+      <c r="A271" s="22"/>
     </row>
     <row r="272" ht="13.5" customHeight="1" spans="1:1">
       <c r="A272" s="22"/>
     </row>
     <row r="273" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A273" s="39"/>
+      <c r="A273" s="22"/>
     </row>
     <row r="274" ht="13.5" customHeight="1" spans="1:1">
       <c r="A274" s="22"/>
@@ -20165,24 +20858,6 @@
     </row>
     <row r="1050" ht="13.5" customHeight="1" spans="1:1">
       <c r="A1050" s="22"/>
-    </row>
-    <row r="1051" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A1051" s="22"/>
-    </row>
-    <row r="1052" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A1052" s="22"/>
-    </row>
-    <row r="1053" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A1053" s="22"/>
-    </row>
-    <row r="1054" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A1054" s="22"/>
-    </row>
-    <row r="1055" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A1055" s="22"/>
-    </row>
-    <row r="1056" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A1056" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
@@ -20208,44 +20883,44 @@
   <sheetData>
     <row r="1" customFormat="1" ht="29" customHeight="1" spans="1:1">
       <c r="A1" s="4" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="18" customHeight="1" spans="1:1">
       <c r="A2" s="4" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="18" customHeight="1" spans="1:1">
       <c r="A3" s="4" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
     </row>
     <row r="4" customFormat="1" ht="18" customHeight="1" spans="1:1">
       <c r="A4" s="4" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
     </row>
     <row r="5" customFormat="1" ht="18" customHeight="1" spans="1:1">
       <c r="A5" s="4" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
     </row>
     <row r="6" ht="18" customHeight="1"/>
     <row r="7" ht="18" customHeight="1"/>
     <row r="8" customFormat="1" ht="18" customHeight="1" spans="1:1">
       <c r="A8" s="8" t="s">
-        <v>342</v>
+        <v>356</v>
       </c>
     </row>
     <row r="9" customFormat="1" ht="18" customHeight="1" spans="1:1">
       <c r="A9" s="4" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
     </row>
     <row r="10" customFormat="1" ht="18" customHeight="1" spans="1:1">
       <c r="A10" s="4" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
     </row>
     <row r="11" ht="18" customHeight="1"/>
@@ -20253,25 +20928,25 @@
     <row r="13" ht="13.5" customHeight="1"/>
     <row r="14" customFormat="1" ht="13.5" customHeight="1" spans="1:1">
       <c r="A14" s="8" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
     </row>
     <row r="15" customFormat="1" ht="13.5" customHeight="1" spans="1:3">
       <c r="A15" s="9" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
     </row>
     <row r="16" customFormat="1" ht="13.5" customHeight="1" spans="1:1">
       <c r="A16" s="11" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
     </row>
     <row r="17" customFormat="1" ht="13.5" customHeight="1" spans="1:1">
       <c r="A17" s="11" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
     </row>
     <row r="18" customFormat="1" ht="13.5" customHeight="1" spans="1:1">
@@ -20279,22 +20954,22 @@
     </row>
     <row r="19" customFormat="1" ht="13.5" customHeight="1" spans="1:1">
       <c r="A19" s="11" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
     </row>
     <row r="20" customFormat="1" ht="13.5" customHeight="1" spans="1:1">
       <c r="A20" s="11" t="s">
-        <v>351</v>
+        <v>365</v>
       </c>
     </row>
     <row r="21" customFormat="1" ht="13.5" customHeight="1" spans="1:1">
       <c r="A21" s="11" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
     </row>
     <row r="22" customFormat="1" ht="13.5" customHeight="1" spans="1:1">
       <c r="A22" s="11" t="s">
-        <v>353</v>
+        <v>367</v>
       </c>
     </row>
     <row r="23" customFormat="1" ht="13.5" customHeight="1" spans="1:1">
@@ -20302,7 +20977,7 @@
     </row>
     <row r="24" customFormat="1" ht="13.5" customHeight="1" spans="1:1">
       <c r="A24" s="13" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
     </row>
     <row r="25" customFormat="1" ht="13.5" customHeight="1" spans="1:1">
@@ -20310,12 +20985,12 @@
     </row>
     <row r="26" customFormat="1" ht="13.5" customHeight="1" spans="1:1">
       <c r="A26" s="11" t="s">
-        <v>355</v>
+        <v>369</v>
       </c>
     </row>
     <row r="27" customFormat="1" ht="13.5" customHeight="1" spans="1:1">
       <c r="A27" s="11" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
     </row>
     <row r="28" customFormat="1" ht="13.5" customHeight="1" spans="1:1">
@@ -20323,7 +20998,7 @@
     </row>
     <row r="29" customFormat="1" ht="13.5" customHeight="1" spans="1:1">
       <c r="A29" s="13" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
     </row>
     <row r="30" customFormat="1" ht="13.5" customHeight="1" spans="1:1">
@@ -20331,17 +21006,17 @@
     </row>
     <row r="31" customFormat="1" ht="13.5" customHeight="1" spans="1:1">
       <c r="A31" s="11" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
     </row>
     <row r="32" customFormat="1" ht="13.5" customHeight="1" spans="1:1">
       <c r="A32" s="11" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
     </row>
     <row r="33" customFormat="1" ht="13.5" customHeight="1" spans="1:1">
       <c r="A33" s="11" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
     </row>
     <row r="34" customFormat="1" ht="13.5" customHeight="1" spans="1:1">
@@ -20349,7 +21024,7 @@
     </row>
     <row r="35" customFormat="1" ht="13.5" customHeight="1" spans="1:1">
       <c r="A35" s="11" t="s">
-        <v>360</v>
+        <v>374</v>
       </c>
     </row>
     <row r="36" customFormat="1" ht="13.5" customHeight="1" spans="1:1">
@@ -20357,7 +21032,7 @@
     </row>
     <row r="37" customFormat="1" ht="13.5" customHeight="1" spans="1:1">
       <c r="A37" s="11" t="s">
-        <v>361</v>
+        <v>375</v>
       </c>
     </row>
     <row r="38" customFormat="1" ht="13.5" customHeight="1" spans="1:1">
@@ -20365,7 +21040,7 @@
     </row>
     <row r="39" customFormat="1" ht="13.5" customHeight="1" spans="1:1">
       <c r="A39" s="11" t="s">
-        <v>362</v>
+        <v>376</v>
       </c>
     </row>
     <row r="40" customFormat="1" ht="13.5" customHeight="1" spans="1:1">
@@ -20373,7 +21048,7 @@
     </row>
     <row r="41" customFormat="1" ht="13.5" customHeight="1" spans="1:1">
       <c r="A41" s="11" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
     </row>
     <row r="42" ht="13.5" customHeight="1"/>
@@ -21356,129 +22031,129 @@
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>365</v>
+        <v>379</v>
       </c>
     </row>
     <row r="2" ht="13.5" customHeight="1" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>369</v>
+        <v>383</v>
       </c>
     </row>
     <row r="3" ht="13.5" customHeight="1" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
     </row>
     <row r="4" ht="13.5" customHeight="1" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>375</v>
+        <v>389</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
     </row>
     <row r="5" ht="13.5" customHeight="1" spans="1:6">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="E5" s="2" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>379</v>
+        <v>393</v>
       </c>
     </row>
     <row r="6" ht="13.5" customHeight="1" spans="5:6">
       <c r="E6" s="2" t="s">
-        <v>380</v>
+        <v>394</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>381</v>
+        <v>395</v>
       </c>
     </row>
     <row r="7" ht="25" customHeight="1" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>382</v>
+        <v>396</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="F7" s="4"/>
     </row>
     <row r="8" ht="13.5" customHeight="1" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>384</v>
+        <v>398</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>387</v>
+        <v>401</v>
       </c>
     </row>
     <row r="9" ht="13.5" customHeight="1" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>389</v>
+        <v>403</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>391</v>
+        <v>405</v>
       </c>
     </row>
     <row r="10" ht="13.5" customHeight="1" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>392</v>
+        <v>406</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>393</v>
+        <v>407</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>394</v>
+        <v>408</v>
       </c>
     </row>
     <row r="11" ht="13.5" customHeight="1" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>397</v>
+        <v>411</v>
       </c>
     </row>
     <row r="12" ht="13.5" customHeight="1" spans="2:2">
@@ -21487,45 +22162,45 @@
     <row r="13" ht="13.5" customHeight="1"/>
     <row r="14" ht="25" customHeight="1" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
     </row>
     <row r="15" ht="13.5" customHeight="1" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>399</v>
+        <v>413</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>400</v>
+        <v>414</v>
       </c>
     </row>
     <row r="16" ht="13.5" customHeight="1" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>402</v>
+        <v>416</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>403</v>
+        <v>417</v>
       </c>
     </row>
     <row r="17" ht="13.5" customHeight="1" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>405</v>
+        <v>419</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>403</v>
+        <v>417</v>
       </c>
     </row>
     <row r="18" ht="13.5" customHeight="1" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>407</v>
+        <v>421</v>
       </c>
     </row>
     <row r="19" ht="13.5" customHeight="1"/>
